--- a/crawling_data/1_5.xlsx
+++ b/crawling_data/1_5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>paths</t>
   </si>
@@ -46,15 +46,78 @@
     <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=119&amp;aid=0002492561</t>
   </si>
   <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=103&amp;oid=092&amp;aid=0002222140</t>
-  </si>
-  <si>
     <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=417&amp;aid=0000693652</t>
   </si>
   <si>
     <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=015&amp;aid=0004546086</t>
   </si>
   <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=001&amp;aid=0012384169</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=030&amp;aid=0002943672</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=421&amp;aid=0005345961</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=092&amp;aid=0002221830</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=011&amp;aid=0003909808</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=421&amp;aid=0005342640</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=008&amp;aid=0004585226</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010492161</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=030&amp;aid=0002943855</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=277&amp;aid=0004900951</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=469&amp;aid=0000603795</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=004&amp;oid=366&amp;aid=0000715268</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=629&amp;aid=0000080799</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=030&amp;aid=0002943237</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010491911</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=015&amp;aid=0004545171</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=030&amp;aid=0002943850</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=009&amp;aid=0004792597</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=001&amp;aid=0012369878</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=417&amp;aid=0000691032</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=030&amp;aid=0002943342</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=092&amp;aid=0002221013</t>
+  </si>
+  <si>
     <t>'배민' 찾은 기재차관 "SW 인력, 기업 주도로 키울 것"</t>
   </si>
   <si>
@@ -73,15 +136,78 @@
     <t>이재용의 SW 인재 양성 의지 담긴 SSAFY 6기 모집...14일까지</t>
   </si>
   <si>
-    <t>씨와이, 자동차 관련 핵심 SW인력 양성한다</t>
-  </si>
-  <si>
     <t>국립부산과학관, 과학적 상상력 더하는  교육프로그램 개강</t>
   </si>
   <si>
     <t>경북도, AI인재 키운다…농업인·고교생 교육</t>
   </si>
   <si>
+    <t>세종교육청 '가족이 함께하는 소프트웨어 교육체험' 운영</t>
+  </si>
+  <si>
+    <t>770억원 규모 나이스 SW 시장 열린다... 이달 응용SW 발주</t>
+  </si>
+  <si>
+    <t>이노베이션 아카데미 4기 250명 입교…"AI·SW 인재 양성 박차"</t>
+  </si>
+  <si>
+    <t>한국알테어, 교육기관에 데이터분석SW 무상 제공</t>
+  </si>
+  <si>
+    <t>생산성본부·폴리텍대학·SW산업협회, AI 기술인재 양성 업무협약</t>
+  </si>
+  <si>
+    <t>한국과학창의재단, SW·AI 수업 우수사례 공모전 개최</t>
+  </si>
+  <si>
+    <t>과학창의재단, SW·AI 수업 우수사례 공모전 열어</t>
+  </si>
+  <si>
+    <t>우송대, 빅데이터 분석 교육과정 운영 미국 업체와 협약</t>
+  </si>
+  <si>
+    <t>이티에듀·메카솔루션, 미래교육 콘텐츠와 물류서비스 강화 위해 '맞손'</t>
+  </si>
+  <si>
+    <t>동명대, 시니어 컴퓨터기초 무상 교육 … SW중심대학사업단·남구노인복지관 공동 시행</t>
+  </si>
+  <si>
+    <t>KT, 경북교육청과 초·중·고·특수학교에 무선망 구축</t>
+  </si>
+  <si>
+    <t>서울산업진흥원(SBA), 주니어 SW개발자 채용 기업 모집</t>
+  </si>
+  <si>
+    <t>KT·한양대, AI 실습교육 강화 협력 "국내 AI 인재 양성 박차"</t>
+  </si>
+  <si>
+    <t>[SW-플랫폼 동반성장]SW산업협회, SaaS 지원 강화로 산업 경쟁력 높인다</t>
+  </si>
+  <si>
+    <t>경남 미래교육지원플랫폼 '아이톡톡'에 빅데이터·AI 날개 단다</t>
+  </si>
+  <si>
+    <t>C3.ai, 글로벌 엔터프라이즈 인공지능(AI) SW의 대명사</t>
+  </si>
+  <si>
+    <t>'AI시대 미래교육 혜안을 듣는다'…19일 대한민국교육박람회 토크콘서트</t>
+  </si>
+  <si>
+    <t>[Edu News] 그린컴퓨터아카데미, 문과생 맞춤 IT개발 교육…'네카라쿠배당토' 취업 도전하세요</t>
+  </si>
+  <si>
+    <t>IT 개발자 꿈꾸는 유학파도 입학…폴리텍 교육과정 인기</t>
+  </si>
+  <si>
+    <t>네이버클라우드 타고 중소SW기업 글로벌 진출… ‘SaaS N’ 컨소시엄 출범</t>
+  </si>
+  <si>
+    <t>DIP, 퓨전소프트 등 SW기업 4곳과 SW핵심인재양성 업무협약</t>
+  </si>
+  <si>
+    <t>SW산업협회, 한국전력공사 SW 특화 전문 교육 실시</t>
+  </si>
+  <si>
     <t>2021.05.14. 오전 11:30</t>
   </si>
   <si>
@@ -100,40 +226,166 @@
     <t>2021.05.12. 오후 7:40</t>
   </si>
   <si>
-    <t>2021.05.14. 오후 5:39</t>
-  </si>
-  <si>
     <t>2021.05.14. 오전 11:11</t>
   </si>
   <si>
     <t>2021.05.13. 오후 5:48</t>
   </si>
   <si>
-    <t>// flash 오류를 우회하기 위한 함수 추가function _flash_removeCallback() {}이억원 차관, K-디지털 트레이닝 현장 방문"자율성은 향상, '통제 중심 감독'은 최소화"[서울=뉴시스] 이억원 기획재정부 제1 차관. photo@newsis.com *재판매 및 DB 금지[세종=뉴시스] 김진욱 기자 = 이억원 기획재정부 제1 차관이 14일 "이달 말 발표 예정인 '소프트웨어(SW) 분야 인력 양성 추진 계획'에 기업 주도형 인력 양성 지원 방안을 담겠다"고 했다.이억원 차관은 이날 서울 송파구에 있는 우아한테크코스를 찾아 모두발언을 통해 이렇게 밝혔다. 우아한테크코스는 음식 배달 전문 애플리케이션 '배달의민족'을 운영하는 우아한형제들이 설립한 현장형 SW 인력 양성 기관이다. 한국판 뉴딜 핵심 과제 중 하나인 디지털 핵심 실무 인재 사업 'K-디지털 트레이닝'에 참여하고 있다.이억원 차관은 "디지털 전환, 신산업 등장 등 경제 구조가 변화하고, 코로나19로 디지털 수요가 커지는 가운데 새 인력을 육성하는 것은 국가적 과제"라면서 "우아한테크코스처럼 청년이 선호하는 기관이 프로젝트 중심의 교육 과정을 제공하고, 현장 맞춤형 SW 인재를 양성하는 모델이 더 확산할 필요가 있다"고 했다."K-디지털 트레이닝 지원 대상·기간을 확대할 계획이 있느냐"는 교육생의 문의에 이억원 차관은 "우수 인재가 계속 양성된다면 꾸준히 추진되는 사업이 될 것"이라고 했다. "지원 평가 체계를 취업률 등 성과에 맞춰 달라"는 우아한테크코스 교육 담당자에게는 "자율성을 높이고, 통제 중심의 지도·감독을 최소화하겠다"고 했다.이억원 차관은 교육 과정을 온라인으로 참관한 뒤 "청년 SW 인력 양성과 일자리 확충을 위해 정부가 지원할 수 있는 혁신 방안을 계속 검토할 것"이라면서 "올해 추경(추가경정예산)에서 확정된 디지털 인재 2만 명 추가 육성을 시작으로 오는 2025년까지 18만 명 목표가 달성되도록 적극적으로 지원하겠다"고 했다.이번 현장 방문은 지난 3월 마련된 청년 고용 활성화 대책 추진 상황 점검의 일환으로 마련됐다. 기업의 정보통신기술(ICT) 인재 구인난에 대응해 청년 SW 인력 양성을 위한 정부 지원 방안을 모색하고, K-디지털 트레이닝 진행 상황을 점검하기 위한 자리다.☞공감언론 뉴시스 str8fwd@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
-  </si>
-  <si>
-    <t>// flash 오류를 우회하기 위한 함수 추가function _flash_removeCallback() {}[코리아 ICT 정책 톺아보기 ⑤] 인재 양성 (상)(지디넷코리아=김우용 남혁우 임유경 김윤희  기자)모든 산업의 기반은 SW다. SW가 모든 산업의 성공과 실패를 좌우한다. 4차산업혁명의 시대, 디지털로 산업의 중심을 재편하는 디지털 트랜스포메이션 시대에 SW를 바로 세우지 못하면 미래를 확신할 수 없다. 그런 가운데 한국의 SW 경쟁력은 선두권 국가와 비교해 많이 뒤져 보인다. 어디서부터 잘못된 것일까. 이 같은 현실에서 본지는 정부의 ICT 정책을 집중 분석해 보는 '코리아 ICT 정책 톺아보기' 시리즈를 마련한다. 정부의 정책이 SW 산업의 경쟁력을 높이는 출발점이란 판단에서다. 2000년대 이후 정부의 ICT 정책 가운데 20개의 주요 SW 정책을 선정, 각 정책의 시행 배경과 목표, 성과를 분석해 보고 과제와 대안을 모색한다.[편집자주]디지털 전환의 시대를 맞아 SW 인력 가뭄이 극심하다. IT 선진국이라 할 미국에서도 개발자 품귀 현상이 거론될 정도다. 한국도 마찬가지다. 이른바 ‘네카라쿠배’라 꼽히는 21세기 한국의 인터넷 기업은 국내 개발자를 블랙홀처럼 빨아들이면서도 인력 부족을 호소하는 형편이다.IT인력을 양성해야 한다는 목소리는 일찌감치 나왔다. 정부도 그 목소리를 완전히 무시하지 않았다. 거의 매년 ‘X만 인력 양성’ 정책이 발표됐다. 주요 정책이 계획대로 실행됐다면 적어도 몇만명 이상 키워졌을 SW 인력은 지금 어디에 있기에 2021년 현재 개발자 가뭄 얘기를 들어야 하는지 반성해볼 시점이다.본지는 그간 정부의 SW 인재 양성 정책 가운데 여섯개를 선정해 검토했다. SW 인재를 키워내기 위해 취해지는 정책의 방향은 크게 세 갈래로 분류된다. 하나는 각 분야별 전문가를 키우는 엘리트 양성, 기업 인력 수요에 대응하는 교육기관 지원, 기존 인력의 역량을 높이거나 전환하는 보수교육 등이다.대학정보통신연구센터(ITRC), AI 전문대학원, SW 마에스트로 등의 정책은 엘리트 양성의 일환이다. SW 중심대학, SW 마이스터고등학교 등의 정책은 기업 IT인력 양성 차원에서 시행된다. 그리고 SW산업 기술 변화에 맞춰 재직자에게 재교육을 제공하는 여러 프로그램이 있다.현재 산업계에서 부족을 호소하는 개발자 인력은 기본적인 프로그래밍 소양을 갖추고, 일정 수준 이상의 IT 프로젝트에서 개발 실무를 수행할 초급에서 중급 사이의 인재다. 역량 피라미드의 허리 부분에서 빈약함을 드러내고 있는데, 정부의 SW 인력 정책이 허리층을 두텁게 하는데 성공했는지 가늠해봐야 한다. 고등학교, 대학교, 사설교육기관 등에서 배출되는 인력이 적지 않은데도 왜 기업에서 인력 부족을 이야기 하는지 공급과 수요 사이의 괴리를 2편의 기사에 걸쳐 검토해본다.출처=이미지투데이■ 대학정보통신연구센터(ITRC), 20년 간 IT고급인력 양성ITRC는 대학원에서 IT기반 핵심융합기술개발과 프로젝트 수행능력을 갖춘 석박사급 고급 IT인력을 양성할 수 있도록 지원하는 사업이다. 2000년부터 블록체인, 차세대통신, 인공지능(AI), 사물인터넷(IoT), 디지털트윈, 몰입형콘텐츠 등 ICT 산업현장 내 인력 수요가 높고, 기술 수준 제고가 시급한 분야를 정한 후 신청한 대학 중 선정해 진행해오고 있다. 신청학교는 ICT분야 대학원이 설치된 국내 대학으로 제한된다.이 사업은 창의적이고 능동적인 인재 양성을 목표로 한다. 학생 연구원이 원하는 연구를 진행하는 혁신도약형 연구가 필수 과제이며, 창업 친화적인 마인드 제고와 기술창업 등을 활성화하기 위해 기업가정신교육과 창업 아이디어 경진대회도 실시한다.실제 업무 현장에 필요한 능력 향상을 위해 지역 중소·중견기업 및 지자체 등과 공동연구 등 협력 프로그램도 마련된다.ITRC 사업은 20년간 43개 센터를 지원하며 1만6천여명의 인재를 양성하고, 국내외 특허등록 5천300여건, 기술이전 수입 480여억원 등 성과를 기록했다. 올해는 신규센터 8곳을 추가로 선정해 총예산 384억원을 지원한다. 지원기간은 최대 6년에서 8년으로 확대하고, 연간 지원금 최대 8억원으로 증액했다.ITRC 사업 성과(출처=과학기술정보통신부)카이스트 인공지능반도체시스템 연구센터 김주영 교수는 “인공지능, 반도체 등 전문적인 IT기술이 필요한 분야는 ITRC를 통해 효과를 보고 있다”며 “이러한 전문 기술을 발전시키기 위해선 보다 적극적인 투자가 필요하다”고 말했다.■ AI대학원 및 AI융합연구센터AI 대학원 지원사업은 석박사급 고급 AI 인재 양성을 목표로 추진된 사업이다. ICT분야 대학원이 설치된 국내 대학(원)에 AI 관련 석·박사 교육과정을 개설할 수 있도록 지원한다. 단일 대학에 투입하는 예산 규모도 파격적이다. 최대 10년간 사업 첫 해 10억원, 2년차부터 연간 20억원씩 총 190억원을 지원한다.사업 첫 해인 2019년 카이스트(KAIST), 고려대, 성균관대, 광주과기원(GIST), 포항공대(POSTECH)가 선정됐다. 지난해 연세대, 울산과학기술원(UNIST), 한양대가 추가됐고, 올해 서울대, 중앙대까지 선정되면서 총 10개 AI 대학원이 운영되게 됐다.지원사업에 선정된 AI 대학원은 AI핵심 이론 및 심화과정이 포함된 교육과정을 개설하고, 정원 40명 이상의 석박사 과정을 운영한다. 정부가 요구한 필수 요건에 더해 특화된 운영 계획안을 수립하고, 운영하고 있다. 예컨대 연세대는 AI 전임교원을 기존 8명에서 2024년까지 18명으로 확대했다. AI 학과 신설과 더불어 AI 데이터센터, AI 융합연구원 등을 설치해 전교생을 대상으로 AI 교육을 확산했다.정부는 AI 융합 인재 양성을 위한 AI 융합연구센터 지원 사업도 추진하고 있다.AI 융합연구센터 지원사업은 AI를 의료, 금융, 제조 분야 등 다양한 산업에 접목해, 해당 산업의 생산성과 경쟁력을 향상하기 위해 추진된다. 각 산업별 AI 분야 산학 협력이 활성화돼 있는 지역 거점 대학을 선정해 AI융합연구센터 설립 및 운영을 지원한다.AI융합연구센터로 선정된 대학은 1년차 11억원을 시작으로 2년차부터 15억원씩 총 3년간 41억원의 연구비를 지원받는다. 부산대, 인하대, 충남대, 한양대(에리카캠퍼스) 등 4개 대학에 AI융합연구센터 구축이 결정됐다.■”초·중등부터 SW 교육 시켜야”...17·34시간 의무화정부는 SW 인재 양성을 위해, 정규 교육과정에 SW 교육을 의무화하는 정책을 추진했다. 지난 2014년 발표된 'SW 중심사회 실현전략'에서 시작된 정책이다. 이후 2015년 발표한 'SW 중심사회를 위한 인재양성 추진계획'에서 SW 교육 필수화를 위한 실행 과제를 마련했다.이에 따라 초등학교는 2019년, 중학생은 2018년부터 SW 교육을 의무화했다. 수업 시수는 초등학교 17시간, 중학교 34시간이다.소프트웨어 교육을 받고 있는 초등학생들(출처=뉴스1)교사의 SW 교육 역량을 강화하는 직무교육도 실시됐다. 초등교사의 30%인 6만명을 대상으로 직무교육을 실시하고, 이 중 6천명은 SW 심화 연수를 실시했다. 중학교 '정보' 과목 교사와 '정보컴퓨터' 자격증 보유 교사 대상 심화연수도 추진했다. 정보 컴퓨터 교사의 경우 매년 늘려 2016년 기준 50명이던 교사 수를 2020년까지 500명까지 확보할 수 있도록 계획했다.물적 인프라도 확대 보급했다. 컴퓨터실 미확보 학교 172개교 중 69개교에 대해서는 2020년까지 컴퓨터실을 설치하고, 소규모 학교 등 103개교는 특별실 등 대체 시설에서 노트북이나 태블릿 PC 등을 활용해 SW 교육을 실시하기로 했다.■ SW 중심 대학 지원 제도SW 중심 대학 사업은 대학 내 SW 교육을 현장 수요에 맞춰 혁신하기 위한 정책이다. 이는 SW 의무 교육과 마찬가지로 'SW 중심사회 실현전략' 중 하나로 계획돼 지난 2015년부터 시행됐다.SW 중심 대학은 SW 전공자에 대해 프로젝트 실습과 인턴십을 필수화하고, 실전 영어교육과 글로벌 교육을 강화하게 했다. 비전공자에 대해서도 전공별 특성에 맞는 SW 기초 교육을 제공하도록 했다. 대학 당 최장 6년, 연간 최대 20억원의 예산이 지원됐다. 이후 정부는 매년 사업을 추진하면서 2019년까지 총 40개 SW 중심 대학을 선정했다.사업 6년째인 작년에는 대학을 추가 선정하는 대신, SW 중심 대학 사업 개편안을 마련했다. 개편안은 교육 내용 측면에서 AI, 빅데이터, 블록체인 등 신기술 분야 교육을 강화하는 내용을 담았다. 대학은 AI 전공 및 융합전공 표준 교육모델을 공동으로 개발, 보급하게 된다. 융합교육 지원을 위해 각 전공 계열별 차별화된 SW 교육 과목을 개설하고, 학부 학생의 대학원 교과목 수강 허용 및 졸업기간 단축 등 대학-대학원 간 연계성도 강화하는 등의 내용도 포함됐다구직구인 수요가 상호 충족될 수 있도록 산학협력 플랫폼도 만들기로 했다. 대학 공동 인턴십 매칭 플랫폼을 구축, 활용하고 기업의 기술 수요 및 문제 해결을 위한 공동 온라인 경연대회를 개최하게 된다. 그 외 산업체 전문가를 교원으로 임용할 수 있도록 비전일제 근무 시에도 인건비를 지급할 수 있도록 규정을 개정했다.사업 세부 요건에서 선정된 대학의 최장 지원 기간을 6년에서 8년으로 확대하고, 기존에 선정된 대학도 재선정 가능하도록 변경했다. 중소 규모 대학도 참여할 수 있도록 하는 '특화형 트랙'도 신설했다. 특화형 트랙은 SW 학과 100명 이상 입학 정원 확보, 대학원 SW 학과 운영 의무 등의 요건을 적용하지 않는 대신 지원 규모와 기간을 축소 적용한다.대학이 능동적으로 SW 교육 혁신을 실시할 수 있도록 SW 중심 대학 선정 및 평가 관련 필수 사항을 최소화하고, 자율제안 항목은 확대했다. 평가 체계 측면에선 달성 건수, 인원 수 등 양적 지표를 축소하고 대학의 성과 목표가 적정한지 검토하는 '성과목표검증위원회'를 구성, 운영하도록 해 질적 지표 중심의 평가가 이뤄지도록 개선하는 내용을 담았다.과기정통부는 올해 SW 중심 대학 2단계 사업을 추진해 일반 트랙으로 가천대, 경기대, 경북대, 성균관대, 순천향대, 전남대, 충남대를 선정했다. 특화형 트랙으로는 삼육대와 항공대를 선정했다.SW 중심 대학 사업을 통해 정부는 지금까지 SW전공인력 2만5천95명과 융합인력 1만5천642명을 배출했다고 밝혔다.■ 직원 재교육 통한 고급 인재 확보 지원정부는 SW산업 기술 변화에 맞춰 재직자의 재교육이 필요한 중소기업을 위한 지원 정책으로 중소기업형 계약학과를 시행 중이다.중소기업 계약학과는 중소기업 재직자를 대상으로 마련한 석사학위 교육과정이다. 중소기업 재직자 재교육을 통해 인공지능(AI)과 소재‧부품‧장비 분야 중소기업 전문인력을 양성하고, 재직자의 능력을 향상하기 위해 2010년 시행했다.중소기업 계약학과는 중소벤처기업부에서 선정한 주관 대학에 설치된다. 설치 과목은 AI·SW융합학과, AI기술경영학과, 의료인공지능 학과 등이다. 중소기업 직원이 재교육을 받기 위해선 중소기업에서 6개월 이상 재직해야 한다.주관대학은 학기당 학과운영비 3천500만원을 지급받는다. 학생의 경우 전문학사, 학사과정은 등록금의 85%, 석·박사과정은 65% 이내 지원한다.현재까지 49개 대학에서 67개 중소기업 계약학과를 운영하며, 1천716명의 학생이 교육받았다.■ 전문가 멘토링 통한 최고급 SW 인재 양성SW 마에스트로는 4차 산업혁명을 선도할 기술역량과 창의력을 갖춘 최고급 SW 인재를 양성을 목표로 한 정책이다.6개월간 진행되는 교육과정은 실무에 바로 투입할 수 있는 기술 기반 프로젝트로 진행된다. 이를 위해 SW 및 법률, 창업 등 산업 분야별 전문가가 멘토로 참여해 실무 기술과 노하우를 지도한다.시험을 통과해 선발된 연수생에게는 SW 교육을 비롯해 6개월간 장학금과 노트북 등 IT기기, 프로젝트 활동비 및 특허 컨설팅 비용 등이 제공된다. 참가자 중 우수자 15명에게는 과기정통부 장관이 수여하는 인증서와 5주간의 글로벌 SW교육 등 추가 지원된다.SW마에스트로 사업은 2010년 시작 이후 연수생 1천146명을 배출했다. 다양한 창업사례도 확보했다. 코인원, 스터디서치, 클래스101, 구름 등이 SW마에스트로 출신이 창업한 기업이다.하편에 계속...김우용 기자(yong2@zdnet.co.kr)남혁우 기자(firstblood@zdnet.co.kr)임유경 기자(lyk@zdnet.co.kr)김윤희 기자(kyh@zdnet.co.kr) ▶ 지디넷코리아 '홈페이지' ▶ 네이버 채널 구독하기© 메가뉴스 &amp; ZDNET, A RED VENTURES COMPANY, 무단전재-재배포 금지</t>
-  </si>
-  <si>
-    <t>// flash 오류를 우회하기 위한 함수 추가function _flash_removeCallback() {}코딩로봇 활용 체험형 학습 실시[김동언 기자(=광주)(kde3200@daum.net)]광주시 북구(구청장 문인)는 오는 7월까지 고등학생 대상으로 ‘인공지능(AI)･소프트웨어(SW) 창의융합 코딩교육’을 실시한다고 13일 밝혔다. 이번 교육은 인공지능, 소프트웨어 코딩 등 4차 산업시대에 맞는 인재를 육성하고자 마련됐다. ▲전대사대부고 2학년 학생들이 창의융합 코딩교육을 받고 있다ⓒ광주시 북구 북구는 조선대학교 SW중심대학사업단과 함께 금호고, 광주제일고, 전대사대부고 등 3개 학교 학생들을 대상으로 총 12회에 걸쳐 교육을 진행한다. 교육내용은 ▴AI･SW를 활용한 언플러그드 로봇코딩 ▴코딩로봇 활용 프로그래밍 체험 ▴머신러닝 모델 제작 및 구현 등 체험 위주의 프로그램으로 이뤄진다. 문인 북구청장은 “우리 지역에 2024년까지 인공지능 산업의 핵심 시설인 AI융복합단지가 들어설 예정”이라며 “4차 산업 인재 육성의 필요성이 높아진 만큼 앞으로도 지역의 우수한 자원을 활용한 교육 프로그램을 발굴･운영해 나가겠다”고 말했다.[김동언 기자(=광주)(kde3200@daum.net)]▶프레시안 CMS 정기후원▶네이버 프레시안 채널 구독 ▶프레시안 기사제보Copyrightsⓒ PRESSian.com 무단전재 및 재배포금지</t>
-  </si>
-  <si>
-    <t>// flash 오류를 우회하기 위한 함수 추가function _flash_removeCallback() {}[서울=뉴시스] KPC한국생산성본부, 한국폴리텍대학, SW산업협회는 12일 정부서울청사에서 AI기술(AI+x)인재 양성을 위한 업무협약식을 개최했다. 사진 왼쪽부터 조준희 소프트웨어협회 회장, 안완기 KPC 회장, 조재희 한국폴리텍대학 이사장.(사진=KPC한국생산성본부 제공) 2021.5.12 photo@newsis.com [서울=뉴시스] 박정규 기자 = KPC한국생산성본부는 12일 오전 정부서울청사에서 한국폴리텍대학, 한국소프트웨어산업협회와 함께 'AI기술(AI+x)인재 양성을 위한 업무협약'을 체결했다고 밝혔다.이들 3개 기관은 ▲디지털 뉴딜 실행을 위한 청년 일자리 발굴 ▲AI기술 분야 인재 양성 체계 구축 ▲생애주기별 AI기술 맞춤 교육 콘텐츠 개발 및 교육 체계 구축 ▲AI기업(중소·벤처기업 등)과 산학연 네트워크 및 취업 연계 시스템 구축을 위해 상호 협력하게 된다. KPC와 폴리텍은 맞춤형 교육 콘텐츠를 개발하고 온·오프라인 교육 컨설팅에 역량을 집중할 계획이다. SW산업협회는 고용 확대가 예상되는 산업현장에 필요 인력을 적시 공급하고 청년층이 조기에 노동시장에 진입할 수 있도록 지원한다.이날 협약식에 이어 3개 협약기관은 대통령 직속기구인 정책기획위원회와 함께 '한국판 뉴딜 추진 공동 선언 서약식'도 개최했다.서약식을 통해 이들 기관은 상호 연대와 협력, K-디지털 핵심 인재 양성, 산업 생태계 강화를 통해 디지털 경제 대전환 등 한국판 뉴딜 추진에 적극 동참하기로 결의했다.조대엽 정책기획위원회 위원장은 "한국판 뉴딜은 21세기 대한민국을 디지털경제, 그린생태계, 휴먼공동체로 전환시키고자 하는 종합적 국가혁신전략"이라며 "한국판 뉴딜은 무엇보다도 사회적 합의를 기반으로 하는 '정의로운 전환'이 돼야 한다"고 강조했다.안완기 KPC 회장은 "한국 경제와 산업 성장을 위해서는 속도감 있는 디지털 전환(DX)과 혁신을 이끌 디지털 인재 양성이 필요하다"며 "AI 기술 인재 양성을 위한 교육 체계 구축을 지원해 고부가가치 일자리 창출, 디지털 경제 대전환을 이끌어 나가겠다"고 밝혔다.☞공감언론 뉴시스 pjk76@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
-  </si>
-  <si>
-    <t>// flash 오류를 우회하기 위한 함수 추가function _flash_removeCallback() {}▲ 서울시와 중소기업 지원기관인 서울산업진흥원(SBA)은 오는 16일까지 소프트웨어(SW) 혁신인재 양성기관인 '싹'(SSAC)에서 배출한 주니어 SW개발자 채용에 관심 있는 기업을 싹 홈페이지를 통해 모집한다고 10일 밝혔다.    싹은 기업 현장 수요에 기반한 웹, 앱, 인공지능(AI), 빅데이터, 사물인터넷(IoT)·로봇 등 5개 분야에서 주니어개발자 수준의 SW개발자 양성을 목표로 하고 있다. 지난해 10월 말 1기를 시작으로 과정별 3∼6개월 교육을 통해 2기 11개 과정 약 200여명의 수료생을 배출한다.    금번 싹에서 배출되는 수료생들은 1, 2기 평균 11:1, 최고 36:1의 경쟁률 속에서 레벨테스트와 심층 면접을 통해 선발됐다. 이후 현업개발자 중심의 강사진으로부터 기본적인 기술 스택 습득과 동료 학습, 실전 프로젝트, 온·오프라인 멘토링·코칭 등 다양한 교육기법을 활용해 실전 역량을 쌓아 왔다.    과정 직후 학습효과로 볼 수 있는 수료생의 과정 시작 전과 수료 후 개발 역량에 대한 레벨 측정을 통해 주니어 개발자로서 역량을 지녔는지도 꼼꼼하게 살피는 등 체계적으로 과정을 운영해왔다.    싹 주니어 SW개발자 채용에 관심 있는 기업은 싹 공식 홈페이지를 통해 공개된 과정별 특징과 관련 수행 가능 개발직무, 기술 스택과 특화역량에 대한 정보를 확인 후 채용 관심 기업으로 등록하면 된다.     채용 관심 기업 등록은 2021년 중 상시로 진행된다.    등록된 정보는 싹 운영기관인 SBA에서 해당 분야 취업 활동을 준비 중인 주니어 SW개발자에게 제공하고, 주니어 SW개발자가 개별적으로 채용 과정에 응하는 방식으로 진행할 예정이다.    이광열 SBA 교육지원본부장은 "SW개발자 인력난이 심화하는 현 상황에서 싹을 통해 배출된 우수한 SW인재와 좋은 인재 채용을 원하는 기업 간 연결을 통해 이러한 어려움 해소에 도움이 됐으면 한다"고 말했다. (연합뉴스)▶네이버에서도 뉴스는 연합뉴스[구독 클릭]▶[팩트체크] 전기료 규제하면 해외투자자들이 소송?▶제보하기&lt;저작권자(c) 연합뉴스(https://www.yna.co.kr/), 무단 전재-재배포 금지&gt;</t>
-  </si>
-  <si>
-    <t>// flash 오류를 우회하기 위한 함수 추가function _flash_removeCallback() {}양질의 실무형 전문 교육 제공...청년 취업 지원 첨병 역할2년여만에 370여개 주요 기업에 수료생 1000명 넘게 취업JY의 인재 육성 지원 결실...국가 소프트파워 향상에 기여지난해 12월 23일 서울 멀티캠퍼스 교육센터에서 온라인 생중계 방식으로 '삼성청년SW아카데미' 3기 수료식이 열리고 있다.ⓒ삼성전자실전형 소프트웨어(SW) 인재 양성을 위한 ‘삼성청년SW아카데미(SSAFY·Samsung Software Academy For Youth)’가 오는 14일까지 6기 교육생을 모집한다.SSAFY는 이재용 삼성전자 부회장의 SW 인재 양성 의지가 담긴 요람으로 양질의 실무형 전문적 교육을 제공해 청년 취업 지원 첨병 역할을 해왔다.12일 삼성전자에 따르면 지난 3일부터 모집을 시작한 삼성청년SW아카데미 6기는 14일까지 접수를 받는다. 6기는 900명이 선발돼 오는 7월부터 1년간의 교육에 들어간다.이 교육 과정은 청년들의 SW 역량과 취업 경쟁력 강화를 목표로 양질의 소프트웨어 교육과 취업 지원 서비스를 제공하는 기업의 사회적책임(CSR) 프로그램이다. 삼성전자가 주관하고 고용노동부가 후원한다.SSAFY는 만 29세 이하 4년제 대학 졸업자 및 졸업예정자를 대상으로 SW 교육 기회를 제공하는 SW 개발자 육성 프로그램으로 미취업자라면 전공과 상관없이 지원할 수 있다. 모든 교육 과정은 무상으로 교육생 전원은 매달 100만원의 교육 지원비도 지급받는다.SSAFY 교육 과정은 총 1년 동안 진행된다. 1년간 매일 8시간씩 총 1600시간의 집중적인 교육과 교육생간 협업 프로젝트 등을 통해 빠른 시간 내 기업에 즉각 투입될 수 있는 역량을 갖춘 SW 개발자를 양성하는 과정을 운영하고 있다.교육은 1·2학기 과정으로 구성된다. 1학기에는 알고리즘 기반의 몰입형 코딩 교육으로 SW 기본기를 다지고 2학기에는 프로젝트 기반의 자기 주도형 학습을 통해 실전형 SW 개발자로서 역량을 쌓는다.특히 2학기에 진행되는 기업연계형 프로젝트는 기업의 실무 환경과 동일한 개발 방식을 활용해 실전형 개발자를 양성하는 심화교육으로 진행되는데 이를 통해 실무에 대한 이해도를 한층 더 높일 수 있게 돕는다.아울러 기업들과 연계한 산학 프로그램을 통해 풍부한 현장 경험을 쌓을 수 있는 기회도 제공한다.현재 4기와 5기 교육생들이 1년간의 교육 과정을 밟고 있다. 7월부터는 기존 서울·대전·광주·구미 외에 부산·울산·경남 교육생들을 위해 부산에도 SSAFY 캠퍼스를 열 예정이다.삼성 청년SW아카데미 광주캠퍼스 교육생들이 함께 협업 프로젝트를 진행하고 있다.(자료사진)ⓒ삼성전자◆ 총수가 관심 기울인 청년 SW 인재 양성...국가 소프트파워 향상에 기여삼성청년SW아카데미는 청년들에게 양질의 SW 교육을 제공함으로써 4차 산업혁명을 맞아 높아지고 있는 기업의 SW 인재에 대한 요구와 청년의 취업 기회를 매칭시켜 청년실업 해소에 기여하고 있다.이를 입증하듯 이 프로그램을 수료한 청년 인재들은 대기업과 금융권 등 다양한 분야로 진출하고 있다.지난 2018년 12월부터 시작한 '삼성청년SW아카데미'는 3기까지 1623명이 수료했고 이 중 1009명이 취업해 62%의 취업률을 보였다. 올 7월에 입과해 내년 6월 수료 예정인 4기 500명 가운데서도 이미 91명이 교육 6개월여 만에 조기 취업에 성공했다.이들은 삼성전자를 비롯해 LG CNS, 카카오, 신세계아이앤씨, SK주식회사 C&amp;C, 롯데정보통신, 네이버 등 IT 기업에 취업했다. 또 현대자동차·NH농협은행·신한은행·현대카드 등 다양한 대기업과 금융권에도 입사하는 등 이들이 취업한 기업의 수는 370여개에 달한다.특히 취업에 성공한 교육생 중 31%는 SW 비전공자로 '삼성청년SW아카데미'를 통해 새로운 꿈을 찾게 됐다.또 신한은행·신세계아이앤씨·다날·인바디 등을 비롯한 60여개 기업에서는 ▲서류심사 면제 ▲코딩테스트 면제 ▲'삼성청년SW아카데미' 전용 채용 등 다양한 방식으로 채용시 교육생들을 우대하고 있다.수료생들을 채용한 기업 담당자들도 실무형 프로젝트를 경험했기 때문에 현장에 바로 투입 가능하고 협업하기 좋은 동료로 평가받고 있다고 만족감을 나타내고 있다.이 때문에 ‘삼성 청년 소프트웨어 아카데미(SSAFY)’는 단순히 기업을 넘어 국가적인 SW 경쟁력 향상에도 기여하고 있다는 평가를 받고 있는데 이같은 성과는 총수인 이재용 부회장의 높은 관심도 작용하고 있다.이 부회장은 평소 SW 경쟁력 강화, 그 중에서도 청년 SW 인재 육성에 강한 의지를 보여왔고 삼성 청년 소프트웨어 아카데미는 이러한 의지를 바탕으로 탄생했다. 그는 지난 2019년 8월에는 '삼성청년SW아카데미' 광주캠퍼스를 방문해 SW 운영 현황을 점검하고 교육생들을 격려하는 등 각별한 관심을 보여왔다.비단 삼성뿐만 아니라 국가적으로도 반도체·디스플레이·스마트폰·가전 등 강력한 제조업 기반의 하드웨어(HW)에 비해 상대적으로 경쟁력이 떨어진다는 평가를 받고 있는 SW 경쟁력 향상 없이는 기업뿐만 아니라 국가도 치열한 글로벌 경쟁에서 뒤처질 수 밖에 없다는 그의 평소 지론이 삼성청년SW아카데미를 통한 국가 소프트파워 향상 기여로 이어지고 있다.이재용 삼성전자 부회장이 지난 2019년 8월 20일 광주 사업장 내 삼성 청년 소프트웨어 아카데미(SSAFY) 교육센터를 방문해 교육생들을 격려하고 있다.(자료사진)ⓒ삼성전자데일리안 이홍석 기자 (redstone@dailian.co.kr)▶ 데일리안 네이버 구독하기★ 구독만 해도 스타벅스쿠폰이 쏟아진다!▶ 제보하기ⓒ (주)데일리안 - 무단전재, 변형, 무단배포 금지</t>
-  </si>
-  <si>
-    <t>// flash 오류를 우회하기 위한 함수 추가function _flash_removeCallback() {}현대차 임원 출신 전문가 15명 강사 참여...교육비 전액 무료(지디넷코리아=백봉삼  기자)글로벌 서비스형 소프트웨어(SaaS) 전문 기업 씨와이(대표 조영득)가 과학기술정보통신부 ‘21년도 혁신성장청년인재집중양성’ 사업 주관기관으로서 자격요건에 부합한 교육생 모집을 23일까지 신청 받는다.해당 교육 과정은 산업통상자원부가 설립한 한국산업기술대 제1, 2캠퍼스에서 6월 1일부터 6개월간 집중 교육이 이뤄지는 ‘클라우드 기반 비대면 제조 솔루션 전문가 과정’이다. 총 24명을 모집해 자동차 관련 핵심 SW인력을 양성한다.자동차는 이제 더 이상 단순한 기계가 아니다. 갈수록 전장제품의 비중이 커지고 있다. 원가기준으로 50%를 이미 넘어섰다. 이에 소프트웨어(SW)의 중요성이 증대되고 있지만 전문인력은 턱없이 부족한 실정이다.클라우드 기반 비대면 제조 솔루션 전문가 과정이런 인력을 양성하기 위해 권문식 현대자동차 고문(전 현대자동차 부회장, 산기대 석좌교수, 아헨공대 공학박사), 주영섭 고려대 특임교수(전 중소기업청장, 펜실베니아대 공학박사)를 비롯한 해당 분야 전문가들이 강사로 참여한다. IT 현직 실무진들과 특히 현대차 출신 석/박사 15명이 강사진으로 참여하고 이 분야 인력 부족에 시달리는 자동차부품업체 45개사가 협력업체로 참여한다.이 프로그램의 참여기관인 한국디지털혁신협회 관계자는 “자동차 분야에서도 디지털전환이 급속히 진행되고 있지만 현재 SW분야의 인력은 절대 부족한 상황”이라며 “수료생 중 최대한 많은 인원을 취업할 수 있도록 연계할 것”이라고 밝혔다.교육시간은 총 960시간이며 이중 70%가 실습이다. 실습내용도 현장에서 발생하는 문제를 해결하는 쪽으로 방향을 잡고 있다. 교육과정을 제대로 이수하면 현장에서 바로 현업에 투입될 수 있을 것으로 협회 측은 보고 있다.주요 교육내용은 자동차 기본설계부터 최근에 일어나고 있는 자동차 패러다임시프트, MECA(Mobility 이동성, Electrification 전장화, Connectivity 연결성, Autonomous 자율주행) 등 다양한 내용이 포함되고, 특히 전장관련 소프트웨어 설계, 검증, 보안에도 중점을 둘 예정이다.협회 관계자는 “자동차에선 엔진, 자동 변속기, 브레이크, 센싱 모듈 등 다양한 부품들의 전장화가 이미 진행되고 있고 앞으로의 혁신도 대부분 전장 분야에서 일어날 것으로 보여 관련 분야 인력 수요는 갈수록 커질 것”이라고 말했다.2017년 초 기준으로 자동차에서 소프트웨어가 차지하는 원가 비중은 이미 52.4%에 달해 의료기기(40.9%)보다 높고, 휴대전화(54.3%)와 비슷한 수준에 달하고 있다.교육은 전액 무료며 교육수강생에겐 교통비 및 식대로 한 달 기준 최대 30만원이 지급된다. 수도권 지하철 4호선 정왕역에서 산기대 1, 2캠퍼스까지는 셔틀버스로 지원할 예정이다.교육생 모집에 대한 자세한 정보는 혁신성장청년인재집중양성사업 누리집에서 볼 수 있으며, 주관기관인 씨와이에서 공고한 [☞신청 사이트]를 통해 접속하여 과정의 커리큘럼 확인 및 신청을 할 수 있다.본 사업의 총괄책임자인 조영득 씨와이 대표는 “안양시를 대표하는 소프트웨어 기업으로서 채용연계 대상기업이 요구하는 실무 중심의 프로젝트를 본 과정에 접목시키는 것은 물론, 교육생들 전원이 산업현장에 바로 투입될 수 있도록 끊임없이 지원을 아끼지 않을 것”이라며 “포스트 코로나 시대, 이전부터 지속돼 온 교육사업이 학생을 대상으로 한 고등교육과정부터 업계 시장 전문가로 성장 가능한 전문가과정까지 수도권뿐 아니라 전국적으로 확장 가능하도록 다양한 고민과 도전을 지속해 나가겠다”고 밝혔다.씨와이는 SAP ERP(전자적자원관리) 시스템 구축 및 클라우드 사업 전반을 비롯해, 최근에는 서비스형 소프트웨어(SaaS) 플랫폼인 ‘비즈니스나우’를 통해 글로벌 SaaS 선도 기업으로 도약을 준비하고 있다. 본 사업의 협약체결이 된 날에는 동일미래과학고등학교와 광주화장품산업진흥회와 공동으로 업무 협약 또한 체결됐는데, 스마트 뷰티 인재 및 산업체 맞춤형 인재 양성을 주요 골자로 산업체 맞춤형 교육과정 발굴 및 교육 지원 등 상호 발전을 위해 지속적이고 발전적인 교류 관계를 구축하기로 했다.또한 화장품 주문 관리 및 신제품 개발 플랫폼 ‘COS247’을 비롯해, IT 아웃소싱 플랫폼인 ‘CY Portal’을 자체 개발, 운영 중에 있으며, 다양한 산업계에서 주목하고 있는 IT 스타트업이다.백봉삼 기자(paikshow@zdnet.co.kr) ▶ 지디넷코리아 '홈페이지' ▶ 네이버 채널 구독하기© 메가뉴스 &amp; ZDNET, A RED VENTURES COMPANY, 무단전재-재배포 금지</t>
-  </si>
-  <si>
-    <t>// flash 오류를 우회하기 위한 함수 추가function _flash_removeCallback() {}지난 봄학기 개인교육 프로그램 및 성인교육 프로그램에 참여한 수강생/사진=국립부산과학관 국립부산과학관(관장 김영환)이 오는 22일부터 6월27일까지 유아 및 청소년 대상 ‘봄학기 교육프로그램’과 성인 대상 ‘과학 아뜰리에’를 개강한다. ‘봄학기 교육프로그램’은 유아과학교실, 창의탐구교실, SW코딩교실, 창작메이커교실, 주제탐구교실 등 5개 분야 77개 프로그램으로 대면 및 원격으로 운영된다. 교육은 재밌는 실험 위주로 수학과 과학의 원리를 체험하며 이해할 수 있는 커리큘럼으로 구성되어 있다. 수업은 학년별로 나눠 진행되며 교육기간은 주제별로 1일부터 6주 과정까지 상이하다. 지난 학기에 전국 단위로 신청자가 몰리며 인기를 끌었던 원격 교육도 대폭 확대한다. 전체 77개 중 60개 프로그램이 집에서도 수강할 수 있게 됐다. 또한, 이번 교육에는 ‘마이크로비트 글로벌 챌린지’가 신설됐다. 초소형 컴퓨터인 마이크로비트를 활용해 UN의 지속가능발전목표(SDGs)를 주제로 창의력을 펼칠 수 있다. 수강생들은 영국 BBC 마이크로비트 교육재단이 주관하는 ‘마이크로비트 글로벌 챌린지 2021’ 아시아 예선에 참가하게 된다. 수강 신청은 국립부산과학관 누리집(홈페이지)을 통해 가능하며 3주 이상 연속과정 수강생 중 80% 이상 출석한 수강생에게는 수료증을 수여한다. 국립부산과학관은 성인을 대상으로 하는 공방 체험 교육 ‘과학 아뜰리에’도 개최한다. 5월22일에는 가정의 달을 맞아 꽃을 활용한 플라워 아뜰리에를 개최하고 6월19일에는 반려견 행동교정전문가와 함께 반려견 전용 수제비누 등을 만드는 반려견 아뜰리에를 개최한다. 국립부산과학관 김영환 관장은 “대형 교구 사용, 유아 실험 등 대면이 꼭 필요한 수업 외에는 온라인으로 진행할 수 있도록 원격교육을 확대했다”며 “청소년뿐만 아니라 성인 교육까지 전 생애주기 과학콘텐츠를 지속적으로 선보이겠다”고 말했다.부산=김동기 기자 moneys3927@mt.co.kr▶뜨거운 증시, 오늘의 특징주는?  ▶여론확인 '머니S설문' ▶머니S, 네이버 메인에서 보세요 &lt;저작권자 ⓒ '성공을 꿈꾸는 사람들의 경제 뉴스' 머니S, 무단전재 및 재배포 금지&gt;</t>
-  </si>
-  <si>
-    <t>// flash 오류를 우회하기 위한 함수 추가function _flash_removeCallback() {}도내 15개 고교 등 730명 대상경상북도는 올해 농업인, 고교생, 인문대생 730여 명을 대상으로 인공지능(AI)을 활용한 경쟁력 강화 사업을 추진한다고 13일 발표했다.이를 위해 학업, 취업, 농업 분야의 온·오프라인 교육 플랫폼을 구축한다. 최근 초·중학교에는 소프트웨어(SW) 교육이 필수 과정으로 도입됐지만 고교는 AI 교육을 체계적으로 받을 기회가 적다. 경북 도내 15개 고교, 450명을 대상으로 총 30회 수업을 진행해 학생의 ‘AI 두뇌지수’를 끌어올릴 계획이다.상대적으로 취업이 어려운 인문계열 전공 도내 대학생과 취업준비생 180명을 위한 교육도 마련했다. AI, 빅데이터 실무기술을 활용한 취·창업 연계 프로그램으로 6개 클래스에서 총 24회 교육한다.농업 분야에서는 농·특산물 유통채널 관리운영자 100명에게 3개 권역별(포항, 안동, 경산)로 총 6회에 걸쳐 이론과 실습을 병행한 교육을 추진한다.이철우 경북지사는 “그동안 AI를 개발·구현할 수 있는 석·박사 인력 등 고급 역량을 중점적으로 키워 왔지만 이제는 데이터 기반의 AI 기술을 실생활 전반에 활용할 수 있는 기초 역량을 높일 시점”이라며 “AI 교육이 취약한 계층을 위해 교육 사업을 마련했다”고 말했다.대구=오경묵 기자 okmook@hankyung.com▶ 경제지 네이버 구독 첫 400만, 한국경제 받아보세요▶ 한경 고품격 뉴스레터, 원클릭으로 구독하세요▶ 한국경제신문과 WSJ, 모바일한경으로 보세요 ⓒ 한국경제 &amp; hankyung.com, 무단전재 및 재배포 금지</t>
+    <t>2021.05.10. 오후 4:12</t>
+  </si>
+  <si>
+    <t>2021.05.10. 오전 11:01</t>
+  </si>
+  <si>
+    <t>2021.05.12. 오후 1:00</t>
+  </si>
+  <si>
+    <t>2021.05.12. 오후 2:31</t>
+  </si>
+  <si>
+    <t>2021.05.13. 오후 2:21</t>
+  </si>
+  <si>
+    <t>2021.05.11. 오전 10:19</t>
+  </si>
+  <si>
+    <t>2021.05.10. 오후 6:40</t>
+  </si>
+  <si>
+    <t>2021.05.11. 오후 2:22</t>
+  </si>
+  <si>
+    <t>2021.05.11. 오전 9:03</t>
+  </si>
+  <si>
+    <t>2021.05.11. 오후 4:50</t>
+  </si>
+  <si>
+    <t>2021.05.12. 오후 4:25</t>
+  </si>
+  <si>
+    <t>2021.05.11. 오후 12:26</t>
+  </si>
+  <si>
+    <t>2021.05.03. 오전 9:17</t>
+  </si>
+  <si>
+    <t>2021.05.06. 오후 5:02</t>
+  </si>
+  <si>
+    <t>2021.05.11. 오후 12:59</t>
+  </si>
+  <si>
+    <t>2021.05.12. 오후 2:27</t>
+  </si>
+  <si>
+    <t>2021.05.11. 오전 9:01</t>
+  </si>
+  <si>
+    <t>2021.05.12. 오전 4:02</t>
+  </si>
+  <si>
+    <t>2021.05.03. 오후 12:00</t>
+  </si>
+  <si>
+    <t>2021.05.07. 오후 3:10</t>
+  </si>
+  <si>
+    <t>2021.05.07. 오후 12:53</t>
+  </si>
+  <si>
+    <t>2021.05.03. 오후 3:22</t>
+  </si>
+  <si>
+    <t>이억원 차관, K-디지털 트레이닝 현장 방문"자율성은 향상, '통제 중심 감독'은 최소화"[서울=뉴시스] 이억원 기획재정부 제1 차관. photo@newsis.com *재판매 및 DB 금지[세종=뉴시스] 김진욱 기자 = 이억원 기획재정부 제1 차관이 14일 "이달 말 발표 예정인 '소프트웨어(SW) 분야 인력 양성 추진 계획'에 기업 주도형 인력 양성 지원 방안을 담겠다"고 했다.이억원 차관은 이날 서울 송파구에 있는 우아한테크코스를 찾아 모두발언을 통해 이렇게 밝혔다. 우아한테크코스는 음식 배달 전문 애플리케이션 '배달의민족'을 운영하는 우아한형제들이 설립한 현장형 SW 인력 양성 기관이다. 한국판 뉴딜 핵심 과제 중 하나인 디지털 핵심 실무 인재 사업 'K-디지털 트레이닝'에 참여하고 있다.이억원 차관은 "디지털 전환, 신산업 등장 등 경제 구조가 변화하고, 코로나19로 디지털 수요가 커지는 가운데 새 인력을 육성하는 것은 국가적 과제"라면서 "우아한테크코스처럼 청년이 선호하는 기관이 프로젝트 중심의 교육 과정을 제공하고, 현장 맞춤형 SW 인재를 양성하는 모델이 더 확산할 필요가 있다"고 했다."K-디지털 트레이닝 지원 대상·기간을 확대할 계획이 있느냐"는 교육생의 문의에 이억원 차관은 "우수 인재가 계속 양성된다면 꾸준히 추진되는 사업이 될 것"이라고 했다. "지원 평가 체계를 취업률 등 성과에 맞춰 달라"는 우아한테크코스 교육 담당자에게는 "자율성을 높이고, 통제 중심의 지도·감독을 최소화하겠다"고 했다.이억원 차관은 교육 과정을 온라인으로 참관한 뒤 "청년 SW 인력 양성과 일자리 확충을 위해 정부가 지원할 수 있는 혁신 방안을 계속 검토할 것"이라면서 "올해 추경(추가경정예산)에서 확정된 디지털 인재 2만 명 추가 육성을 시작으로 오는 2025년까지 18만 명 목표가 달성되도록 적극적으로 지원하겠다"고 했다.이번 현장 방문은 지난 3월 마련된 청년 고용 활성화 대책 추진 상황 점검의 일환으로 마련됐다. 기업의 정보통신기술(ICT) 인재 구인난에 대응해 청년 SW 인력 양성을 위한 정부 지원 방안을 모색하고, K-디지털 트레이닝 진행 상황을 점검하기 위한 자리다.☞공감언론 뉴시스 str8fwd@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>[코리아 ICT 정책 톺아보기 ⑤] 인재 양성 (상)(지디넷코리아=김우용 남혁우 임유경 김윤희  기자)모든 산업의 기반은 SW다. SW가 모든 산업의 성공과 실패를 좌우한다. 4차산업혁명의 시대, 디지털로 산업의 중심을 재편하는 디지털 트랜스포메이션 시대에 SW를 바로 세우지 못하면 미래를 확신할 수 없다. 그런 가운데 한국의 SW 경쟁력은 선두권 국가와 비교해 많이 뒤져 보인다. 어디서부터 잘못된 것일까. 이 같은 현실에서 본지는 정부의 ICT 정책을 집중 분석해 보는 '코리아 ICT 정책 톺아보기' 시리즈를 마련한다. 정부의 정책이 SW 산업의 경쟁력을 높이는 출발점이란 판단에서다. 2000년대 이후 정부의 ICT 정책 가운데 20개의 주요 SW 정책을 선정, 각 정책의 시행 배경과 목표, 성과를 분석해 보고 과제와 대안을 모색한다.[편집자주]디지털 전환의 시대를 맞아 SW 인력 가뭄이 극심하다. IT 선진국이라 할 미국에서도 개발자 품귀 현상이 거론될 정도다. 한국도 마찬가지다. 이른바 ‘네카라쿠배’라 꼽히는 21세기 한국의 인터넷 기업은 국내 개발자를 블랙홀처럼 빨아들이면서도 인력 부족을 호소하는 형편이다.IT인력을 양성해야 한다는 목소리는 일찌감치 나왔다. 정부도 그 목소리를 완전히 무시하지 않았다. 거의 매년 ‘X만 인력 양성’ 정책이 발표됐다. 주요 정책이 계획대로 실행됐다면 적어도 몇만명 이상 키워졌을 SW 인력은 지금 어디에 있기에 2021년 현재 개발자 가뭄 얘기를 들어야 하는지 반성해볼 시점이다.본지는 그간 정부의 SW 인재 양성 정책 가운데 여섯개를 선정해 검토했다. SW 인재를 키워내기 위해 취해지는 정책의 방향은 크게 세 갈래로 분류된다. 하나는 각 분야별 전문가를 키우는 엘리트 양성, 기업 인력 수요에 대응하는 교육기관 지원, 기존 인력의 역량을 높이거나 전환하는 보수교육 등이다.대학정보통신연구센터(ITRC), AI 전문대학원, SW 마에스트로 등의 정책은 엘리트 양성의 일환이다. SW 중심대학, SW 마이스터고등학교 등의 정책은 기업 IT인력 양성 차원에서 시행된다. 그리고 SW산업 기술 변화에 맞춰 재직자에게 재교육을 제공하는 여러 프로그램이 있다.현재 산업계에서 부족을 호소하는 개발자 인력은 기본적인 프로그래밍 소양을 갖추고, 일정 수준 이상의 IT 프로젝트에서 개발 실무를 수행할 초급에서 중급 사이의 인재다. 역량 피라미드의 허리 부분에서 빈약함을 드러내고 있는데, 정부의 SW 인력 정책이 허리층을 두텁게 하는데 성공했는지 가늠해봐야 한다. 고등학교, 대학교, 사설교육기관 등에서 배출되는 인력이 적지 않은데도 왜 기업에서 인력 부족을 이야기 하는지 공급과 수요 사이의 괴리를 2편의 기사에 걸쳐 검토해본다.출처=이미지투데이■ 대학정보통신연구센터(ITRC), 20년 간 IT고급인력 양성ITRC는 대학원에서 IT기반 핵심융합기술개발과 프로젝트 수행능력을 갖춘 석박사급 고급 IT인력을 양성할 수 있도록 지원하는 사업이다. 2000년부터 블록체인, 차세대통신, 인공지능(AI), 사물인터넷(IoT), 디지털트윈, 몰입형콘텐츠 등 ICT 산업현장 내 인력 수요가 높고, 기술 수준 제고가 시급한 분야를 정한 후 신청한 대학 중 선정해 진행해오고 있다. 신청학교는 ICT분야 대학원이 설치된 국내 대학으로 제한된다.이 사업은 창의적이고 능동적인 인재 양성을 목표로 한다. 학생 연구원이 원하는 연구를 진행하는 혁신도약형 연구가 필수 과제이며, 창업 친화적인 마인드 제고와 기술창업 등을 활성화하기 위해 기업가정신교육과 창업 아이디어 경진대회도 실시한다.실제 업무 현장에 필요한 능력 향상을 위해 지역 중소·중견기업 및 지자체 등과 공동연구 등 협력 프로그램도 마련된다.ITRC 사업은 20년간 43개 센터를 지원하며 1만6천여명의 인재를 양성하고, 국내외 특허등록 5천300여건, 기술이전 수입 480여억원 등 성과를 기록했다. 올해는 신규센터 8곳을 추가로 선정해 총예산 384억원을 지원한다. 지원기간은 최대 6년에서 8년으로 확대하고, 연간 지원금 최대 8억원으로 증액했다.ITRC 사업 성과(출처=과학기술정보통신부)카이스트 인공지능반도체시스템 연구센터 김주영 교수는 “인공지능, 반도체 등 전문적인 IT기술이 필요한 분야는 ITRC를 통해 효과를 보고 있다”며 “이러한 전문 기술을 발전시키기 위해선 보다 적극적인 투자가 필요하다”고 말했다.■ AI대학원 및 AI융합연구센터AI 대학원 지원사업은 석박사급 고급 AI 인재 양성을 목표로 추진된 사업이다. ICT분야 대학원이 설치된 국내 대학(원)에 AI 관련 석·박사 교육과정을 개설할 수 있도록 지원한다. 단일 대학에 투입하는 예산 규모도 파격적이다. 최대 10년간 사업 첫 해 10억원, 2년차부터 연간 20억원씩 총 190억원을 지원한다.사업 첫 해인 2019년 카이스트(KAIST), 고려대, 성균관대, 광주과기원(GIST), 포항공대(POSTECH)가 선정됐다. 지난해 연세대, 울산과학기술원(UNIST), 한양대가 추가됐고, 올해 서울대, 중앙대까지 선정되면서 총 10개 AI 대학원이 운영되게 됐다.지원사업에 선정된 AI 대학원은 AI핵심 이론 및 심화과정이 포함된 교육과정을 개설하고, 정원 40명 이상의 석박사 과정을 운영한다. 정부가 요구한 필수 요건에 더해 특화된 운영 계획안을 수립하고, 운영하고 있다. 예컨대 연세대는 AI 전임교원을 기존 8명에서 2024년까지 18명으로 확대했다. AI 학과 신설과 더불어 AI 데이터센터, AI 융합연구원 등을 설치해 전교생을 대상으로 AI 교육을 확산했다.정부는 AI 융합 인재 양성을 위한 AI 융합연구센터 지원 사업도 추진하고 있다.AI 융합연구센터 지원사업은 AI를 의료, 금융, 제조 분야 등 다양한 산업에 접목해, 해당 산업의 생산성과 경쟁력을 향상하기 위해 추진된다. 각 산업별 AI 분야 산학 협력이 활성화돼 있는 지역 거점 대학을 선정해 AI융합연구센터 설립 및 운영을 지원한다.AI융합연구센터로 선정된 대학은 1년차 11억원을 시작으로 2년차부터 15억원씩 총 3년간 41억원의 연구비를 지원받는다. 부산대, 인하대, 충남대, 한양대(에리카캠퍼스) 등 4개 대학에 AI융합연구센터 구축이 결정됐다.■”초·중등부터 SW 교육 시켜야”...17·34시간 의무화정부는 SW 인재 양성을 위해, 정규 교육과정에 SW 교육을 의무화하는 정책을 추진했다. 지난 2014년 발표된 'SW 중심사회 실현전략'에서 시작된 정책이다. 이후 2015년 발표한 'SW 중심사회를 위한 인재양성 추진계획'에서 SW 교육 필수화를 위한 실행 과제를 마련했다.이에 따라 초등학교는 2019년, 중학생은 2018년부터 SW 교육을 의무화했다. 수업 시수는 초등학교 17시간, 중학교 34시간이다.소프트웨어 교육을 받고 있는 초등학생들(출처=뉴스1)교사의 SW 교육 역량을 강화하는 직무교육도 실시됐다. 초등교사의 30%인 6만명을 대상으로 직무교육을 실시하고, 이 중 6천명은 SW 심화 연수를 실시했다. 중학교 '정보' 과목 교사와 '정보컴퓨터' 자격증 보유 교사 대상 심화연수도 추진했다. 정보 컴퓨터 교사의 경우 매년 늘려 2016년 기준 50명이던 교사 수를 2020년까지 500명까지 확보할 수 있도록 계획했다.물적 인프라도 확대 보급했다. 컴퓨터실 미확보 학교 172개교 중 69개교에 대해서는 2020년까지 컴퓨터실을 설치하고, 소규모 학교 등 103개교는 특별실 등 대체 시설에서 노트북이나 태블릿 PC 등을 활용해 SW 교육을 실시하기로 했다.■ SW 중심 대학 지원 제도SW 중심 대학 사업은 대학 내 SW 교육을 현장 수요에 맞춰 혁신하기 위한 정책이다. 이는 SW 의무 교육과 마찬가지로 'SW 중심사회 실현전략' 중 하나로 계획돼 지난 2015년부터 시행됐다.SW 중심 대학은 SW 전공자에 대해 프로젝트 실습과 인턴십을 필수화하고, 실전 영어교육과 글로벌 교육을 강화하게 했다. 비전공자에 대해서도 전공별 특성에 맞는 SW 기초 교육을 제공하도록 했다. 대학 당 최장 6년, 연간 최대 20억원의 예산이 지원됐다. 이후 정부는 매년 사업을 추진하면서 2019년까지 총 40개 SW 중심 대학을 선정했다.사업 6년째인 작년에는 대학을 추가 선정하는 대신, SW 중심 대학 사업 개편안을 마련했다. 개편안은 교육 내용 측면에서 AI, 빅데이터, 블록체인 등 신기술 분야 교육을 강화하는 내용을 담았다. 대학은 AI 전공 및 융합전공 표준 교육모델을 공동으로 개발, 보급하게 된다. 융합교육 지원을 위해 각 전공 계열별 차별화된 SW 교육 과목을 개설하고, 학부 학생의 대학원 교과목 수강 허용 및 졸업기간 단축 등 대학-대학원 간 연계성도 강화하는 등의 내용도 포함됐다구직구인 수요가 상호 충족될 수 있도록 산학협력 플랫폼도 만들기로 했다. 대학 공동 인턴십 매칭 플랫폼을 구축, 활용하고 기업의 기술 수요 및 문제 해결을 위한 공동 온라인 경연대회를 개최하게 된다. 그 외 산업체 전문가를 교원으로 임용할 수 있도록 비전일제 근무 시에도 인건비를 지급할 수 있도록 규정을 개정했다.사업 세부 요건에서 선정된 대학의 최장 지원 기간을 6년에서 8년으로 확대하고, 기존에 선정된 대학도 재선정 가능하도록 변경했다. 중소 규모 대학도 참여할 수 있도록 하는 '특화형 트랙'도 신설했다. 특화형 트랙은 SW 학과 100명 이상 입학 정원 확보, 대학원 SW 학과 운영 의무 등의 요건을 적용하지 않는 대신 지원 규모와 기간을 축소 적용한다.대학이 능동적으로 SW 교육 혁신을 실시할 수 있도록 SW 중심 대학 선정 및 평가 관련 필수 사항을 최소화하고, 자율제안 항목은 확대했다. 평가 체계 측면에선 달성 건수, 인원 수 등 양적 지표를 축소하고 대학의 성과 목표가 적정한지 검토하는 '성과목표검증위원회'를 구성, 운영하도록 해 질적 지표 중심의 평가가 이뤄지도록 개선하는 내용을 담았다.과기정통부는 올해 SW 중심 대학 2단계 사업을 추진해 일반 트랙으로 가천대, 경기대, 경북대, 성균관대, 순천향대, 전남대, 충남대를 선정했다. 특화형 트랙으로는 삼육대와 항공대를 선정했다.SW 중심 대학 사업을 통해 정부는 지금까지 SW전공인력 2만5천95명과 융합인력 1만5천642명을 배출했다고 밝혔다.■ 직원 재교육 통한 고급 인재 확보 지원정부는 SW산업 기술 변화에 맞춰 재직자의 재교육이 필요한 중소기업을 위한 지원 정책으로 중소기업형 계약학과를 시행 중이다.중소기업 계약학과는 중소기업 재직자를 대상으로 마련한 석사학위 교육과정이다. 중소기업 재직자 재교육을 통해 인공지능(AI)과 소재‧부품‧장비 분야 중소기업 전문인력을 양성하고, 재직자의 능력을 향상하기 위해 2010년 시행했다.중소기업 계약학과는 중소벤처기업부에서 선정한 주관 대학에 설치된다. 설치 과목은 AI·SW융합학과, AI기술경영학과, 의료인공지능 학과 등이다. 중소기업 직원이 재교육을 받기 위해선 중소기업에서 6개월 이상 재직해야 한다.주관대학은 학기당 학과운영비 3천500만원을 지급받는다. 학생의 경우 전문학사, 학사과정은 등록금의 85%, 석·박사과정은 65% 이내 지원한다.현재까지 49개 대학에서 67개 중소기업 계약학과를 운영하며, 1천716명의 학생이 교육받았다.■ 전문가 멘토링 통한 최고급 SW 인재 양성SW 마에스트로는 4차 산업혁명을 선도할 기술역량과 창의력을 갖춘 최고급 SW 인재를 양성을 목표로 한 정책이다.6개월간 진행되는 교육과정은 실무에 바로 투입할 수 있는 기술 기반 프로젝트로 진행된다. 이를 위해 SW 및 법률, 창업 등 산업 분야별 전문가가 멘토로 참여해 실무 기술과 노하우를 지도한다.시험을 통과해 선발된 연수생에게는 SW 교육을 비롯해 6개월간 장학금과 노트북 등 IT기기, 프로젝트 활동비 및 특허 컨설팅 비용 등이 제공된다. 참가자 중 우수자 15명에게는 과기정통부 장관이 수여하는 인증서와 5주간의 글로벌 SW교육 등 추가 지원된다.SW마에스트로 사업은 2010년 시작 이후 연수생 1천146명을 배출했다. 다양한 창업사례도 확보했다. 코인원, 스터디서치, 클래스101, 구름 등이 SW마에스트로 출신이 창업한 기업이다.하편에 계속...김우용 기자(yong2@zdnet.co.kr)남혁우 기자(firstblood@zdnet.co.kr)임유경 기자(lyk@zdnet.co.kr)김윤희 기자(kyh@zdnet.co.kr) ▶ 지디넷코리아 '홈페이지' ▶ 네이버 채널 구독하기© 메가뉴스 &amp; ZDNET, A RED VENTURES COMPANY, 무단전재-재배포 금지</t>
+  </si>
+  <si>
+    <t>코딩로봇 활용 체험형 학습 실시[김동언 기자(=광주)(kde3200@daum.net)]광주시 북구(구청장 문인)는 오는 7월까지 고등학생 대상으로 ‘인공지능(AI)･소프트웨어(SW) 창의융합 코딩교육’을 실시한다고 13일 밝혔다. 이번 교육은 인공지능, 소프트웨어 코딩 등 4차 산업시대에 맞는 인재를 육성하고자 마련됐다. ▲전대사대부고 2학년 학생들이 창의융합 코딩교육을 받고 있다ⓒ광주시 북구 북구는 조선대학교 SW중심대학사업단과 함께 금호고, 광주제일고, 전대사대부고 등 3개 학교 학생들을 대상으로 총 12회에 걸쳐 교육을 진행한다. 교육내용은 ▴AI･SW를 활용한 언플러그드 로봇코딩 ▴코딩로봇 활용 프로그래밍 체험 ▴머신러닝 모델 제작 및 구현 등 체험 위주의 프로그램으로 이뤄진다. 문인 북구청장은 “우리 지역에 2024년까지 인공지능 산업의 핵심 시설인 AI융복합단지가 들어설 예정”이라며 “4차 산업 인재 육성의 필요성이 높아진 만큼 앞으로도 지역의 우수한 자원을 활용한 교육 프로그램을 발굴･운영해 나가겠다”고 말했다.[김동언 기자(=광주)(kde3200@daum.net)]▶프레시안 CMS 정기후원▶네이버 프레시안 채널 구독 ▶프레시안 기사제보Copyrightsⓒ PRESSian.com 무단전재 및 재배포금지</t>
+  </si>
+  <si>
+    <t>[서울=뉴시스] KPC한국생산성본부, 한국폴리텍대학, SW산업협회는 12일 정부서울청사에서 AI기술(AI+x)인재 양성을 위한 업무협약식을 개최했다. 사진 왼쪽부터 조준희 소프트웨어협회 회장, 안완기 KPC 회장, 조재희 한국폴리텍대학 이사장.(사진=KPC한국생산성본부 제공) 2021.5.12 photo@newsis.com [서울=뉴시스] 박정규 기자 = KPC한국생산성본부는 12일 오전 정부서울청사에서 한국폴리텍대학, 한국소프트웨어산업협회와 함께 'AI기술(AI+x)인재 양성을 위한 업무협약'을 체결했다고 밝혔다.이들 3개 기관은 ▲디지털 뉴딜 실행을 위한 청년 일자리 발굴 ▲AI기술 분야 인재 양성 체계 구축 ▲생애주기별 AI기술 맞춤 교육 콘텐츠 개발 및 교육 체계 구축 ▲AI기업(중소·벤처기업 등)과 산학연 네트워크 및 취업 연계 시스템 구축을 위해 상호 협력하게 된다. KPC와 폴리텍은 맞춤형 교육 콘텐츠를 개발하고 온·오프라인 교육 컨설팅에 역량을 집중할 계획이다. SW산업협회는 고용 확대가 예상되는 산업현장에 필요 인력을 적시 공급하고 청년층이 조기에 노동시장에 진입할 수 있도록 지원한다.이날 협약식에 이어 3개 협약기관은 대통령 직속기구인 정책기획위원회와 함께 '한국판 뉴딜 추진 공동 선언 서약식'도 개최했다.서약식을 통해 이들 기관은 상호 연대와 협력, K-디지털 핵심 인재 양성, 산업 생태계 강화를 통해 디지털 경제 대전환 등 한국판 뉴딜 추진에 적극 동참하기로 결의했다.조대엽 정책기획위원회 위원장은 "한국판 뉴딜은 21세기 대한민국을 디지털경제, 그린생태계, 휴먼공동체로 전환시키고자 하는 종합적 국가혁신전략"이라며 "한국판 뉴딜은 무엇보다도 사회적 합의를 기반으로 하는 '정의로운 전환'이 돼야 한다"고 강조했다.안완기 KPC 회장은 "한국 경제와 산업 성장을 위해서는 속도감 있는 디지털 전환(DX)과 혁신을 이끌 디지털 인재 양성이 필요하다"며 "AI 기술 인재 양성을 위한 교육 체계 구축을 지원해 고부가가치 일자리 창출, 디지털 경제 대전환을 이끌어 나가겠다"고 밝혔다.☞공감언론 뉴시스 pjk76@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>▲ 서울시와 중소기업 지원기관인 서울산업진흥원(SBA)은 오는 16일까지 소프트웨어(SW) 혁신인재 양성기관인 '싹'(SSAC)에서 배출한 주니어 SW개발자 채용에 관심 있는 기업을 싹 홈페이지를 통해 모집한다고 10일 밝혔다.    싹은 기업 현장 수요에 기반한 웹, 앱, 인공지능(AI), 빅데이터, 사물인터넷(IoT)·로봇 등 5개 분야에서 주니어개발자 수준의 SW개발자 양성을 목표로 하고 있다. 지난해 10월 말 1기를 시작으로 과정별 3∼6개월 교육을 통해 2기 11개 과정 약 200여명의 수료생을 배출한다.    금번 싹에서 배출되는 수료생들은 1, 2기 평균 11:1, 최고 36:1의 경쟁률 속에서 레벨테스트와 심층 면접을 통해 선발됐다. 이후 현업개발자 중심의 강사진으로부터 기본적인 기술 스택 습득과 동료 학습, 실전 프로젝트, 온·오프라인 멘토링·코칭 등 다양한 교육기법을 활용해 실전 역량을 쌓아 왔다.    과정 직후 학습효과로 볼 수 있는 수료생의 과정 시작 전과 수료 후 개발 역량에 대한 레벨 측정을 통해 주니어 개발자로서 역량을 지녔는지도 꼼꼼하게 살피는 등 체계적으로 과정을 운영해왔다.    싹 주니어 SW개발자 채용에 관심 있는 기업은 싹 공식 홈페이지를 통해 공개된 과정별 특징과 관련 수행 가능 개발직무, 기술 스택과 특화역량에 대한 정보를 확인 후 채용 관심 기업으로 등록하면 된다.     채용 관심 기업 등록은 2021년 중 상시로 진행된다.    등록된 정보는 싹 운영기관인 SBA에서 해당 분야 취업 활동을 준비 중인 주니어 SW개발자에게 제공하고, 주니어 SW개발자가 개별적으로 채용 과정에 응하는 방식으로 진행할 예정이다.    이광열 SBA 교육지원본부장은 "SW개발자 인력난이 심화하는 현 상황에서 싹을 통해 배출된 우수한 SW인재와 좋은 인재 채용을 원하는 기업 간 연결을 통해 이러한 어려움 해소에 도움이 됐으면 한다"고 말했다. (연합뉴스)▶네이버에서도 뉴스는 연합뉴스[구독 클릭]▶[팩트체크] 전기료 규제하면 해외투자자들이 소송?▶제보하기&lt;저작권자(c) 연합뉴스(https://www.yna.co.kr/), 무단 전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>양질의 실무형 전문 교육 제공...청년 취업 지원 첨병 역할2년여만에 370여개 주요 기업에 수료생 1000명 넘게 취업JY의 인재 육성 지원 결실...국가 소프트파워 향상에 기여지난해 12월 23일 서울 멀티캠퍼스 교육센터에서 온라인 생중계 방식으로 '삼성청년SW아카데미' 3기 수료식이 열리고 있다.ⓒ삼성전자실전형 소프트웨어(SW) 인재 양성을 위한 ‘삼성청년SW아카데미(SSAFY·Samsung Software Academy For Youth)’가 오는 14일까지 6기 교육생을 모집한다.SSAFY는 이재용 삼성전자 부회장의 SW 인재 양성 의지가 담긴 요람으로 양질의 실무형 전문적 교육을 제공해 청년 취업 지원 첨병 역할을 해왔다.12일 삼성전자에 따르면 지난 3일부터 모집을 시작한 삼성청년SW아카데미 6기는 14일까지 접수를 받는다. 6기는 900명이 선발돼 오는 7월부터 1년간의 교육에 들어간다.이 교육 과정은 청년들의 SW 역량과 취업 경쟁력 강화를 목표로 양질의 소프트웨어 교육과 취업 지원 서비스를 제공하는 기업의 사회적책임(CSR) 프로그램이다. 삼성전자가 주관하고 고용노동부가 후원한다.SSAFY는 만 29세 이하 4년제 대학 졸업자 및 졸업예정자를 대상으로 SW 교육 기회를 제공하는 SW 개발자 육성 프로그램으로 미취업자라면 전공과 상관없이 지원할 수 있다. 모든 교육 과정은 무상으로 교육생 전원은 매달 100만원의 교육 지원비도 지급받는다.SSAFY 교육 과정은 총 1년 동안 진행된다. 1년간 매일 8시간씩 총 1600시간의 집중적인 교육과 교육생간 협업 프로젝트 등을 통해 빠른 시간 내 기업에 즉각 투입될 수 있는 역량을 갖춘 SW 개발자를 양성하는 과정을 운영하고 있다.교육은 1·2학기 과정으로 구성된다. 1학기에는 알고리즘 기반의 몰입형 코딩 교육으로 SW 기본기를 다지고 2학기에는 프로젝트 기반의 자기 주도형 학습을 통해 실전형 SW 개발자로서 역량을 쌓는다.특히 2학기에 진행되는 기업연계형 프로젝트는 기업의 실무 환경과 동일한 개발 방식을 활용해 실전형 개발자를 양성하는 심화교육으로 진행되는데 이를 통해 실무에 대한 이해도를 한층 더 높일 수 있게 돕는다.아울러 기업들과 연계한 산학 프로그램을 통해 풍부한 현장 경험을 쌓을 수 있는 기회도 제공한다.현재 4기와 5기 교육생들이 1년간의 교육 과정을 밟고 있다. 7월부터는 기존 서울·대전·광주·구미 외에 부산·울산·경남 교육생들을 위해 부산에도 SSAFY 캠퍼스를 열 예정이다.삼성 청년SW아카데미 광주캠퍼스 교육생들이 함께 협업 프로젝트를 진행하고 있다.(자료사진)ⓒ삼성전자◆ 총수가 관심 기울인 청년 SW 인재 양성...국가 소프트파워 향상에 기여삼성청년SW아카데미는 청년들에게 양질의 SW 교육을 제공함으로써 4차 산업혁명을 맞아 높아지고 있는 기업의 SW 인재에 대한 요구와 청년의 취업 기회를 매칭시켜 청년실업 해소에 기여하고 있다.이를 입증하듯 이 프로그램을 수료한 청년 인재들은 대기업과 금융권 등 다양한 분야로 진출하고 있다.지난 2018년 12월부터 시작한 '삼성청년SW아카데미'는 3기까지 1623명이 수료했고 이 중 1009명이 취업해 62%의 취업률을 보였다. 올 7월에 입과해 내년 6월 수료 예정인 4기 500명 가운데서도 이미 91명이 교육 6개월여 만에 조기 취업에 성공했다.이들은 삼성전자를 비롯해 LG CNS, 카카오, 신세계아이앤씨, SK주식회사 C&amp;C, 롯데정보통신, 네이버 등 IT 기업에 취업했다. 또 현대자동차·NH농협은행·신한은행·현대카드 등 다양한 대기업과 금융권에도 입사하는 등 이들이 취업한 기업의 수는 370여개에 달한다.특히 취업에 성공한 교육생 중 31%는 SW 비전공자로 '삼성청년SW아카데미'를 통해 새로운 꿈을 찾게 됐다.또 신한은행·신세계아이앤씨·다날·인바디 등을 비롯한 60여개 기업에서는 ▲서류심사 면제 ▲코딩테스트 면제 ▲'삼성청년SW아카데미' 전용 채용 등 다양한 방식으로 채용시 교육생들을 우대하고 있다.수료생들을 채용한 기업 담당자들도 실무형 프로젝트를 경험했기 때문에 현장에 바로 투입 가능하고 협업하기 좋은 동료로 평가받고 있다고 만족감을 나타내고 있다.이 때문에 ‘삼성 청년 소프트웨어 아카데미(SSAFY)’는 단순히 기업을 넘어 국가적인 SW 경쟁력 향상에도 기여하고 있다는 평가를 받고 있는데 이같은 성과는 총수인 이재용 부회장의 높은 관심도 작용하고 있다.이 부회장은 평소 SW 경쟁력 강화, 그 중에서도 청년 SW 인재 육성에 강한 의지를 보여왔고 삼성 청년 소프트웨어 아카데미는 이러한 의지를 바탕으로 탄생했다. 그는 지난 2019년 8월에는 '삼성청년SW아카데미' 광주캠퍼스를 방문해 SW 운영 현황을 점검하고 교육생들을 격려하는 등 각별한 관심을 보여왔다.비단 삼성뿐만 아니라 국가적으로도 반도체·디스플레이·스마트폰·가전 등 강력한 제조업 기반의 하드웨어(HW)에 비해 상대적으로 경쟁력이 떨어진다는 평가를 받고 있는 SW 경쟁력 향상 없이는 기업뿐만 아니라 국가도 치열한 글로벌 경쟁에서 뒤처질 수 밖에 없다는 그의 평소 지론이 삼성청년SW아카데미를 통한 국가 소프트파워 향상 기여로 이어지고 있다.이재용 삼성전자 부회장이 지난 2019년 8월 20일 광주 사업장 내 삼성 청년 소프트웨어 아카데미(SSAFY) 교육센터를 방문해 교육생들을 격려하고 있다.(자료사진)ⓒ삼성전자데일리안 이홍석 기자 (redstone@dailian.co.kr)▶ 데일리안 네이버 구독하기★ 구독만 해도 스타벅스쿠폰이 쏟아진다!▶ 제보하기ⓒ (주)데일리안 - 무단전재, 변형, 무단배포 금지</t>
+  </si>
+  <si>
+    <t>지난 봄학기 개인교육 프로그램 및 성인교육 프로그램에 참여한 수강생/사진=국립부산과학관 국립부산과학관(관장 김영환)이 오는 22일부터 6월27일까지 유아 및 청소년 대상 ‘봄학기 교육프로그램’과 성인 대상 ‘과학 아뜰리에’를 개강한다. ‘봄학기 교육프로그램’은 유아과학교실, 창의탐구교실, SW코딩교실, 창작메이커교실, 주제탐구교실 등 5개 분야 77개 프로그램으로 대면 및 원격으로 운영된다. 교육은 재밌는 실험 위주로 수학과 과학의 원리를 체험하며 이해할 수 있는 커리큘럼으로 구성되어 있다. 수업은 학년별로 나눠 진행되며 교육기간은 주제별로 1일부터 6주 과정까지 상이하다. 지난 학기에 전국 단위로 신청자가 몰리며 인기를 끌었던 원격 교육도 대폭 확대한다. 전체 77개 중 60개 프로그램이 집에서도 수강할 수 있게 됐다. 또한, 이번 교육에는 ‘마이크로비트 글로벌 챌린지’가 신설됐다. 초소형 컴퓨터인 마이크로비트를 활용해 UN의 지속가능발전목표(SDGs)를 주제로 창의력을 펼칠 수 있다. 수강생들은 영국 BBC 마이크로비트 교육재단이 주관하는 ‘마이크로비트 글로벌 챌린지 2021’ 아시아 예선에 참가하게 된다. 수강 신청은 국립부산과학관 누리집(홈페이지)을 통해 가능하며 3주 이상 연속과정 수강생 중 80% 이상 출석한 수강생에게는 수료증을 수여한다. 국립부산과학관은 성인을 대상으로 하는 공방 체험 교육 ‘과학 아뜰리에’도 개최한다. 5월22일에는 가정의 달을 맞아 꽃을 활용한 플라워 아뜰리에를 개최하고 6월19일에는 반려견 행동교정전문가와 함께 반려견 전용 수제비누 등을 만드는 반려견 아뜰리에를 개최한다. 국립부산과학관 김영환 관장은 “대형 교구 사용, 유아 실험 등 대면이 꼭 필요한 수업 외에는 온라인으로 진행할 수 있도록 원격교육을 확대했다”며 “청소년뿐만 아니라 성인 교육까지 전 생애주기 과학콘텐츠를 지속적으로 선보이겠다”고 말했다.부산=김동기 기자 moneys3927@mt.co.kr▶뜨거운 증시, 오늘의 특징주는?  ▶여론확인 '머니S설문' ▶머니S, 네이버 메인에서 보세요 &lt;저작권자 ⓒ '성공을 꿈꾸는 사람들의 경제 뉴스' 머니S, 무단전재 및 재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>도내 15개 고교 등 730명 대상경상북도는 올해 농업인, 고교생, 인문대생 730여 명을 대상으로 인공지능(AI)을 활용한 경쟁력 강화 사업을 추진한다고 13일 발표했다.이를 위해 학업, 취업, 농업 분야의 온·오프라인 교육 플랫폼을 구축한다. 최근 초·중학교에는 소프트웨어(SW) 교육이 필수 과정으로 도입됐지만 고교는 AI 교육을 체계적으로 받을 기회가 적다. 경북 도내 15개 고교, 450명을 대상으로 총 30회 수업을 진행해 학생의 ‘AI 두뇌지수’를 끌어올릴 계획이다.상대적으로 취업이 어려운 인문계열 전공 도내 대학생과 취업준비생 180명을 위한 교육도 마련했다. AI, 빅데이터 실무기술을 활용한 취·창업 연계 프로그램으로 6개 클래스에서 총 24회 교육한다.농업 분야에서는 농·특산물 유통채널 관리운영자 100명에게 3개 권역별(포항, 안동, 경산)로 총 6회에 걸쳐 이론과 실습을 병행한 교육을 추진한다.이철우 경북지사는 “그동안 AI를 개발·구현할 수 있는 석·박사 인력 등 고급 역량을 중점적으로 키워 왔지만 이제는 데이터 기반의 AI 기술을 실생활 전반에 활용할 수 있는 기초 역량을 높일 시점”이라며 “AI 교육이 취약한 계층을 위해 교육 사업을 마련했다”고 말했다.대구=오경묵 기자 okmook@hankyung.com▶ 경제지 네이버 구독 첫 400만, 한국경제 받아보세요▶ 한경 고품격 뉴스레터, 원클릭으로 구독하세요▶ 한국경제신문과 WSJ, 모바일한경으로 보세요 ⓒ 한국경제 &amp; hankyung.com, 무단전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>가족이 함께하는 SW 교육체험 프로그램[세종교육청 제공. 재판매 및 DB 금지](세종=연합뉴스) 조성민 기자 = 세종시교육청교육원은 오는 9월 말까지 '가족이 함께하는 소프트웨어(SW) 교육 체험' 프로그램을 운영한다고 10일 밝혔다.     초등 4∼6학년 학생과 보호자가 팀을 이뤄 인공지능의 개념과 활용사례를 알아보고, 햄스터봇으로 미션 등을 수행하며, 드론 비행법 등을 배운다.    이 프로그램은 4차 산업혁명 시대를 대비해 학생들이 자신의 흥미를 발견하고 진로를 탐색하는 다양한 체험 기회를 제공하려고 마련됐다.    교육에 참여한 한 학부모는 "아이가 SW 교구를 활용하며 재미있어하는 모습을 볼 수 있어 좋았고, 함께 교육을 받아보니 SW 교육에 대해 더욱 관심을 두게 됐다"고 말했다.    강양희 세종교육청교육원장은 "학생과 학부모들이 함께 체험하며 SW 교육에 친근하게 다가가는 계기가 되길 바란다"고 기대했다.    프로그램 참여를 원하는 학생·보호자는 교육원 SW 교육 체험센터 누리집(edu.sje.go.kr/sw)을 통해 신청하면 된다. min365@yna.co.kr▶네이버에서도 뉴스는 연합뉴스[구독 클릭]▶[팩트체크] 전기료 규제하면 해외투자자들이 소송?▶제보하기&lt;저작권자(c) 연합뉴스(https://www.yna.co.kr/), 무단 전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>빅데이터·RPA·AI 도입으로 교사 업무 경감초중고에 이어 유치원 행정까지 지원고교학점제, 과정중심평가 등 교육정책 구현에도 대응2000억원 규모 하드웨어는 하반기 발주나이스 서비스 지원 체계. 출처=한국교육학술정보원이르면 이달 말 정부가 770억원 규모의 4세대 교육행정정보시스템(나이스) 응용 소프트웨어(SW) 개발 사업을 발주한다. 빅데이터·RPA·AI 기술 등을 이용해 교사 행정업무를 경감하고 고교학점제에 대응해 정보자원을 효율화할 수 있는 지능형클라우드를 도입한다. 4세대부터는 초중고는 물론 유치원까지 행정서비스 대상으로 포함하고 있어 교육 분야 역대 최대 규모 SW 개발이 될 전망이다.10일 교육부에 따르면 한국교육학술정보원(KERIS)은 응용SW 개발 본사업이라고 할 수 있는 2단계 사업을 조만간 발주한다. 조달청 프로세스에 따라 이르면 이달 중하순, 늦어도 다음 달 입찰공고를 낼 예정이다.나이스는 학생 출결·성적 등 교육관련 행정을 처리하는 시스템이다. 당초 2022년 개통을 목표로 지난해 발주를 마무리했어야 했으나 대기업참여제한 예외 추진과 원격수업에 의한 새로운 교육환경 반영을 이유로 한 해 미뤘다. 대기업 참여제한 예외 불인정 후 지난해 말 프로젝트관리(PMO)사업과 원격수업 지원을 위한 응용SW 개발사업 일부를 발주하며 본격적으로 시작됐다.이번에 나오는 발주는 나이스 사업의 본사업이라고 할 수 있는 응용SW 개발사업이다. SW개발만 770억원 규모다. 대기업참여제한으로 중소·중견 IT 기업에 열린 시장이다. 하드웨어는 약 2000억원 규모가 될 예정이다. 하반기 별도 발주한다.나이스는 한 번 구축하면 7~10년을 운영해야 하는 만큼 최첨단 기술은 물론 미래 교육 환경까지 반영해야 한다. 교사들의 일반행정, 교무행정, 학사행정까지 모두 다루는 시스템인데다 학생들의 성적 등 민감정보를 담고 있어 고도의 안정성과 보안을 요구한다.4세대 지능형 나이스는 교직원 업무 경감을 위해 빅데이터나 로봇프로세스자동화(RPA) 등 다양한 기술을 적용한다. 일정하게 반복되는 업무는 자동화 처리하고 각종 증명서 발급이나 원서 접수를 위한 서류는 온라인 제출하도록 해 이용자 편의도 향상한다. 학생이 수업활동과 성과를 관리할 수 있도록 PC와 다양한 모바일 기기를 활용하는 교수학습 기반도 마련한다. 학생·학부모가 교육과정에 참여할 수 있도록 학부모와 교사 간 소통 창구를 제공한다. 현재 초중고 업무를 지원 중이지만 4세대부터는 유치원 주요 교무학사·행정 업무도 전자화해 지원한다.미래교육 정책 방향에 맞게 고교학점제, 과정중심 평가도 반영한다. 고교학점제에 대응해 수강신청 등 특정시기 사용자 접속 폭증으로 시스템 오류가 일어나지 않도록 정보자원도 효율화한다. 인공지능(AI) 기반 자원 최적 관리, 자동 장애 복구 및 이상 징후 분석까지 가능한 지능형 무중단 서비스도 4세대 나이스에 반영할 예정이다.이소영 교육부 교육정보화과장은 “초중고에서 유치원까지 범위가 넓어지고 서비스도 중분류 기준 46개에서 64개로 늘어나는 등 기존 나이스와 비교해도 최대 복잡도의 SW 개발 사업”이라면서 “하드웨어 사업을 별도로 발주해 충분한 안정성 검증 시기를 거친 후 2023년 오픈할 것”이라고 설명했다.문보경기자 okmun@etnews.com▶ "2021 스마트 디지털 워크스페이스 이노베이션" 개최▶ "AI·DX SUMMIT KOREA 2021" 6월 24일 개최 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>과기부·서울시 협력한 SW 인재양성 요람1기 교육생 "인문대 출신으로 크래프톤 입사"소프트웨어(SW) 인재 양성 기관인 이노베이션 아카데미가 4기 교육생 250명을 선발해 12일 입교식을 개최하고 본교육 과정을 시작한다고 이날 밝혔다. 이노베이션 아카데미 개소식(과기정통부 제공) © 뉴스1(서울=뉴스1) 김정현 기자 = 소프트웨어(SW) 인재 양성 기관인 이노베이션 아카데미가 4기 교육생 250명을 선발해 12일 입교식을 개최하고 본교육 과정을 시작한다고 이날 밝혔다.이노베이션 아카데미는 디지털 시대의 핵심이 되는 SW 인재 양성을 위해 과학기술정보통신부와 서울시가 협력해 지난 2019년 12월 설립한 기관이다. 이날 열린 입교식에서는 이노베이션 아카데미의 교육 방식에 대해 이해를 높이고, 새롭게 선발된 4기 교육생을 격려하기 위해 선배 교육생과의 '토크콘서트'도 마련됐다.토크콘서트에 참석한 한 1기 교육생은 "인문대 출신으로 이노베이션 아카데미에서 10개월간 교육을 받고 크래프톤에서 인턴으로 근무한 후 채용되어 근무 중"이라며 "이노베이션 아카데미에서 누구의 도움 없이 스스로 프로젝트를 수행하면서 현업에서도 통할 수 있다는 자신감을 갖게됐다"고 말했다.실제로 이노베이션 아카데미는 실제 현장과 유사한 문제해결 방식의 교육을 통해 곧바로 실무에 업무에 투입할 수 있는 수준의 인재 양성을 목표로 운영 중이다. 1기 교육생의 경우, 2년 교육 과정에 참여한지 1년 만에 26명이 국내 주요 SW기업 및 스타트업 등의 취업에 성공하기도 했다.현재 이노베이션 아카데미는 해외 22개국에서 도입한 글로벌 소프트웨어 교육 프로그램인 프랑스의 '에꼴42' 과정을 도입해 운영 중이다. 수업·강의 등 기존의 교육 방식을 벗어나 자기주도 적인 프로젝트 수행과 동료간 상호 학습 등을 통해 인재를 양성하는 2년 과정의 비학위 교육 프로그램이다.지난해 1·2·3기 850명을 선발한데 이어 올해는 Δ4기 250명(5월) Δ5기 250명(11월) 등 매년 500명의 교육생을 선발·배출해 SW 인재양성을 본격화한다는 방침이다.김정삼 과기정통부 소프트웨어정책관은 "디지털 전환, 비대면 경제 가속화 등으로 소프트웨어 인재 수요가 빠르게 증가하고 있다"며 "혁신적인 소프트웨어 교육을 실시하는 이노베이션 아카데미 등 한국판 뉴딜의 'AI·SW 10만 인재 양성'을 통해 기업이 필요로 하는 SW 인재 양성을 지속·강화하겠다"고 말했다.Kris@news1.kr▶ 네이버 메인에서 [뉴스1] 구독하기!▶  뉴스1&amp;BBC 한글 뉴스 ▶ 뉴스1 미래포럼 2021 © 뉴스1코리아(news1.kr), 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		(지디넷코리아=김우용  기자)한국알테어는 데이터 분석 솔루션을 전국의 대학 교수 및 학생에게 무상으로 제공하는 프로모션을 시행한다고 12일 밝혔다.지원 제품은 데이터 분석 전과정에서 사용할 수 있는 ▲데이터 전처리 솔루션 '모나크' ▲데이터 예측 분석 및 머신러닝 최적화 솔루션 '날리지 스튜디오' ▲데이터 시각화 솔루션 '판옵티콘' 등 3개 제품이다. 전 제품이 로우코드 기반이므로 코딩에 익숙하지 않은 초보자도 쉽게 사용할 수 있다. 교육용 제품의 경우 3개 제품 모두 사용할 경우 1년 구독 기준 약 4백만 원이다.알테어 로고알테어는 데이터 분석 소프트웨어를 처음 사용하는 학생을 위해 초보자의 눈높이에 맞춘 사용자 매뉴얼과 기초 사용법 영상을 함께 제공한다. 이해하기 쉬운 데이터들을 추려 바로 적용해볼 수 있는 샘플 데이터를 만들어 학생들이 직접 실습하면서 기능을 익힐 수 있도록 했다.무상 라이선스 지원과 연계해 24일부터 28일까지 5일간 데이터 분석을 주제로 하는 알테어 스쿨 캠프를 온라인으로 개최한다. 상명대학교 지능·데이터융합학부 교수진을 초빙해 데이터 분석에 대한 이론 교육부터 제품을 직접 사용해보는 실습시간까지 갖는다. 해당 강의는 알테어 데이터 애널리틱스 유튜브 채널에서 실시간으로 진행한다.문성수 한국알테어 대표이사는 “다양한 산업 분야에서 경쟁력을 좌우할 핵심으로 데이터 활용 능력을 강조하고 있다”며 “학생들이 데이터 분석 툴을 직접 사용해보면서 데이터 기반으로 문제를 해결하는 역량을 키울 수 있도록 지원할 것”이라고 밝혔다.해당 라이선스는 올해 12월 31일까지 알테어 스토어에서 신청할 수 있다. 수업용 라이선스 신청은 한국알테어 마케팅팀으로 문의하면 된다.김우용 기자(yong2@zdnet.co.kr) ▶ 지디넷코리아 '홈페이지' ▶ 네이버 채널 구독하기© 메가뉴스 &amp; ZDNET, A RED VENTURES COMPANY, 무단전재-재배포 금지</t>
+  </si>
+  <si>
+    <t>AI 기술 교육 및 노동시장 진출 지원[서울경제] 한국생산성본부는 지난 12일 정부서울청사에서 한국폴리텍대학, 한국소프트웨어(SW)산업협회와 ‘인공지능(AI)기술인재 양성을 위한 업무협약’을 맺었다고 13일 밝혔다.3개 협약기관은 △디지털 뉴딜 실행을 위한 청년 일자리 발굴 △AI기술 분야 인재 양성 체계 구축 △생애주기별 AI기술 맞춤교육 콘텐츠 개발 및 교육 체계 구축 △AI기업과 산·학·연 네트워크 및 취업 연계 시스템 구축을 위해 상호 협력한다.생산성본부와 폴리텍대학은 맞춤형 교육 콘텐츠를 개발하고, 온·오프라인 교육 컨설팅에 역량을 집중할 계획이다. SW산업협회는 고용 확대가 예상되는 산업현장에 필요 인력을 적시 공급하고, 청년층이 조기에 노동시장에 진입할 수 있도록 지원한다.안완기 생산성본부 회장은 “한국 경제와 산업 성장을 위해서는 속도감 있는 디지털 전환(DX)과 혁신을 이끌 디지털 인재 양성이 필요하다”며 “생산성본부는 디지털 전환, 스마트화 지원 등을 위한 기관으로 고부가가치 일자리 창출하고 디지털 경제 대전환을 이끌어 나가겠다”고 강조했다./김정욱 기자 mykj@sedaily.com▶ [지구용] 투명해진 맥주병, 그런데 말입니다...▶ 서울경제 더 폴리틱스 뉴스를 만나보세요!▶ 미슐랭 가이드처럼 알찬 부동산 뉴스 '집슐랭'저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>/ News1(서울=뉴스1) 김승준 기자 = 과학기술정보통신부와 한국과학창의재단은 초·중등학교 현장 소프트웨어(SW)·인공지능(AI)교육 활성화를 위해 25일까지 '제3회 SW·AI수업 우수사례 공모전'접수를 진행한다고 11일 밝혔다.공모전은 우수사례를 발굴·확산하여 SW·AI교육 수업 내실화와 학교 현장의 교수·학습활동에의 실질적인 변화를 유도하기 위한 취지로 마련됐다. 공모는 'SW·AI교과 수업 개선'과 'SW·AI융합 수업 설계'의 2개 부문으로 나뉘어 진행된다. 각 부문은 SW·AI교과 기반 교육과정 재구성 또는 다양한 교과를 융합한 SW교육 또는 AI교육 수업 설계 사례를 내용으로 하며, 전국 초·중·고등학교 교사를 대상으로 진행된다.심사를 거쳐 선정된 우수사례에는 과학기술정보통신부 장관상 6점, 한국과학창의재단 이사장상 8점 총 14점을 시상된다. 수상작은 소프트웨어 중심사회 포털을 통해 온라인 배포될 예정이며, 해당 포털을 통해 지난 수상작도 확인 가능하다.자세한 내용은 한국과학창의재단 홈페이지 내 공지사항에서 확인 가능하며, 참가 접수는 한국과학창의재단 온라인접수시스템을 통해 진행된다.seungjun241@news1.kr▶ 네이버 메인에서 [뉴스1] 구독하기!▶  뉴스1&amp;BBC 한글 뉴스 ▶ 뉴스1 미래포럼 2021 © 뉴스1코리아(news1.kr), 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		[머니투데이 한고은 기자] 한국과학창의재단이 학교 현장의 소프트웨어(SW)·인공지능(AI) 수업 우수사례를 공모한다. 과학창의재단은 이번 공모전을 통해 학교 현장의 우수한 SW·AI 교육 사례를 발굴하고, 확산한다는 계획이다. 공모는 'SW·AI교과 수업 개선' , 'SW·AI융합 수업 설계' 부문으로 나눠 진행된다.  각 부문은 SW·AI교과 기반 교육과정 재구성 또는 다양한 교과를 융합한 SW교육 또는 AI교육 수업 설계 사례를 내용으로 하며, 전국 초·중·고등학교 교사를 대상으로 진행된다.과학창의재단은 심사를 거쳐 우수사례를 선정하고 과학기술정보통신부 장관상 6점, 한국과학창의재단 이사장상 8점 총 14점을 시상할 계획이다. 수상작은 소프트웨어 중심사회 포털을 통해 온라인 배포한다. 과학창의재단 관계자는 "이번 공모를 통해 학교현장에서 실제 적용이 가능한 SW·AI수업 사례를 발굴·확산하고, 교육 현장의 SW·AI 교육을 활성화 할 수 있을 것으로 기대한다"고 말했다. 자세한 내용은 한국과학창의재단 홈페이지 내 공지사항에서 확인 가능하며, 참가 접수는 한국과학창의재단 온라인접수시스템을 통해 진행된다.한고은 기자 doremi0@mt.co.kr▶부동산 투자는 [부릿지]▶주식 투자는 [부꾸미TALK]▶부자되는 뉴스, 머니투데이 구독하기 &lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>SW 통합전문 미국 'TIBCO Software'와 산학협약 체결【대전=뉴시스】우송대 엔디컷국제대학 전경.(사진=우송대 제공)[대전=뉴시스] 유순상 기자 = 우송대 SW중심대학사업단은 11일 글로벌 빅데이터 분석 소프트웨어업체 'TIBCO Software(팁코 소프트웨어)'와 효율적인 빅데이터 분석 교육과정 운영 산학협약을 체결했다.협약에 따라 우송대는 글로벌 상용 빅데이터 분석 소프트웨어 'Spotfire(스팟파이어)'를 무상 제공받아 재학생들에게 보다 효과적으로 빅데이터 분석 교육을 실시한다.'Spotfire'는 대표적인 글로벌 상용 빅데이터분석 프로그램으로 기업 업무분석 및 데이터 시각화 강점을 지니고 있어 전 세계 기업과 대학 등에서 사용되고 있다. 컴퓨터정보·보안전공 빅데이터 처리, 스마트IT·보안전공 빅데이터 통계, 게임멀티미디어전공 빅데이터 분석 및 인포그래픽, AI·빅데이터학과와 철도소프트웨어전공 데이터분석 등의 교과목에 Spotfire를 활용한 빅데이터 분석 및 데이터 시각화 실습교육을 한다. 또 'TIBCO Software' 파트너업체들에 재학생 인턴십 기회를 제공하고 빅데이터 분석 관련 특강, 워크숍, 세미나를 공동 개최, 빅데이터 분야 역량강화를 위해 지속적인 상호협력관계를 유지할 계획이다. TIBCO Software는 미국 캘리포니아 팔로알토에 본사가 있다. 북미와 유럽, 아시아, 중동, 아프리카 및 남미에 지사를 둔 소프트웨어 통합전문 글로벌 IT업체이다.우송대 관계자는 "지난 2018년 과학기술정보통신부 SW중심대학에 선정돼 사업단을 중심으로 SW인재 양성 및 SW융합교육에 주력하고 있다"며 " 특히 SW융합대학, 엔디컷국제대학, 철도물류대학, 보건복지대학, 호텔외식조리대학 등 단과대학별 특성을 기반으로 SW활용기술과 프로젝트형 실무교육을 실시하고 있다"고 말했다.☞공감언론 뉴시스 ssyoo@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		소프트웨어(SW)·인공지능(AI) 등 미래교육 콘텐츠 개발과 소재·부품·장비(소부장) 통합물류 서비스 역량 강화를 위해 이티에듀와 메카솔루션이 협력한다. 미래교육을 위한 교구재 유통은 물론, 제조산업 강화를 위한 소부장 물류관리를 혁신한다.이한규 이티에듀 전략사업본부장(왼쪽부터), 신혜권 이티에듀 대표, 정동화 메카솔루션 대표, 임홍준 메카솔루션 영업팀장이 교육콘텐츠 및 물류서비스 산업 경쟁력 확보를 위한 업무 협약식을 갖고 기념촬영을 하고 있다.이티에듀와 메카솔루션은 최근 메카솔루션 대구 본사에서 '교육콘텐츠 및 물류서비스 산업 경쟁력 확보를 위한 업무협약'을 체결했다. 이티에듀 미래교육 서비스 역량과 네트워크 기반에 메카솔루션 교구재 유통 및 통합물류 관리서비스 역량을 더해 시너지를 높일 계획이다.이티에듀는 전자신문 교육법인으로 4차산업혁명 시대 인재양성을 위한 다양한 교육 서비스를 제공한다. SW 등 미래교육 소외계층 학생을 위한 무료 교육도 매년 시행한다. 미래 교육에 필요한 다양한 교구재 공급을 위해 정보 교·강사를 위한 전문 교구몰 '마이클래스몰'도 운영한다.메카솔루션은 교구재 및 사물인터넷 장비, 전기전자 및 기계부품 개발·유통 기업으로 성장해 최근 통합물류 관리 업체로 영역을 확대한다. 로봇시스템을 도입, 물류관리 자동화 시스템도 제공한다. 소부장 유통 플랫폼을 활용해 기계부품 3차원 도면 제공 등 고객 요구에 대응한다.양사는 우선 교육용 교구재 온·오프라인 유통에 협력한다. 메카솔루션이 공급하는 다양한 교육용 교구재를 이티에듀 마이클래스몰에 입점시켜 공동 판매한다. 마이클래스몰에서 메카솔루션 우수 교구재 구매가 가능하다. 단순 교구재뿐 아니라 정보 교·강사가 즉시 수업을 할 수 있도록 수업안(교안)도 함께 제공한다. 학교 구매를 위한 맞춤형 판매 방식이 적용된다.교육 서비스 품질 강화에도 협력한다. 교육 프로그램에 맞는 교구재 공급, 교구재를 활용한 교육 프로그램 개발 등을 추진한다. 초·중·고 수업용 신규 콘텐츠 및 교구재도 공동 개발한다.통합물류관리 서비스 강화에도 힘을 모은다. 메카솔루션은 대규모 물류 창고를 확보, 통합물류 관리 시뮬레이터와 시스템을 구축했다. AI 기반 인플루언서 마케팅 플랫폼도 활용한다. 이티에듀는 메카솔루션 통합물류 관리 서비스를 제조기업 등에 소개하는 역할을 담당한다. 제조기업은 설계·개발 비용 절감과 생산속도 향상, 효과적 마케팅 등이 가능할 전망이다.신혜권 이티에듀 대표는 “메카솔루션 협력으로 정보 교·강사에게 다양하고 질 좋은 교구재와 수업안을 제공하겠다”면서 “수업에 맞는 적절한 교구재 공급으로 미래교육을 이끌겠다”고 말했다. 정동화 메카솔루션 대표는 “이티에듀 협력으로 교구재 판매 채널을 확대하고 신성장 사업인 통합물류관리 서비스 사업을 강화하겠다”고 전했다. 임홍준 메카솔루션 영업팀장은 “이티에듀 교육 서비스에 최적화된 교구재 공급을 위해 적극 지원하겠다”고 덧붙였다.김지선기자 river@etnews.com▶ "2021 스마트 디지털 워크스페이스 이노베이션" 개최▶ "AI·DX SUMMIT KOREA 2021" 6월 24일 개최 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>SW학과 3~4학년생, 1대1 학생도우미로 맹활약동명대 SW중심대학사업단과 남구노인복지관이 공동으로 연 무료 컴퓨터 교육 프로그램에서 중장년층 수강생들이 학습하고 있다. [이미지출처=동명대][아시아경제 영남취재본부 김용우 기자] 동명대학교(총장 전호환) SW중심대학사업단은 5월 11일부터 6월 11일까지 남구노인복지관과 공동으로 50+(중장년층) 대상으로 컴퓨터기초활용 역량 강화 교육을 무료로 실시한다.이번 시니어 대상 컴퓨터기초활용 역량 강화 교육은 코로나19 상황을 고려해 반을 2개로 나눠 진행한다.각 분반에는 강사 1명, 개별 학생도우미 5명, 시니어 5명으로 구성된다. 1주일에 2번(각 90분 강의), 3시간씩 5주간 시행한다.1대1 학생도우미는 동명대 SW중심대학 참여 SW학과(AI학부,컴퓨터공학과,게임공학과,소프트웨어융합보안학과) 3~4학년 위주로 SW봉사를 원하는 전공학생 37명이 강사로 참여해 교육 효율성을 높인다.동명대 SW중심대학사업단 조미경 단장은 “시니어의 인터넷 활용, 정보 활용 등 정보사회 참여 욕구를 충족시키고, 나아가 컴퓨터 활용 인터넷 교육으로 여가, 재정, 건강관리 등 서비스 활용 능력을 높여줄 계획”이라고 말했다.조 단장은 또 “유사한 관심사를 가진 사람들을 서로 만나게 해줘 노년기 소외문제를 완화할 수 있는 대안이 될 것”이라고 말했다.고령화 시대 노년층의 정보 불평등 해결이 새로운 과제로 떠오르고 있는 가운데 동명대 SW중심대학사업단이 노인정보화교육을 활성화하기 위해 이 프로그램을 마련했다.영남취재본부 김용우 기자 kimpro7777@asiae.co.kr▶ 속 시원한 풀이! 2021년 정통사주·운세·토정비결▶ 내가 몰랐던 당신들의 이야기 [나돌] 네이버TV ▶ 투자 성공의 핵심은 기업분석! 'CORE' 바로가기&lt;ⓒ경제를 보는 눈, 세계를 보는 창 아시아경제 무단전재 배포금지&gt;</t>
+  </si>
+  <si>
+    <t>인공지능 등 활용한 다양한 수업 기대경북의 한 초등학교 학생들이 교실에서 스마트기기를 사용하고 있다. KT 대구·경북광역본부 제공KT 대구·경북광역본부가 경북도내 23개 시·군의 초·중·고·특수학교 교실에 무선망을 구축했다.12일 KT에 따르면 경북교육청과 함께 지난해 10월부터 추진한 '학교 무선망 및 학교 무선망 통합관리시스템' 설치를 완료했다. 무선망 통합관리시스템은 신종 코로나바이러스 감염증 확산으로 온라인 수업이 크게 늘고 스마트기기 사용이 급증함에 따라 도입됐다. KT와 교육청은 지난 7개월간 협업을 통해 경북도내 초·중·고·특수학교 942개교 내 일반교실과 일부 특별교실 1만6,063실에 무선망을 구축했다.KT와 교육청은 무선망 구축으로 각 학교마다 인공지능(AI)과 소프트웨어(SW)교육, 디지털교과서, 온라인 공동교육과정 등 다양한 형태의 수업을 진행할 수 있을 것으로 기대했다.KT는 앞으로 3개월간 장비 사용법 교육과 학교 환경 맞춤형 속도 개선, 각종 장애 진단 등을 지원한다. 또 향후 5년간 유지보수 서비스를 제공한다.안창용 KT대구·경북광역본부장은 “KT가 경북도내 모든 학생들에게 보다 나은 교육환경을 제공하게 돼 기쁘게 생각한다"며 "교내 인터넷 환경이 안정적으로 구현될 수 있도록 지속적으로 관심을 기울이겠다"고 말했다.대구= 김정혜 기자 kjh@hankookilbo.com▶[화해] 남편의 반복된 외도와 폭행, 이혼만은...▶[농지에 빠진 공복들] 51억·89필지 '농지왕'까지▶한국일보닷컴 바로가기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		        서울시와 중소기업 전문 지원기관인 서울산업진흥원(SBA, 대표이사 장영승)은 SW혁신인재 양성기관인 싹(SSAC, Seoul Software Academy Cluster)에서 배출한 주니어 SW개발자 채용에 관심있는 기업을 싹 홈페이지를 통해 모집한다.사진제공: 서울산업진흥원        싹(SSAC)은 기업 현장에서 즉시 활동이 가능한 주니어개발자 수준의 SW개발자 양성을 목표로 실제 기업현장 수요에 기반하여 웹, 앱, AI, 빅데이터, IoT/로봇 등 5개 분야 혁신 인재 양성을 주도해오고 있다. 지난해 10월말부터 1기를 시작으로 과정별 3~6개월 간의 집중과정을 통해 2기 11개 과정 약 200여명의 수료생을 배출한다.금번 싹(SSAC)에서 배출되는 수료생들은 1, 2기 평균 11:1, 최고 36:1의 경쟁률 속에서 레벨테스트와 심층 면접을 통해 선발됐다. 이후 현업개발자 중심의 강사진들로부터 기본적인 기술 스택 습득과 동료 학습, 실전 프로젝트, 온·오프라인 멘토링/코칭 등 효과 높은 다양한 교육기법이 접목되어 실전역량을 쌓아 왔다.과정 직후 학습효과로 볼 수 있는 수료생의 과정 시작 전과 수료 후 개발 역량에 대한 레벨 측정을 통해 주니어 개발자로서 역량을 갖추었는지도 꼼꼼하게 살피는 등 체계적으로 과정을 운영해왔다.싹(SSAC) 주니어 SW개발자 채용에 관심 있는 기업은 싹(SSAC) 홈페이지를 통해 공개되어 있는 과정별 특징과 관련 수행가능 개발직무, 기술스택과 특화역량에 대한 정보를 확인 후 채용 관심 기업으로 등록하면 된다.등록된 정보는 싹 운영기관인 SBA에서 해당 분야 취업활동을 준비 중인 싹(SSAC) 주니어 SW개발자에게 제공하고, 주니어 SW개발자가 개별적으로 채용 과정에 응하는 방식이다. 채용 관심 기업 등록은 2021년 중 상시로 진행된다.SBA 이광열 교육지원본부장은 “SW개발자 인력난이 심화되고 있는 현 상황에서 싹(SSAC)을 통해 배출된 우수한 SW인재와 좋은 인재 채용을 원하는 기업 간의 연결을 통해 이러한 어려움 해소에 도움이 되었으면 한다”고 말했다.[콘텐츠부] ▶네이버에서 '명품 경제뉴스' 조선비즈를 구독하세요▶알뜰주유소 10년… 기름값 내렸는데 줄폐업, 왜?▶MSP가 뭐길래… 클라우드로 눈돌리는 보안업계	저작권자 ⓒ 조선비즈, 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>KT가 자사 AI 실습 플랫폼 'AIDU'를 한양대에 제공한다. /더팩트 DB최신 AI 교육환경 제공 및 AI 실습교육 강화[더팩트│최수진 기자] KT가 국내 AI 인재 양성을 위해 KT AI 실습 플랫폼 'AIDU'(에이아이두)를 한양대에 제공한다고 3일 밝혔다.에이아이두는 KT가 자체적으로 개발한 AI 교육플랫폼이다. KT는 인공지능 인재 육성은 물론, AI 모델링을 실제 업무에서 해볼 수 있는 환경을 위해 AIDU를 개발했다. 에이아이두 플랫폼을 활용하면 별도의 소프트웨어를 설치할 필요 없이 데이터 분석· 처리와 AI 모델링이 가능하다.한양대학교는 지난 2016년 소프트웨어중심대학(SW중심대학)으로 선정돼 소프트웨어 인재 양성에 집중하고 있다. KT와 한양대는 SW심화교육 과정에 AIDU를 적용, 산업현장에서 사용되고 있는 AI 실습플랫폼을 경험할 수 있는 기회를 제공하고자 한다.진영심 KT그룹인재개발실장(상무)은 "AI 교육은 무엇보다 축적된 데이터를 기반으로 실제 분석해보고 모델링해보는 실습이 중요하다"며 "KT의 AIDU로 AI에 대한 이해와 관심이 커지기를 기대한다"고 말했다.정형수 한양대 SW융합원장은 "에이아이두가 KT 내부에서 사내 직원의 AI 교육에서 잘 활용되고 있는 만큼 대학에서 비전공자 학생들이 AI 및 데이터 사이언스를 배우는 데 도움이 되기를 기대한다"고 밝혔다.한편, KT와 한양대는 지난해 2월 AI원팀을 결성했다. AI 원팀은 국내 대표 산학연이 뜻을 모아 결성한 협력체로 국내 인공지능 인재양성과 산업현장의 AI 적용 사례를 발굴 및 확산시키는 등 인공지능 1등 국가 실현에 앞장서고 있다.jinny0618@tf.co.kr - BTS 공연 비하인드 사진 얻는 방법? [팬버십 가입하기▶]   - 내 아이돌 순위는 내가 정한다! [팬앤스타 투표하기] 저작권자 ⓒ 특종에 강한 더팩트 &amp; tf.co.kr 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>국내 소프트웨어산업 진흥 및 동반 성장 생태계 조성을 위한 한국소프트웨어산업협회(KOSA)와 네이버클라우드 간 상호업무협약식이 6일 서울 강남구 네이버 클라우드에서 열렸다. 조영훈 KOSA 실장(왼쪽)과 김홍진 네이버클라우드 기술총괄 전무가 협약서에 서명 후 기념촬영했다. 이동근기자 foto@etnews.com6일 한국소프트웨어(SW)산업협회와 네이버클라우드 협약은 단순 협업을 넘어 SW 산업 경쟁력을 강화하자는 취지에서 기획됐다.코로나19 팬데믹 이후 세계 기업이 패키지 SW 대신 서비스형소프트웨어(SaaS)를 도입하면서 글로벌 정보기술(IT) 시장에서 SaaS가 핵심으로 부상했다. 분야별 고도화된 기술력과 솔루션을 보유한 국내 기업이 SaaS로 전환해 사업영역을 해외로 확장할 수 있는 길이 열렸다.SW산업협회는 네이버클라우드를 비롯해 클라우드 전문 업계와 함께 국내 SW 솔루션이 해외로 뻗어나가도록 지원한다.◇SaaS 활성화를 통한 해외진출 로드맵 수립시장조사업체 시너지리서치그룹에 따르면 세계 SaaS 시장은 지난 10년간 연평균 39%씩 2019년 처음 1000억달러(약 112조원)를 돌파했다. 세계 클라우드 시장 가운데 SaaS 시장 비중은 40%가 넘어설 만큼 클라우드 업계에서 SaaS 영향력은 빠른 시간 내 커졌다. 미국 실리콘밸리에서는 유니콘(기업가치 1000억원 이상) 기업 중 80%가 줌, 슬랙 등 기업용(B2B) SaaS 기업일 정도로 SaaS는 시장의 한 축으로 자리잡았다.국내도 SaaS 산업 경쟁력 확보가 시급하다는 지적이 이어졌다. 그러나 SaaS가 활성화려면 기존 SW기업이 보유한 패키지SW를 SaaS로 전환하거나 글로벌 요구에 맞춰 업그레이드하는 활동이 전제돼야한다.SW산업협회와 네이버클라우드는 국내 SaaS 기업 육성, 해외진출을 위한 로드맵을 마련했다.우선 협회는 보유한 서비스 혹은 신규서비스를 클라우드 기반 SaaS로 구축하려는 기업을 대상으로 △SaaS 비즈니스모델(BM)개발 교육·컨설팅 △SW아키텍처 설계 실무 과정 △클라우드 환경으로의 솔루션 전환 과정 등의 교육을 제공한다. 클라우드 기반 SaaS 구축을 위한 △인프라 교육 △SaaS 서비스별 인프라 컨설팅 △SaaS 서비스를 위한 인프라 구축 상태 검토 등 서비스 개발과 구축에 필요한 교육을 지원한다.SaaS로 전환한 뒤에도 비즈니스 지원을 이어간다. SaaS 기반으로 글로벌 진출을 목표로 하는 기업 대상으로 △타깃 시장대상 고객 반응·시장 수요 검증 △글로벌 SaaS BM 컨설팅 △수익모델 최적화 설정 방안 도출 등 실질적 정보를 제공한다. 수출지원 기관을 통해 글로벌 SaaS 시장 개척과 SaaS 솔루션 영업, 판로개척을 위한 전문 컨설팅을 지원한다.협회는 SaaS 서비스 기업 대상으로 전문인증기관을 통한 SaaS 인증도 추진한다. SaaS 서비스의 보안, 성능, 품질 등 다방면을 검증해 인증받았음을 입증할 계획이다.SaaS 기업 해외 진출 로드맵. 한국SW산업협회 제공◇지원사업부터 협의회 구성까지…SaaS 시장 정조준SW산업협회는 로드맵을 바탕으로 올해 두 가지 지원사업을 진행한다.'2021년도 클라우드 플랫폼 기반 SaaS 솔루션 글로벌 시장 진출' 사업은 SaaS 솔루션 기반 중소벤처 기업과 해외시장 진출 전략을 공유하고, 대기업 브랜드 인지도를 기반으로 중소벤처 기업과의 글로벌 동반 진출을 추진한다.대·중소기업 협업 체계 기반의 글로벌 진출 우수 사례를 발굴하고 중소기업 솔루션 수출계약과 사용자 확보를 통한 글로벌 사례 확보에 주력할 계획이다.이를 위해 네이버클라우드플랫폼(NCP) 글로벌 리전(여러개의 데이터센터)에 참여기업의 SaaS 솔루션을 구축한다. 솔루션 상품화와 SaaS 전환을 위한 기술 컨설팅을 제공한다. 타깃 시장 진출을 위한 진단과 전략을 수립해 지원한다. 타깃 시장 대상 온라인 웨비나 등을 개최해 SaaS 홍보를 진행할 방침이다.'클라우드 플랫폼 기반 애플리케이션프로그래밍환경(API) 마켓플레이스 구축' 사업은 글로벌(동남아 우선) 현지기업과 소비자 특성에 부합하는 전략과 상품을 마련해 진출하는 사업이다. API 마켓플레이스를 개발 구축해 API 서비스화 전환 지원과 상품화 컨설팅을 제공한다. 주요 동남아 5개국 대상 시장조사를 거쳐 세부 진출 전략을 마련한다. 마켓플레이스를 통해 손쉽게 한국 SaaS 제품을 선택하도록 유도할 계획이다.SW산업협회는 안정적 SaaS 전환 지원 등을 위해 이달 중 'SaaS 추진협의회'를 발족한다.이한주 베스핀글로벌 대표가 협의회장을 맡아 SaaS 기업 간 협력 체계를 마련하고 SaaS 개발, 기술컨설팅 등을 지원할 예정이다. 회원사 범위는 △SaaS 관련 기술보유·개발 기업 △자사의 기술·응용솔루션의 SaaS화를 희망하는 기업 △SaaS 기술 기업과 협력 가능한 SW 기업 등이다.SW산업협회 관계자는 “정부도 SaaS 전환을 위해 사업 계획부터 상용화까지 원스톱 지원을 고려한다”면서 “협회도 상생 생태계 조성, 수출 지원, 교육 지원 등 다양한 역할을 수행하겠다”고 말했다.김지선기자 river@etnews.com▶ "2021 스마트 디지털 워크스페이스 이노베이션" 개최▶ "AI·DX SUMMIT KOREA 2021" 6월 24일 개최 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>경남교육청, 전국 최초 교육과정 활용 시스템 개발 착수2025년까지 5년간 인공지능 프로그램 개발 등 완료[창원=뉴시스] 홍정명 기자= 박종훈 경남도교육감이 11일 오전 본청 대강당에서 열린 경남형 미래교육지원플랫폼 ‘아이톡톡'에 접목할 빅데이터·인공지능 시스템 개발 착수보고회에 참석해 인사말을 하고 있다.(사진=경남도교육청 제공) 2021.05.11. photo@newsis.com[창원=뉴시스] 홍정명 기자 = 경남도교육청은 11일 오전 본청 대강당에서 경남형 미래교육지원플랫폼 '아이톡톡'에 빅데이터·인공지능(AI)을 적용하는 시스템 개발 착수보고회를 개최했다.행사에는 박종훈 교육감과 경남도의회 교육위원회 윤성미 부위원장, 본청 국·과장 등이 참석했다.지난해 9월부터 보급에 들어간 '아이톡톡'은 교수학습지원 도구를 만든 것이며, 이번 착수보고회는 소프트웨어(SW) 개발로 교수학습지원 도구에 쌓인 학습데이터를 활용하여, 인공지능 알고리즘을 통한 학생 개별 맞춤형 학습 제공을 목표로 추진한다.전국 최초로 브라우저를 기반으로 개발되는 빅데이터와 인공지능 활용 플랫폼으로, 교수학습지원 등 교육과정 전 영역을 지원하게 된다.플랫폼은 교수학습 요구가 만나는 곳이고, 이번 시스템은 그 안에서 세부적으로 돌아가는 인공지능 프로그램을 개발하는 것이다.이번 개발 과업은 2021년부터 2025년까지 5년 동안 진행되는 프로젝트다.1년 차인 올해는 빅데이터·인공지능 기반 조성(과업의 80%)과 교사·학생·학부모들이 활용 가능한 응용프로그램(과업의 20%)인 교육과정 편제 관리, 콘텐츠 제작, 자기주도적 과제 관리, 수학·국어 문제은행 맞춤형 학습지원, 지능형 원격화상 수업도구 등이 개발된다.빅데이터·인공지능 플랫폼 구축의 핵심은 양질의 데이터를 확보하는 것으로, 경남교육청은 초등학교 1학년부터 고등학교 3학년까지 교육과정과 출판사별 모든 교과 데이터를 구축한다.또한 학습의 인지적 영역뿐만 아니라 정서와 감성 등 정의적 영역을 함께 분석하기 위해 학생들의 성장과 배움의 광범위한 학습데이터도 함께 구축한다.이는 전 세계에서 전례 없는 프로젝트다. 경남교육청은 이와 같은 데이터 축적 기술을 특허 출원할 예정이다.특히, 올해 구축되는 데이터 양은 2015개정 교육과정을 기준으로, 초·중·고 37개 교과(군)의 성취기준 6000여 건, 평가기준별 2만여 건 및 학습요소 단위 10만여 건의 학습데이터, 수학·국어 인공지능 문항 4만여 건, 학습 개념 설명 콘텐츠 4천여 건, 국정 및 검인정 교과서 1000여 권의 데이터 집적이 이뤄진다.[창원=뉴시스] 홍정명 기자= 11일 오전 경남도교육청 본청 대강당에서 경남형 미래교육지원플랫폼 ‘아이톡톡'에 접목할 빅데이터·인공지능 시스템 개발 착수보고회가 열리고 있다.(사진=경남도교육청 제공) 2021.05.11. photo@newsis.com이렇게 집적한 데이터는 학습 내용을 논리적으로 구조화해 입체적인 맵으로 설계된다. 설계에 따라 수십만 개의 데이터를 일일이 연결하는 고도의 맵핑 과정을 거쳐 학생과 교사들에게 다양한 응용 프로그램으로 서비스된다.빅데이터·인공지능 교육과정 활용 응용프로그램 서비스는 인공지능 알고리즘을 통해  학생들에게 맞춤형 콘텐츠 및 평가 문항, 보충·심화 학습 경로 등을 추천해 준다.특히 학생 개인이 자신의 학습 상황을 표나 그래프를 통해 확인할 수 있도록 하여, 자기주도적 학습을 가능하게 지원한다.또한 교사의 업무도 경감시켜 준다.학습자료와 평가문항을 찾지 않아도 되며, 각종 교육콘텐츠와 자료를 수업 과정에 맞춰 추천하고 제공해 수업 준비의 수고와 시간을 줄여 수업활동 자체에 집중할 수 있도록 한다.학부모에게는 기존 학교 홈페이지를 통해 일방향으로 지원받았던 안내, 홍보 등 소극적인 서비스의 한계를 넘어, 학기 말 평가 통지자료, 자녀의 학습정보, 학교 설문지, 학교 안내장 등을 실시간으로 공유받아 학교의 의사결정에 적극적으로 참여할 수 있다.박종훈 교육감은 "전국 처음으로 시도하는 도전이기 때문에 많은 어려움과 시행착오가 따르겠지만, 경남의 학생들이 유능한 미래인재로 성장할 수 있도록 빅데이터와 인공지능을 활용한 플랫폼 구축에 최선을 다해 달라"고 주문했다.이어 "교육 데이터 주권은 앞으로 중요한 교육 자산이 될 것"이라며 "양질의 데이터를 잘 관리하여 성공적인 개발이 될 수 있도록 노력해 달라"고 거듭 당부했다.경남형 미래교육지원플랫폼 '아이톡톡'은 이번 착수보고회를 시작으로, 7월에 중간 보고회, 9월 학교 시범서비스를 거쳐 12월 말에 1차년도 개발을 완료할 예정이다.☞공감언론 뉴시스 hjm@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>[애널리스트 칼럼]-강경근 NH투자증권 연구원인공지능(Artificial Intelligence, AI)이 우리 생활 곳곳에 스며들고 있다. 인공지능의 사전적 의미는 ‘인간의 학습능력, 추론능력, 지각능력, 논증능력, 자연언어의 이해능력 등을 인공적으로 구현한 컴퓨터 프로그램 또는 이를 포함한 컴퓨터 시스템’이다. 다시 말해 인간의 능력 정도 내지는 그 이상으로 기능할 수 있는 가상 세계의 인간으로 정의할 수 있다. 사실 인공지능이라는 개념이 등장한 지는 이미 십수년이 되었지만 최근 들어 인공지능 콘텐츠가 부쩍 늘어났음이 체감된다. 이제 인공지능은 제조, 헬스케어, 교육, 생활 등에서 필수적인 존재로 자리잡았다.인공지능 산업의 주도권을 잡기 위한 국가, 기업들의 경쟁도 심화되면서 글로벌 인공지능 시장은 가파르게 성장하고 있다. 시장조사기관 IDC에 따르면 글로벌 인공지능 시장 규모는 2016년 80억달러에 불과했으나 2022년 1130억달러로 늘어나 연평균 성장률 55.5%를 기록할 전망이다. 국내 시장 규모는 2019년 말 과학기술정보통신부(전 미래창조과학부) 발표에 의하면 약 9조원대로 추정된다. 증시에서도 인공지능 관련 기업들에 대한 관심이 높다. 국내의 경우 바이브컴퍼니, 뷰노, 알체라 등이 상장 하였으며 다수의 인공지능 관련 기업들의 상장도 예정돼 있다.자연스레 전 세계에서 인공지능이 가장 발달한 국가인 미국에 상장된 기업에 투자자들의 눈길이 가게 된다. 이번에 소개하려는 기업은 C3.ai 이다. 사명에서 바로 알 수 있듯이 미국의 대표적인 엔터프라이즈 AI 소프트웨어 기업이다. 인공지능 개발을 진행하고 있는 구글, 마이크로소프트, 아마존 등과는 달리 순전히 인공지능 비즈니스만을 영위한다는 점이 특징적이다. C3.ai는 기업 고객이 자신들의 고유한 데이터를 바탕으로 머신러닝 모델을 구축하고, AI 애플리케이션을 만들 수 있는 플랫폼을 제공한다.동사의 AI 솔루션은 고객사의 생산성과 효율성 개선에 크게 기여한다. 포츈 글로벌 500대 헬스케어 기업 중 한 곳은 C3.ai 재고 최적화 솔루션과 공급망 네트워크 리스크 솔루션을 사용한 후 기존에는 몇 달이 소요되었던 글로벌 공급망 관리 업무를 한달 만에 해결할 수 있게 됐고, 공급망 병목 현상을 해결해 단위 생산성을 300%까지 향상시켰다. 이외에도 제품 리드 타임 예측과, 원재료 투입 최적화를 통해 생산량을 증대시켰다.동사가 목표하고 있는 시장은 향후 높은 성장성을 보일 것으로 예상된다. IDC에 따르면, 동사가 제공하는 데이터 통합, PaaS(Platform as a service), 데이터 처리, 애플리케이션 구축 플랫폼 관련 시장 규모는 2019년 420억달러에서 2024년 720억달러로 연평균 11% 성장할 것으로 전망된다. 전체 AI 애플리케이션 시장 규모는 2019년 1070억달러에서 2024년 2270억달러로 연평균 16% 성장할 것으로 전망된다.동사는 지난 12월 뉴욕증권거래소에 공모가 42달러로 상장하였다. 이후 주가는 시장의 높은 관심에 힘입어 공모가 대비 약 4배가량인 183달러까지 상승하기도 하였으나, 성장주 조정과 신규 상장 종목 특성상 수급 이슈로 인해 조정받으며 공모가 부근인 50달러 중반선으로 수렴하고 있다. 밸류에이션 부담은 완화된 상황이며 차별화된 솔루션에 기반 한 구조적 성장이 기대된다.▶ 경제지 네이버 구독 첫 400만, 한국경제 받아보세요▶ 한경 고품격 뉴스레터, 원클릭으로 구독하세요▶ 한국경제신문과 WSJ, 모바일한경으로 보세요 ⓒ 한국경제 &amp; hankyung.com, 무단전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>김갑수 원장·이대열 교사·김부경 대표IoT·클라우드 컴퓨팅 교육 주제 등 강연이티에듀 홈페이지서 100명 선착순 접수'인공지능(AI) 시대 소프트웨어(SW) 교육은 어떻게 해야하나''교육현장에서 바라보는 미래교육은 어떠한가''SW강사는 어떻게 미래교육을 준비해야 하는가'초·중·고등학생 SW·AI교육 등 미래교육에 대한 혜안이 제시된다. SW교육 정책을 자문하는 학계 전문가부터 현장을 책임지는 현직 교사와 강사 대표, SW전문기자 출신 교육기업 대표가 참여해 각계각층에서 바라본 현장 문제점을 제기하고 해법을 논의한다. 초·중·고등학생 미래교육을 고민하는 교사와 강사, 학부모에게 나침반이 될 전망이다.'교육이 미래다' 주제로 열리는 SW토크콘서트는 대한민국교육박람회 부대행사로 19일 오후 1시 30분부터 4시까지 서울 코엑스 A홀(THEATRE B)에서 개최된다. 이티에듀와 대한민국교육박람회사무국이 주최하고, 전자신문이 후원한다. 토크콘서트는 초·중·고등학생 SW교육 정상화와 2025년 도입을 앞둔 AI교육 대응방안 논의를 위해 마련했다. 김갑수 서울교대 SW영재교육원장, 신혜권 이티에듀 대표, 이대열 예덕초 교사, 김부경 코딩스터디협동조합 대표가 강연한다.토크콘서트는 김 원장 강연으로 시작한다. 김 원장은 서울교대 컴퓨터교육과 교수로 SW영재교육원과 과학영재교육원을 총괄한다. 한국과학영재교육학회장도 맡고 있다. 한국정보과학연합회 공동회장, 한국정보교육학회장 등을 역임했다.김갑수 서울교대 SW영재교육원장김 원장은 'AI 교육시대 어떻게 가르쳐야 하는가 I-인공지능 시대 컴퓨팅 교육' 주제로 강연한다. 사물인터넷(IoT), 클라우드 컴퓨팅, 빅데이터 등 사물과 사람이 연결되는 새로운 패러다임 시대 컴퓨팅 사고력 교육이 무엇보다도 중요하다. 학생들 교육 방법과 내용도 컴퓨팅 사고력 통한 새로운 지식 창출에 초점이 맞춰야 한다고 강조할 예정이다.신혜권 이티에듀 대표는 '강사와 학생을 연결하는 껌이지(껌Easy)'를 소개한다. 신 대표는 전자신문 SW전문기자, SW융합산업부장을 역임하면서 SW교육 현장을 오랜 기간 취재했다. 껌이지는 SW교육이 가능한 강사 누구나 온라인 교육 프로그램 개설을 지원한다. SW교육을 원하는 학생과 연결하는 원격교육 플랫폼이다. 초·중·고등학생 SW교육은 물론, 대학생·성인 정보통신기술(ICT) 관련 다양한 원격교육 프로그램을 제공한다.이대열 예덕초 교사AI 교육시대 어떻게 가르쳐야 하는가 두 번째 강연으로 이 교사가 '현장에서 바라보는 모두의 미래 교육'에 대해 설명한다. 이 교사는 예덕초 SW 정보영재 교사로 SW선도학교와 AI선도학교를 운영했다. 공주교대 AI교육대학원에 재학 중이다. 2019년 한국코드페어 지도교사 부문 대상, SW·AI교육 관련 100여회 교원 강의 경험을 갖고 있다.이 교사는 15년간 현장에서 학생들과 함께한 SW·AI교육 경험 이야기를 들려준다. 코로나19 이후 변해가는 교육 현장과 교사 입장에서 바라보는 SW·AI 교육과 학생 중심적이고 창의적 사고를 갖도록 교육이 나아갈 방향도 소개한다.김부경 코딩스터디협동조합 대표마지막으로 'SW강사만 이렇게 공부하나요' 주제로 김 대표가 강연한다. 김 대표는 SW미래채움 초·중·고 SW교육을 운영한다. 오산교육청 AI교육 교사직무연수 강사로도 활동한다. 김 대표는 변화하는 미래교육에 맞춰 SW강사 방향을 제시한다. 블록코딩부터 피지컬 컴퓨팅, 텍스트 코딩, AI교육까지 강사가 어떻게 교육을 해야할지를 충고한다.지난해 개최된 대한민국 교육박람회 부대행사로 개최된 SW 토크콘서트 모습.토크콘서트를 준비한 이한규 이티에듀 전략사업본부장은 “AI 시대를 맞아 변화하는 미래교육 환경에서 교·강사와 학부모에게 인사이트를 제공하고자 토크콘서트를 마련했다”면서 “초·중·고 학생 교육에 많은 도움이 될 것”이라고 말했다. 대한민국교육박람회 SW교육 토크콘서트는 100명만 선착순 접수 받는다. 접수는 이티에듀 홈페이지에서 가능하다.이티에듀는 17~19일 대한민국교육박람회 기간동안 미래교육 부스도 운영한다. 부스에서는 AI교육뿐 아니라 AI를 활용한 바둑교육 등 다양한 교육 프로그램 체험이 가능하다. 원격교육 플랫폼 '껌이지' 정보 교·강사를 위한 교구몰 '마이클래스몰' 다양한 SW교육 프로그램, 국내 최초 SW사고력 경시대회 'SW사고력올림피아드(SWTO)' 등 다양한 서비스도 소개한다.오다인기자 ohdain@etnews.com▶ "2021 스마트 디지털 워크스페이스 이노베이션" 개최▶ "AI·DX SUMMIT KOREA 2021" 6월 24일 개최 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>비전공자도 기초 코딩부터핵심 실무까지 배울 수 있어'Pre-Bootcamp' 코스의 경우수강료에 교재·중식까지 지원IT 실무진들 취업 멘토링에모의면접 등 지원 프로그램도 그린컴퓨터아카데미·그린컴퓨터아트학원이 인문·사회계열 및 예체능계열 졸업(예정)자를 대상으로 SW(소프트웨어)개발자 핵심 실무 과정을 개설한다.본 과정은 이른바 정보기술(IT) 업계 취업준비생들이 입사하고 싶어하는 '네카라쿠배당토'(네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스)의 취업을 목적으로 IT 기본 소양부터 실무 역량까지 겸비한 인재 양성을 위한 프로그램이다.김상곤 그린컴퓨터아카데미 대표이사는 "IT 업계에서 개발자를 채용하는 수요가 폭발적으로 늘어나면서 이들 기업은 신입 초봉 6000만원, 평균 연봉 1억원, 1.5배의 연봉 인상 등 파격적인 대우를 제공하고 있다"고 전했다. 이어 "개발자가 되기 위해 교육을 받으려는 사람도 많고 취업을 하려는 사람도 많지만, 정작 IT 기업들은 기초가 튼튼한 인재를 구하기 어렵다고 한다"면서 "이는 전공보다 중요한 것이 자기만의 프로젝트를 수행한 경험이기 때문"이라고 설명했다.이 같은 사회적인 수요에 발맞춰 그린컴퓨터아카데미·그린컴퓨터아트학원은 사회공헌 프로그램의 일환으로 IT 비(非)전공자들이 SW 개발자 핵심 실무 교육을 통해 개발자로서의 꿈을 이루도록 본 과정을 만들었다고 했다.김 대표이사는 "본 프로그램은 기존 국비지원제도의 취약점인 IT 기본 소양과 기본 코딩 능력을 완벽하게 수행하기 위해 본 교육기관만의 Pre-Bootcamp 코스를 선행학습하고, 취업을 위한 프로젝트 중심으로 구성된 Intensive Course에 참여함으로써 IT 기업이 요구하는 인재 양성을 목표로 하고 있다"고 소개했다.특히 본 프로그램의 참여자가 무료로 학습할 수 있도록 Pre-Bootcamp 코스의 수강료와 교재, 중식 등 교육에 필요한 모든 비용을 그린컴퓨터아카데미·그린컴퓨터아트학원에서 전액 지원한다. Intensive Course 역시 기존 국비지원제도와 연계해 진행하기 때문에 과정 참여자는 수강료 무료 혜택과 훈련참여수당을 받을 수 있다.Intensive Course에는 오라클 기반 스프링(SPRING)프레임워크 자바(JAVA) 개발자 양성과정, 자바 웹개발자 양성과정, 자바&amp;스프링(Spring)프레임워크 개발자 양성과정, UI/UX디자인 웹퍼블리셔&amp;프런트엔드 개발자 양성과정, 자바&amp;파이선 활용 빅데이터 개발 디지털실무 양성과정, 플랫폼 구축을 위한 빅데이터 개발자 과정(자바&amp;파이선), 파이선 활용 빅데이터 분석 실무과정, AWS 클라우드 운영 및 파이선 개발자 양성과정, 인재양성 사물인터넷(IoT) 개발자 실무과정 등 다양한 과정(지점에 따라 상이)이 있다.아카데미 측은 "향후 본 프로그램 참여자는 IT 실무자들의 멘토링과 특강을 통해 실력을 높일 수 있고, 그린컴퓨터아카데미·그린컴퓨터아트학원과 산학협력된 대형 IT 개발사에 취업 지원 및 잡 매칭, 취업 오디션, 동행면접 등의 지원도 받을 수 있다"고 말했다. 이어 자체 스터디 그룹을 지원하는 것은 물론, 실습실 등도 지원해 최상의 교육환경을 제공한다는 게 아카데미 측 설명이다.특히 SW 개발자는 개발 역량을 갖췄다면 전공과 상관없이 누구나 도전할 수 있는 분야인 만큼 문과 역시 흥미가 있다면 관심을 가져볼 만하다. 아카데미 관계자는 "중식 1시간을 포함해 매일 6시간 이상씩 진행되는 교육이 쉽지 않겠지만, 무료로 진행되는 약 11개월의 교육과정을 통해 소프트웨어 전문가가 될 수 있다면 도전해 볼 가치가 충분할 것"이라고 말했다.현재 그린컴퓨터아카데미·그린컴퓨터아트학원은 서울, 부산, 인천, 대전, 대구 등 전국에 25개 지점을 보유하고 있으며, 본 프로그램은 서울 강남지점과 부산지점에서 우선 개설된다. 모집 기간은 5월 31일까지이며, 보다 자세한 내용과 궁금한 사항은 그린컴퓨터아카데미 홈페이지나 전화상담을 통해 확인하면 된다.[고민서 기자]▶ '경제 1위' 매일경제, 네이버에서 구독하세요▶ 이 제품은 '이렇게 만들죠' 영상으로 만나요▶ 부동산의 모든것 '매부리TV'가 펼칩니다[ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>폴리텍, 융합기술교육원 재학 중인 유학파 3명 사례 소개프로그래밍 실습 중인 정소영씨와 정현정씨(자리에 앉은 사람이 정현정씨)[폴리텍 제공]    (서울=연합뉴스) 이영재 기자 = 디지털 신기술 산업이 주목받으면서 정보기술(IT) 개발자를 양성하는 국내 직업교육 과정에 해외 유학파를 포함한 고학력자들이 몰리고 있다.    고용노동부 산하 직업교육기관인 한국폴리텍대학(폴리텍)은 3일 폴리텍 융합기술교육원에서 디지털 신기술 교육을 받는 해외 유학파 3명의 사례를 소개했다.    영국 뉴캐슬대에서 국제경영학을 전공한 정소영(28)씨는 지난 3월부터 폴리텍 분당 융합기술교육원 데이터융합SW과에 다니고 있다.    정씨는 스타트업기업의 온라인 플랫폼 기획 경험을 통해 프로그래밍 기술을 배우기로 하고 융합기술교육원에 입학했다.    정씨와 함께 데이터융합SW과에 입학한 정현정(25)씨는 중국 상하이재경대에서 국제경제학을 전공했다.    소프트웨어 개발자 지망생인 그는 "유학하면서 핀테크 앱과 인공지능(AI) 기술을 결합한 산업이 생활 전반에 자리 잡는 것을 봤다"며 "4차산업 시대에 IT가 핵심이라고 생각해 입학을 결심했다"고 말했다.    폴리텍 광명 융합기술교육원 데이터분석과에는 미국 로스앤젤레스 캘리포니아대(UCLA)에서 심리학과 통계학을 전공한 정해명(27)씨가 재학 중이다.    프로그래밍뿐 아니라 웹 코딩과 개발 등에도 능숙한 '풀 스택(full-stack) 데이터 엔지니어'가 되는 게 정씨의 목표다.    이들과 같은 인재들이 몰리면서 폴리텍 융합기술교육원 데이터융합SW과의 경우 입학 경쟁률이 4 대 1을 웃도는 등 인기를 끌고 있다. 데이터융합SW과 출신자의 최근 3년간 취업률은 90%를 넘는다.    재학생 중에는 '네카라쿠배'(네이버·카카오·라인·쿠팡·배달의민족)로 통하는 선두권 IT 업계 취업을 꿈꾸는 청년이 많다.    한편 폴리텍 분당 융합기술교육원은 지난달 27일 클라우드 서비스 기업인 메가존클라우드, 제니스앤컴퍼니와 클라우드 전문가 육성을 위한 산학 업무협약을 체결하고 관련 IT 개발자를 양성하는 교육 과정을 개설했다.    융합기술교육원은 오는 10일까지 이 과정에 참여할 교육생 22명을 모집한다. ljglory@yna.co.kr▶네이버에서도 뉴스는 연합뉴스[구독 클릭]▶[팩트체크] 공무원은 5인 이상 사적모임 허용?▶제보하기&lt;저작권자(c) 연합뉴스(https://www.yna.co.kr/), 무단 전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>(왼쪽부터) 김상윤 GS글로벌 상무, 김종갑 본투글로벌센터장, 박환수 한국SW산업협회 상무, 이기엽 요즈마코리아 부사장, 김태창 네이버클라우드 전무가 MOU를 맺고 기념촬영을 하는 모습. /사진제공=네이버클라우드국내 중소 소프트웨어(SW) 기업들이 SaaS(서비스형SW)로 글로벌 시장에 진출할 수 있도록 각 분야 전문기관들이 힘을 모은다.7일 네이버클라우드가 중소 SaaS기업 발굴과 글로벌 진출 지원을 위한 ‘SaaS N(Successful And Absolute SaaS in Ncloud)’ 프로그램을 발표했다. 프로그램의 지속적·체계적 운영을 위해 한국소프트웨어산업협회, 본투글로벌센터, 요즈마그룹코리아, GS글로벌 등 각 분야 전문기관과 업무협약(MOU)를 맺고 컨소시엄을 구성했다. ‘SaaS N’은 중소SW기업이 네이버클라우드 기반으로 성공적인 SaaS 기업으로 발돋움할 수 있도록 각 전문기관과 다각적 협업 모델을 구축한 파트너십 프로그램이다. 프로그램은 ▲기술 지원 ▲비즈니스 지원 ▲글로벌 판로개척 등 총 3단계에 걸쳐 지속적·체계적 지원을 엔드 투 엔드(End-to-End)로 제공하는 것을 목표로 한다. 프로그램 첫 단계인 기술 지원은 네이버클라우드와 한국SW산업협회가 맡는다. 네이버클라우드는 프로그램 전반 운영과 참여기업 발굴, SaaS를 서비스하기 위한 클라우드 기반 인프라 구축 교육·컨설팅을 담당한다. SW협회는 SaaS 애플리케이션 개발과 솔루션 전환에 필요한 교육과정을 맡는다. 완성된 SaaS 솔루션은 글로벌 진출을 고려한 비즈니스 지원으로 연결된다. 본투글로벌은 SaaS 현지화를 위해 제품 시장 적합성을 검증한다. 요즈마그룹코리아는 비즈니스모델 수익 최적화를 위한 전략 수립과 투자 연계 등 글로벌 역량 강화를 지원한다. GS글로벌은 글로벌 네트워크를 활용해 판로를 확장하고 해당 솔루션을 필요로 하는 고객을 매칭해 효율적인 서비스를 돕는다.  네이버클라우드는 ‘SaaS N’ 운영을 통해 다양한 산업군의 글로벌 SaaS 솔루션을 육성함으로써 신성장동력 창출과 함께 민관협력 기반 글로벌 상생 모델을 발굴할 것으로 기대한다.  김태창 네이버클라우드 사업총괄 전무는 “SaaS 글로벌 전문가, 해외 네트워크 전문가 등 각 영역의 내로라하는 기관과 유기적 협업으로 SaaS N의 체계적인 운영 프로세스를 마련했다”며 “이번 프로그램을 통해 국내 클라우드 기업의 동반성장을 도모하고 국내 SaaS 경쟁력을 강화할 수 있도록 노력하겠다”고 말했다.박환수 SW산업협회 상무는 “협회의 체계적인 클라우드 교육을 기반으로 국내 SaaS 기업의 역량향상을 지원하겠다”면서 “‘SaaS N’ 프로그램의 성공적인 추진을 위해 협회가 중추적인 역할을 수행할 것”이라고 밝혔다.김종갑 본투글로벌센터장은 “센터는 초기 시절부터 글로벌 진출을 지원해온 멤버사 센드버드를 통해 국내 SaaS 기업의 세계적 성공이 가능하다는 것을 입증했다”며 “‘SaaS N’ 컨소시엄 프로그램 론칭을 계기로 국내 SaaS 기업의 성장 모델을 마련해 차세대 SaaS 유니콘 기업을 배출해낼 수 있도록 최선을 다할 것”이라고 말했다.팽동현 기자 dhp@mt.co.kr▶뜨거운 증시, 오늘의 특징주는?  ▶여론확인 '머니S설문' ▶머니S, 네이버 메인에서 보세요 &lt;저작권자 ⓒ '성공을 꿈꾸는 사람들의 경제 뉴스' 머니S, 무단전재 및 재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>퓨전소프트, DGB데이터시스템 등 주요SW 선도기업 참여한 SW인력양성 협약대구디지털산업진흥원(DIP·원장 김유현)이 최근 현장중심 소프트웨어(SW) 인력양성을 위해 지역 SW기업인 퓨전소프트, DGB데이터시스템 등 4개사와 SW핵심인재 양성 및 채용을 위한 다자간 업무협약을 체결했다.DIP가 최근 지역주요 SW기업 4곳과 SW핵심인재 양성 및 채용을 위한 다자간 업무협약을 맺었다. 사진은 협약체결후 기념촬영한 모습. 왼쪽에서 4번째가 김유현 DIP 원장.이번 협약을 통해 지역 SW우수인재양성을 위한 협력체계를 강화하고, SW핵심인재 채용연계과정 운영으로 전문인력양성 및 안정적 신규인력을 제공해 지역기업의 인력부족문제 해소와 지역일자리 창출에 기여한다는 취지다.주요협력 분야는 교육관련 사업 진행 시 상호 자문 역할 및 교육콘텐츠 관련 양성교육 지원, 교육 프로그램 운영을 위한 상호 전용 교육공간 제공, 교육생 취업 협력 등 기업-기관 간 상호 성장과 발전을 위한 협력 확대 등이다.이와 관련해 DIP는 기술·능력에 초점을 맞추어 채용함으로 생기는 여러 문제점을 해소하기 위해 현장에 잘 적응할 수 있는 인재를 직접 육성하는 'SW 핵심인재 채용연계 과정' 교육생을 오는 16일까지 모집하고 있다.교육을 수료하면 협약 체결 기업 4개사에 채용이 약정돼 있다. 기업들은 교육생의 인·적성, 과제수행정도, 실력향상정도, 협력과제 등 다면적 평가지표를 통해 기업문화에 잘 적응하고 현재보다는 지속 성장가능성과 교육생이 지닌 미래가치 등을 중점으로 최종 선발할 예정이다.협약에 참여한 4개사는 이번 교육사업의 성공적 사업수행을 위해 상호 지원·협력해나가기로 했다. 또 기업 현업 담당자를 통한 멘토링(관심기업 매칭을 통한 기업 멘토 배정), 현장견학, 간담회, 실무형 프로젝트 실습 등 교육생에게 다양한 환경과 경험을 제공할 예정이다.김유현 DIP 원장은 “협약과 지원사업을 통해 지원체계를 강화하고, 기업에 우수한 인재를 공급해 기업의 지속 성장과 경쟁력을 지원, 지역발전에 기여하도록 하는 것이 목표”라고 밝혔다.한편, 협약에 참여한 퓨전소프트는 시스템 구축과 운영(공공정보화, 기업정보화), 교육정보화, 보안분야 선도기업이며 DGB데이터시스템은 시스템통합(금융전산 시스템개발), 전산시스템 통합운영 및 유지보수분야 기업이다.대구=정재훈기자 jhoon@etnews.com▶ "2021 스마트 디지털 워크스페이스 이노베이션" 개최▶ "AI·DX SUMMIT KOREA 2021" 6월 24일 개최 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		(지디넷코리아=남혁우  기자)한국소프트웨어산업협회(이하 협회, 대표 조준희)는 한국전력공사(이하 한전) ICT인력을 대상으로 소프트웨어(SW)‧신기술 특화 전문 교육(이하 특화 교육)을 실시한다고 3일 밝혔다.이번 교육은 지난 3월 협회와 한전이 실시했던 SW역량강화 및 전문인력 양성 MOU’의 후속 조치로 추진된다. 교육은 한전 ICT 재직근로자의 역량강화를 목적으로 하며, 회차당 20~30시간으로 구성되어 금년 10회 이상 실시될 예정이다.1회차 과정은 지난 28일 종로구 외부교육장에서 ‘IT프로젝트 발주 및 사업관리 과정’이라는 부제로 실시됐다. 한전 재직근로자의 사업수행에 필요한 역량강화를 위해 24시간 실시됐다. 구성은 ▲SDLC(소프트웨어 개발 생명 주기) 및 RFP작성 ▲공공SW사업 발주 ▲SW사업대가 산정 등이다.SW산업협회에서 한전 ICT인력을 대상으로 ‘SW‧신기술 특화 전문 교육’을 실시하고 있다(이미지=한국소프트웨어산업협회)교육에서 협회는 교육대상자에 대한 사전 수준진단 및 전문강사와 사전 협의를 통한 커리큘럼 구성으로 맞춤형 커리큘럼을 구성해 교육을 제공했다. 이론 뿐만 아니라, 실습 병행으로 교육생들의 동기부여 및 교육효과 향상에 많은 노력을 기울였다.아울러 교육생 사전진단, 입과 시 체온측정, 강의장 내 가림막 설치 등 코로나19 예방에도 만전을 기울였다.협회 서홍석 부회장은 “협회는 그 간 축적한 SW분야 교육 전문성을 기반으로 앞으로도 한전 및 계열사 ICT 인력의 SW 역량강화 및 전문인력 양성을 위해 적극 지원하고 확대해 나갈 것” 이라고 밝혔다.협회는 금년도 SW재직자 직무능력 향상 지원을 위해 SW직무 관련 31개 과정 및 4차 산업 신기술 관련 47개 과정을 운영 중으로, 과정 당 20명 이상 교육 수요가 있는 기업을 대상으로 기업방문 교육을 실시하고 있다.방문 교육은 중소기업의 경우 전액 무료이며 맞춤형 커리큘럼 구성 및 전문강사가 교육한다.남혁우 기자(firstblood@zdnet.co.kr) ▶ 지디넷코리아 '홈페이지' ▶ 네이버 채널 구독하기© 메가뉴스 &amp; ZDNET, A RED VENTURES COMPANY, 무단전재-재배포 금지</t>
   </si>
 </sst>
 </file>
@@ -504,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,13 +784,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -549,13 +801,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -566,13 +818,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -583,13 +835,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -600,13 +852,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -617,13 +869,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -631,16 +883,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -648,16 +900,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -665,16 +917,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -682,16 +934,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -699,16 +951,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -716,16 +968,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -733,16 +985,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -750,16 +1002,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -767,16 +1019,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -784,16 +1036,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -801,16 +1053,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -818,16 +1070,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -835,16 +1087,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -852,16 +1104,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -869,16 +1121,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -886,16 +1138,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -903,16 +1155,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -920,16 +1172,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -937,16 +1189,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -954,16 +1206,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -971,16 +1223,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -988,16 +1240,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1005,16 +1257,33 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1048,6 +1317,7 @@
     <hyperlink ref="B28" r:id="rId27"/>
     <hyperlink ref="B29" r:id="rId28"/>
     <hyperlink ref="B30" r:id="rId29"/>
+    <hyperlink ref="B31" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/crawling_data/1_5.xlsx
+++ b/crawling_data/1_5.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
-    <t>paths</t>
+    <t>path</t>
   </si>
   <si>
     <t>title</t>
@@ -25,7 +25,7 @@
     <t>date</t>
   </si>
   <si>
-    <t>contents</t>
+    <t>content</t>
   </si>
   <si>
     <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=003&amp;aid=0010498549</t>

--- a/crawling_data/1_5.xlsx
+++ b/crawling_data/1_5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="141">
   <si>
     <t>path</t>
   </si>
@@ -25,367 +25,418 @@
     <t>date</t>
   </si>
   <si>
+    <t>press</t>
+  </si>
+  <si>
     <t>content</t>
   </si>
   <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=003&amp;aid=0010498549</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=092&amp;aid=0002222122</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=002&amp;aid=0002188795</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=003&amp;aid=0010495347</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=001&amp;aid=0012383807</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=119&amp;aid=0002492561</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=417&amp;aid=0000693652</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=015&amp;aid=0004546086</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=001&amp;aid=0012384169</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=030&amp;aid=0002943672</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=421&amp;aid=0005345961</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=092&amp;aid=0002221830</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=011&amp;aid=0003909808</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=421&amp;aid=0005342640</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=008&amp;aid=0004585226</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010492161</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=030&amp;aid=0002943855</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=277&amp;aid=0004900951</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=469&amp;aid=0000603795</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=004&amp;oid=366&amp;aid=0000715268</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=629&amp;aid=0000080799</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=030&amp;aid=0002943237</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010491911</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=015&amp;aid=0004545171</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=030&amp;aid=0002943850</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=009&amp;aid=0004792597</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=001&amp;aid=0012369878</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=417&amp;aid=0000691032</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=030&amp;aid=0002943342</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=092&amp;aid=0002221013</t>
-  </si>
-  <si>
-    <t>'배민' 찾은 기재차관 "SW 인력, 기업 주도로 키울 것"</t>
-  </si>
-  <si>
-    <t>[이슈진단+] SW인력 가뭄 극심, 정부 정책 뭐가 있나</t>
-  </si>
-  <si>
-    <t>광주 북구, 3개 고교서 ‘AI·SW 창의융합 코딩교육’ 진행</t>
-  </si>
-  <si>
-    <t>생산성본부, 폴리텍·SW산업협회와 AI 인재 양성 협약</t>
-  </si>
-  <si>
-    <t>SBA, 16일까지 '싹' 주니어 SW개발자 채용 관심 기업 모집</t>
-  </si>
-  <si>
-    <t>이재용의 SW 인재 양성 의지 담긴 SSAFY 6기 모집...14일까지</t>
-  </si>
-  <si>
-    <t>국립부산과학관, 과학적 상상력 더하는  교육프로그램 개강</t>
-  </si>
-  <si>
-    <t>경북도, AI인재 키운다…농업인·고교생 교육</t>
-  </si>
-  <si>
-    <t>세종교육청 '가족이 함께하는 소프트웨어 교육체험' 운영</t>
-  </si>
-  <si>
-    <t>770억원 규모 나이스 SW 시장 열린다... 이달 응용SW 발주</t>
-  </si>
-  <si>
-    <t>이노베이션 아카데미 4기 250명 입교…"AI·SW 인재 양성 박차"</t>
-  </si>
-  <si>
-    <t>한국알테어, 교육기관에 데이터분석SW 무상 제공</t>
-  </si>
-  <si>
-    <t>생산성본부·폴리텍대학·SW산업협회, AI 기술인재 양성 업무협약</t>
-  </si>
-  <si>
-    <t>한국과학창의재단, SW·AI 수업 우수사례 공모전 개최</t>
-  </si>
-  <si>
-    <t>과학창의재단, SW·AI 수업 우수사례 공모전 열어</t>
-  </si>
-  <si>
-    <t>우송대, 빅데이터 분석 교육과정 운영 미국 업체와 협약</t>
-  </si>
-  <si>
-    <t>이티에듀·메카솔루션, 미래교육 콘텐츠와 물류서비스 강화 위해 '맞손'</t>
-  </si>
-  <si>
-    <t>동명대, 시니어 컴퓨터기초 무상 교육 … SW중심대학사업단·남구노인복지관 공동 시행</t>
-  </si>
-  <si>
-    <t>KT, 경북교육청과 초·중·고·특수학교에 무선망 구축</t>
-  </si>
-  <si>
-    <t>서울산업진흥원(SBA), 주니어 SW개발자 채용 기업 모집</t>
-  </si>
-  <si>
-    <t>KT·한양대, AI 실습교육 강화 협력 "국내 AI 인재 양성 박차"</t>
-  </si>
-  <si>
-    <t>[SW-플랫폼 동반성장]SW산업협회, SaaS 지원 강화로 산업 경쟁력 높인다</t>
-  </si>
-  <si>
-    <t>경남 미래교육지원플랫폼 '아이톡톡'에 빅데이터·AI 날개 단다</t>
-  </si>
-  <si>
-    <t>C3.ai, 글로벌 엔터프라이즈 인공지능(AI) SW의 대명사</t>
-  </si>
-  <si>
-    <t>'AI시대 미래교육 혜안을 듣는다'…19일 대한민국교육박람회 토크콘서트</t>
-  </si>
-  <si>
-    <t>[Edu News] 그린컴퓨터아카데미, 문과생 맞춤 IT개발 교육…'네카라쿠배당토' 취업 도전하세요</t>
-  </si>
-  <si>
-    <t>IT 개발자 꿈꾸는 유학파도 입학…폴리텍 교육과정 인기</t>
-  </si>
-  <si>
-    <t>네이버클라우드 타고 중소SW기업 글로벌 진출… ‘SaaS N’ 컨소시엄 출범</t>
-  </si>
-  <si>
-    <t>DIP, 퓨전소프트 등 SW기업 4곳과 SW핵심인재양성 업무협약</t>
-  </si>
-  <si>
-    <t>SW산업협회, 한국전력공사 SW 특화 전문 교육 실시</t>
-  </si>
-  <si>
-    <t>2021.05.14. 오전 11:30</t>
-  </si>
-  <si>
-    <t>2021.05.14. 오후 3:16</t>
-  </si>
-  <si>
-    <t>2021.05.13. 오후 1:18</t>
-  </si>
-  <si>
-    <t>2021.05.13. 오전 12:44</t>
-  </si>
-  <si>
-    <t>2021.05.10. 오후 3:00</t>
-  </si>
-  <si>
-    <t>2021.05.12. 오후 7:40</t>
-  </si>
-  <si>
-    <t>2021.05.14. 오전 11:11</t>
-  </si>
-  <si>
-    <t>2021.05.13. 오후 5:48</t>
-  </si>
-  <si>
-    <t>2021.05.10. 오후 4:12</t>
-  </si>
-  <si>
-    <t>2021.05.10. 오전 11:01</t>
-  </si>
-  <si>
-    <t>2021.05.12. 오후 1:00</t>
-  </si>
-  <si>
-    <t>2021.05.12. 오후 2:31</t>
-  </si>
-  <si>
-    <t>2021.05.13. 오후 2:21</t>
-  </si>
-  <si>
-    <t>2021.05.11. 오전 10:19</t>
-  </si>
-  <si>
-    <t>2021.05.10. 오후 6:40</t>
-  </si>
-  <si>
-    <t>2021.05.11. 오후 2:22</t>
-  </si>
-  <si>
-    <t>2021.05.11. 오전 9:03</t>
-  </si>
-  <si>
-    <t>2021.05.11. 오후 4:50</t>
-  </si>
-  <si>
-    <t>2021.05.12. 오후 4:25</t>
-  </si>
-  <si>
-    <t>2021.05.11. 오후 12:26</t>
-  </si>
-  <si>
-    <t>2021.05.03. 오전 9:17</t>
-  </si>
-  <si>
-    <t>2021.05.06. 오후 5:02</t>
-  </si>
-  <si>
-    <t>2021.05.11. 오후 12:59</t>
-  </si>
-  <si>
-    <t>2021.05.12. 오후 2:27</t>
-  </si>
-  <si>
-    <t>2021.05.11. 오전 9:01</t>
-  </si>
-  <si>
-    <t>2021.05.12. 오전 4:02</t>
-  </si>
-  <si>
-    <t>2021.05.03. 오후 12:00</t>
-  </si>
-  <si>
-    <t>2021.05.07. 오후 3:10</t>
-  </si>
-  <si>
-    <t>2021.05.07. 오후 12:53</t>
-  </si>
-  <si>
-    <t>2021.05.03. 오후 3:22</t>
-  </si>
-  <si>
-    <t>이억원 차관, K-디지털 트레이닝 현장 방문"자율성은 향상, '통제 중심 감독'은 최소화"[서울=뉴시스] 이억원 기획재정부 제1 차관. photo@newsis.com *재판매 및 DB 금지[세종=뉴시스] 김진욱 기자 = 이억원 기획재정부 제1 차관이 14일 "이달 말 발표 예정인 '소프트웨어(SW) 분야 인력 양성 추진 계획'에 기업 주도형 인력 양성 지원 방안을 담겠다"고 했다.이억원 차관은 이날 서울 송파구에 있는 우아한테크코스를 찾아 모두발언을 통해 이렇게 밝혔다. 우아한테크코스는 음식 배달 전문 애플리케이션 '배달의민족'을 운영하는 우아한형제들이 설립한 현장형 SW 인력 양성 기관이다. 한국판 뉴딜 핵심 과제 중 하나인 디지털 핵심 실무 인재 사업 'K-디지털 트레이닝'에 참여하고 있다.이억원 차관은 "디지털 전환, 신산업 등장 등 경제 구조가 변화하고, 코로나19로 디지털 수요가 커지는 가운데 새 인력을 육성하는 것은 국가적 과제"라면서 "우아한테크코스처럼 청년이 선호하는 기관이 프로젝트 중심의 교육 과정을 제공하고, 현장 맞춤형 SW 인재를 양성하는 모델이 더 확산할 필요가 있다"고 했다."K-디지털 트레이닝 지원 대상·기간을 확대할 계획이 있느냐"는 교육생의 문의에 이억원 차관은 "우수 인재가 계속 양성된다면 꾸준히 추진되는 사업이 될 것"이라고 했다. "지원 평가 체계를 취업률 등 성과에 맞춰 달라"는 우아한테크코스 교육 담당자에게는 "자율성을 높이고, 통제 중심의 지도·감독을 최소화하겠다"고 했다.이억원 차관은 교육 과정을 온라인으로 참관한 뒤 "청년 SW 인력 양성과 일자리 확충을 위해 정부가 지원할 수 있는 혁신 방안을 계속 검토할 것"이라면서 "올해 추경(추가경정예산)에서 확정된 디지털 인재 2만 명 추가 육성을 시작으로 오는 2025년까지 18만 명 목표가 달성되도록 적극적으로 지원하겠다"고 했다.이번 현장 방문은 지난 3월 마련된 청년 고용 활성화 대책 추진 상황 점검의 일환으로 마련됐다. 기업의 정보통신기술(ICT) 인재 구인난에 대응해 청년 SW 인력 양성을 위한 정부 지원 방안을 모색하고, K-디지털 트레이닝 진행 상황을 점검하기 위한 자리다.☞공감언론 뉴시스 str8fwd@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
-  </si>
-  <si>
-    <t>[코리아 ICT 정책 톺아보기 ⑤] 인재 양성 (상)(지디넷코리아=김우용 남혁우 임유경 김윤희  기자)모든 산업의 기반은 SW다. SW가 모든 산업의 성공과 실패를 좌우한다. 4차산업혁명의 시대, 디지털로 산업의 중심을 재편하는 디지털 트랜스포메이션 시대에 SW를 바로 세우지 못하면 미래를 확신할 수 없다. 그런 가운데 한국의 SW 경쟁력은 선두권 국가와 비교해 많이 뒤져 보인다. 어디서부터 잘못된 것일까. 이 같은 현실에서 본지는 정부의 ICT 정책을 집중 분석해 보는 '코리아 ICT 정책 톺아보기' 시리즈를 마련한다. 정부의 정책이 SW 산업의 경쟁력을 높이는 출발점이란 판단에서다. 2000년대 이후 정부의 ICT 정책 가운데 20개의 주요 SW 정책을 선정, 각 정책의 시행 배경과 목표, 성과를 분석해 보고 과제와 대안을 모색한다.[편집자주]디지털 전환의 시대를 맞아 SW 인력 가뭄이 극심하다. IT 선진국이라 할 미국에서도 개발자 품귀 현상이 거론될 정도다. 한국도 마찬가지다. 이른바 ‘네카라쿠배’라 꼽히는 21세기 한국의 인터넷 기업은 국내 개발자를 블랙홀처럼 빨아들이면서도 인력 부족을 호소하는 형편이다.IT인력을 양성해야 한다는 목소리는 일찌감치 나왔다. 정부도 그 목소리를 완전히 무시하지 않았다. 거의 매년 ‘X만 인력 양성’ 정책이 발표됐다. 주요 정책이 계획대로 실행됐다면 적어도 몇만명 이상 키워졌을 SW 인력은 지금 어디에 있기에 2021년 현재 개발자 가뭄 얘기를 들어야 하는지 반성해볼 시점이다.본지는 그간 정부의 SW 인재 양성 정책 가운데 여섯개를 선정해 검토했다. SW 인재를 키워내기 위해 취해지는 정책의 방향은 크게 세 갈래로 분류된다. 하나는 각 분야별 전문가를 키우는 엘리트 양성, 기업 인력 수요에 대응하는 교육기관 지원, 기존 인력의 역량을 높이거나 전환하는 보수교육 등이다.대학정보통신연구센터(ITRC), AI 전문대학원, SW 마에스트로 등의 정책은 엘리트 양성의 일환이다. SW 중심대학, SW 마이스터고등학교 등의 정책은 기업 IT인력 양성 차원에서 시행된다. 그리고 SW산업 기술 변화에 맞춰 재직자에게 재교육을 제공하는 여러 프로그램이 있다.현재 산업계에서 부족을 호소하는 개발자 인력은 기본적인 프로그래밍 소양을 갖추고, 일정 수준 이상의 IT 프로젝트에서 개발 실무를 수행할 초급에서 중급 사이의 인재다. 역량 피라미드의 허리 부분에서 빈약함을 드러내고 있는데, 정부의 SW 인력 정책이 허리층을 두텁게 하는데 성공했는지 가늠해봐야 한다. 고등학교, 대학교, 사설교육기관 등에서 배출되는 인력이 적지 않은데도 왜 기업에서 인력 부족을 이야기 하는지 공급과 수요 사이의 괴리를 2편의 기사에 걸쳐 검토해본다.출처=이미지투데이■ 대학정보통신연구센터(ITRC), 20년 간 IT고급인력 양성ITRC는 대학원에서 IT기반 핵심융합기술개발과 프로젝트 수행능력을 갖춘 석박사급 고급 IT인력을 양성할 수 있도록 지원하는 사업이다. 2000년부터 블록체인, 차세대통신, 인공지능(AI), 사물인터넷(IoT), 디지털트윈, 몰입형콘텐츠 등 ICT 산업현장 내 인력 수요가 높고, 기술 수준 제고가 시급한 분야를 정한 후 신청한 대학 중 선정해 진행해오고 있다. 신청학교는 ICT분야 대학원이 설치된 국내 대학으로 제한된다.이 사업은 창의적이고 능동적인 인재 양성을 목표로 한다. 학생 연구원이 원하는 연구를 진행하는 혁신도약형 연구가 필수 과제이며, 창업 친화적인 마인드 제고와 기술창업 등을 활성화하기 위해 기업가정신교육과 창업 아이디어 경진대회도 실시한다.실제 업무 현장에 필요한 능력 향상을 위해 지역 중소·중견기업 및 지자체 등과 공동연구 등 협력 프로그램도 마련된다.ITRC 사업은 20년간 43개 센터를 지원하며 1만6천여명의 인재를 양성하고, 국내외 특허등록 5천300여건, 기술이전 수입 480여억원 등 성과를 기록했다. 올해는 신규센터 8곳을 추가로 선정해 총예산 384억원을 지원한다. 지원기간은 최대 6년에서 8년으로 확대하고, 연간 지원금 최대 8억원으로 증액했다.ITRC 사업 성과(출처=과학기술정보통신부)카이스트 인공지능반도체시스템 연구센터 김주영 교수는 “인공지능, 반도체 등 전문적인 IT기술이 필요한 분야는 ITRC를 통해 효과를 보고 있다”며 “이러한 전문 기술을 발전시키기 위해선 보다 적극적인 투자가 필요하다”고 말했다.■ AI대학원 및 AI융합연구센터AI 대학원 지원사업은 석박사급 고급 AI 인재 양성을 목표로 추진된 사업이다. ICT분야 대학원이 설치된 국내 대학(원)에 AI 관련 석·박사 교육과정을 개설할 수 있도록 지원한다. 단일 대학에 투입하는 예산 규모도 파격적이다. 최대 10년간 사업 첫 해 10억원, 2년차부터 연간 20억원씩 총 190억원을 지원한다.사업 첫 해인 2019년 카이스트(KAIST), 고려대, 성균관대, 광주과기원(GIST), 포항공대(POSTECH)가 선정됐다. 지난해 연세대, 울산과학기술원(UNIST), 한양대가 추가됐고, 올해 서울대, 중앙대까지 선정되면서 총 10개 AI 대학원이 운영되게 됐다.지원사업에 선정된 AI 대학원은 AI핵심 이론 및 심화과정이 포함된 교육과정을 개설하고, 정원 40명 이상의 석박사 과정을 운영한다. 정부가 요구한 필수 요건에 더해 특화된 운영 계획안을 수립하고, 운영하고 있다. 예컨대 연세대는 AI 전임교원을 기존 8명에서 2024년까지 18명으로 확대했다. AI 학과 신설과 더불어 AI 데이터센터, AI 융합연구원 등을 설치해 전교생을 대상으로 AI 교육을 확산했다.정부는 AI 융합 인재 양성을 위한 AI 융합연구센터 지원 사업도 추진하고 있다.AI 융합연구센터 지원사업은 AI를 의료, 금융, 제조 분야 등 다양한 산업에 접목해, 해당 산업의 생산성과 경쟁력을 향상하기 위해 추진된다. 각 산업별 AI 분야 산학 협력이 활성화돼 있는 지역 거점 대학을 선정해 AI융합연구센터 설립 및 운영을 지원한다.AI융합연구센터로 선정된 대학은 1년차 11억원을 시작으로 2년차부터 15억원씩 총 3년간 41억원의 연구비를 지원받는다. 부산대, 인하대, 충남대, 한양대(에리카캠퍼스) 등 4개 대학에 AI융합연구센터 구축이 결정됐다.■”초·중등부터 SW 교육 시켜야”...17·34시간 의무화정부는 SW 인재 양성을 위해, 정규 교육과정에 SW 교육을 의무화하는 정책을 추진했다. 지난 2014년 발표된 'SW 중심사회 실현전략'에서 시작된 정책이다. 이후 2015년 발표한 'SW 중심사회를 위한 인재양성 추진계획'에서 SW 교육 필수화를 위한 실행 과제를 마련했다.이에 따라 초등학교는 2019년, 중학생은 2018년부터 SW 교육을 의무화했다. 수업 시수는 초등학교 17시간, 중학교 34시간이다.소프트웨어 교육을 받고 있는 초등학생들(출처=뉴스1)교사의 SW 교육 역량을 강화하는 직무교육도 실시됐다. 초등교사의 30%인 6만명을 대상으로 직무교육을 실시하고, 이 중 6천명은 SW 심화 연수를 실시했다. 중학교 '정보' 과목 교사와 '정보컴퓨터' 자격증 보유 교사 대상 심화연수도 추진했다. 정보 컴퓨터 교사의 경우 매년 늘려 2016년 기준 50명이던 교사 수를 2020년까지 500명까지 확보할 수 있도록 계획했다.물적 인프라도 확대 보급했다. 컴퓨터실 미확보 학교 172개교 중 69개교에 대해서는 2020년까지 컴퓨터실을 설치하고, 소규모 학교 등 103개교는 특별실 등 대체 시설에서 노트북이나 태블릿 PC 등을 활용해 SW 교육을 실시하기로 했다.■ SW 중심 대학 지원 제도SW 중심 대학 사업은 대학 내 SW 교육을 현장 수요에 맞춰 혁신하기 위한 정책이다. 이는 SW 의무 교육과 마찬가지로 'SW 중심사회 실현전략' 중 하나로 계획돼 지난 2015년부터 시행됐다.SW 중심 대학은 SW 전공자에 대해 프로젝트 실습과 인턴십을 필수화하고, 실전 영어교육과 글로벌 교육을 강화하게 했다. 비전공자에 대해서도 전공별 특성에 맞는 SW 기초 교육을 제공하도록 했다. 대학 당 최장 6년, 연간 최대 20억원의 예산이 지원됐다. 이후 정부는 매년 사업을 추진하면서 2019년까지 총 40개 SW 중심 대학을 선정했다.사업 6년째인 작년에는 대학을 추가 선정하는 대신, SW 중심 대학 사업 개편안을 마련했다. 개편안은 교육 내용 측면에서 AI, 빅데이터, 블록체인 등 신기술 분야 교육을 강화하는 내용을 담았다. 대학은 AI 전공 및 융합전공 표준 교육모델을 공동으로 개발, 보급하게 된다. 융합교육 지원을 위해 각 전공 계열별 차별화된 SW 교육 과목을 개설하고, 학부 학생의 대학원 교과목 수강 허용 및 졸업기간 단축 등 대학-대학원 간 연계성도 강화하는 등의 내용도 포함됐다구직구인 수요가 상호 충족될 수 있도록 산학협력 플랫폼도 만들기로 했다. 대학 공동 인턴십 매칭 플랫폼을 구축, 활용하고 기업의 기술 수요 및 문제 해결을 위한 공동 온라인 경연대회를 개최하게 된다. 그 외 산업체 전문가를 교원으로 임용할 수 있도록 비전일제 근무 시에도 인건비를 지급할 수 있도록 규정을 개정했다.사업 세부 요건에서 선정된 대학의 최장 지원 기간을 6년에서 8년으로 확대하고, 기존에 선정된 대학도 재선정 가능하도록 변경했다. 중소 규모 대학도 참여할 수 있도록 하는 '특화형 트랙'도 신설했다. 특화형 트랙은 SW 학과 100명 이상 입학 정원 확보, 대학원 SW 학과 운영 의무 등의 요건을 적용하지 않는 대신 지원 규모와 기간을 축소 적용한다.대학이 능동적으로 SW 교육 혁신을 실시할 수 있도록 SW 중심 대학 선정 및 평가 관련 필수 사항을 최소화하고, 자율제안 항목은 확대했다. 평가 체계 측면에선 달성 건수, 인원 수 등 양적 지표를 축소하고 대학의 성과 목표가 적정한지 검토하는 '성과목표검증위원회'를 구성, 운영하도록 해 질적 지표 중심의 평가가 이뤄지도록 개선하는 내용을 담았다.과기정통부는 올해 SW 중심 대학 2단계 사업을 추진해 일반 트랙으로 가천대, 경기대, 경북대, 성균관대, 순천향대, 전남대, 충남대를 선정했다. 특화형 트랙으로는 삼육대와 항공대를 선정했다.SW 중심 대학 사업을 통해 정부는 지금까지 SW전공인력 2만5천95명과 융합인력 1만5천642명을 배출했다고 밝혔다.■ 직원 재교육 통한 고급 인재 확보 지원정부는 SW산업 기술 변화에 맞춰 재직자의 재교육이 필요한 중소기업을 위한 지원 정책으로 중소기업형 계약학과를 시행 중이다.중소기업 계약학과는 중소기업 재직자를 대상으로 마련한 석사학위 교육과정이다. 중소기업 재직자 재교육을 통해 인공지능(AI)과 소재‧부품‧장비 분야 중소기업 전문인력을 양성하고, 재직자의 능력을 향상하기 위해 2010년 시행했다.중소기업 계약학과는 중소벤처기업부에서 선정한 주관 대학에 설치된다. 설치 과목은 AI·SW융합학과, AI기술경영학과, 의료인공지능 학과 등이다. 중소기업 직원이 재교육을 받기 위해선 중소기업에서 6개월 이상 재직해야 한다.주관대학은 학기당 학과운영비 3천500만원을 지급받는다. 학생의 경우 전문학사, 학사과정은 등록금의 85%, 석·박사과정은 65% 이내 지원한다.현재까지 49개 대학에서 67개 중소기업 계약학과를 운영하며, 1천716명의 학생이 교육받았다.■ 전문가 멘토링 통한 최고급 SW 인재 양성SW 마에스트로는 4차 산업혁명을 선도할 기술역량과 창의력을 갖춘 최고급 SW 인재를 양성을 목표로 한 정책이다.6개월간 진행되는 교육과정은 실무에 바로 투입할 수 있는 기술 기반 프로젝트로 진행된다. 이를 위해 SW 및 법률, 창업 등 산업 분야별 전문가가 멘토로 참여해 실무 기술과 노하우를 지도한다.시험을 통과해 선발된 연수생에게는 SW 교육을 비롯해 6개월간 장학금과 노트북 등 IT기기, 프로젝트 활동비 및 특허 컨설팅 비용 등이 제공된다. 참가자 중 우수자 15명에게는 과기정통부 장관이 수여하는 인증서와 5주간의 글로벌 SW교육 등 추가 지원된다.SW마에스트로 사업은 2010년 시작 이후 연수생 1천146명을 배출했다. 다양한 창업사례도 확보했다. 코인원, 스터디서치, 클래스101, 구름 등이 SW마에스트로 출신이 창업한 기업이다.하편에 계속...김우용 기자(yong2@zdnet.co.kr)남혁우 기자(firstblood@zdnet.co.kr)임유경 기자(lyk@zdnet.co.kr)김윤희 기자(kyh@zdnet.co.kr) ▶ 지디넷코리아 '홈페이지' ▶ 네이버 채널 구독하기© 메가뉴스 &amp; ZDNET, A RED VENTURES COMPANY, 무단전재-재배포 금지</t>
-  </si>
-  <si>
-    <t>코딩로봇 활용 체험형 학습 실시[김동언 기자(=광주)(kde3200@daum.net)]광주시 북구(구청장 문인)는 오는 7월까지 고등학생 대상으로 ‘인공지능(AI)･소프트웨어(SW) 창의융합 코딩교육’을 실시한다고 13일 밝혔다. 이번 교육은 인공지능, 소프트웨어 코딩 등 4차 산업시대에 맞는 인재를 육성하고자 마련됐다. ▲전대사대부고 2학년 학생들이 창의융합 코딩교육을 받고 있다ⓒ광주시 북구 북구는 조선대학교 SW중심대학사업단과 함께 금호고, 광주제일고, 전대사대부고 등 3개 학교 학생들을 대상으로 총 12회에 걸쳐 교육을 진행한다. 교육내용은 ▴AI･SW를 활용한 언플러그드 로봇코딩 ▴코딩로봇 활용 프로그래밍 체험 ▴머신러닝 모델 제작 및 구현 등 체험 위주의 프로그램으로 이뤄진다. 문인 북구청장은 “우리 지역에 2024년까지 인공지능 산업의 핵심 시설인 AI융복합단지가 들어설 예정”이라며 “4차 산업 인재 육성의 필요성이 높아진 만큼 앞으로도 지역의 우수한 자원을 활용한 교육 프로그램을 발굴･운영해 나가겠다”고 말했다.[김동언 기자(=광주)(kde3200@daum.net)]▶프레시안 CMS 정기후원▶네이버 프레시안 채널 구독 ▶프레시안 기사제보Copyrightsⓒ PRESSian.com 무단전재 및 재배포금지</t>
-  </si>
-  <si>
-    <t>[서울=뉴시스] KPC한국생산성본부, 한국폴리텍대학, SW산업협회는 12일 정부서울청사에서 AI기술(AI+x)인재 양성을 위한 업무협약식을 개최했다. 사진 왼쪽부터 조준희 소프트웨어협회 회장, 안완기 KPC 회장, 조재희 한국폴리텍대학 이사장.(사진=KPC한국생산성본부 제공) 2021.5.12 photo@newsis.com [서울=뉴시스] 박정규 기자 = KPC한국생산성본부는 12일 오전 정부서울청사에서 한국폴리텍대학, 한국소프트웨어산업협회와 함께 'AI기술(AI+x)인재 양성을 위한 업무협약'을 체결했다고 밝혔다.이들 3개 기관은 ▲디지털 뉴딜 실행을 위한 청년 일자리 발굴 ▲AI기술 분야 인재 양성 체계 구축 ▲생애주기별 AI기술 맞춤 교육 콘텐츠 개발 및 교육 체계 구축 ▲AI기업(중소·벤처기업 등)과 산학연 네트워크 및 취업 연계 시스템 구축을 위해 상호 협력하게 된다. KPC와 폴리텍은 맞춤형 교육 콘텐츠를 개발하고 온·오프라인 교육 컨설팅에 역량을 집중할 계획이다. SW산업협회는 고용 확대가 예상되는 산업현장에 필요 인력을 적시 공급하고 청년층이 조기에 노동시장에 진입할 수 있도록 지원한다.이날 협약식에 이어 3개 협약기관은 대통령 직속기구인 정책기획위원회와 함께 '한국판 뉴딜 추진 공동 선언 서약식'도 개최했다.서약식을 통해 이들 기관은 상호 연대와 협력, K-디지털 핵심 인재 양성, 산업 생태계 강화를 통해 디지털 경제 대전환 등 한국판 뉴딜 추진에 적극 동참하기로 결의했다.조대엽 정책기획위원회 위원장은 "한국판 뉴딜은 21세기 대한민국을 디지털경제, 그린생태계, 휴먼공동체로 전환시키고자 하는 종합적 국가혁신전략"이라며 "한국판 뉴딜은 무엇보다도 사회적 합의를 기반으로 하는 '정의로운 전환'이 돼야 한다"고 강조했다.안완기 KPC 회장은 "한국 경제와 산업 성장을 위해서는 속도감 있는 디지털 전환(DX)과 혁신을 이끌 디지털 인재 양성이 필요하다"며 "AI 기술 인재 양성을 위한 교육 체계 구축을 지원해 고부가가치 일자리 창출, 디지털 경제 대전환을 이끌어 나가겠다"고 밝혔다.☞공감언론 뉴시스 pjk76@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
-  </si>
-  <si>
-    <t>▲ 서울시와 중소기업 지원기관인 서울산업진흥원(SBA)은 오는 16일까지 소프트웨어(SW) 혁신인재 양성기관인 '싹'(SSAC)에서 배출한 주니어 SW개발자 채용에 관심 있는 기업을 싹 홈페이지를 통해 모집한다고 10일 밝혔다.    싹은 기업 현장 수요에 기반한 웹, 앱, 인공지능(AI), 빅데이터, 사물인터넷(IoT)·로봇 등 5개 분야에서 주니어개발자 수준의 SW개발자 양성을 목표로 하고 있다. 지난해 10월 말 1기를 시작으로 과정별 3∼6개월 교육을 통해 2기 11개 과정 약 200여명의 수료생을 배출한다.    금번 싹에서 배출되는 수료생들은 1, 2기 평균 11:1, 최고 36:1의 경쟁률 속에서 레벨테스트와 심층 면접을 통해 선발됐다. 이후 현업개발자 중심의 강사진으로부터 기본적인 기술 스택 습득과 동료 학습, 실전 프로젝트, 온·오프라인 멘토링·코칭 등 다양한 교육기법을 활용해 실전 역량을 쌓아 왔다.    과정 직후 학습효과로 볼 수 있는 수료생의 과정 시작 전과 수료 후 개발 역량에 대한 레벨 측정을 통해 주니어 개발자로서 역량을 지녔는지도 꼼꼼하게 살피는 등 체계적으로 과정을 운영해왔다.    싹 주니어 SW개발자 채용에 관심 있는 기업은 싹 공식 홈페이지를 통해 공개된 과정별 특징과 관련 수행 가능 개발직무, 기술 스택과 특화역량에 대한 정보를 확인 후 채용 관심 기업으로 등록하면 된다.     채용 관심 기업 등록은 2021년 중 상시로 진행된다.    등록된 정보는 싹 운영기관인 SBA에서 해당 분야 취업 활동을 준비 중인 주니어 SW개발자에게 제공하고, 주니어 SW개발자가 개별적으로 채용 과정에 응하는 방식으로 진행할 예정이다.    이광열 SBA 교육지원본부장은 "SW개발자 인력난이 심화하는 현 상황에서 싹을 통해 배출된 우수한 SW인재와 좋은 인재 채용을 원하는 기업 간 연결을 통해 이러한 어려움 해소에 도움이 됐으면 한다"고 말했다. (연합뉴스)▶네이버에서도 뉴스는 연합뉴스[구독 클릭]▶[팩트체크] 전기료 규제하면 해외투자자들이 소송?▶제보하기&lt;저작권자(c) 연합뉴스(https://www.yna.co.kr/), 무단 전재-재배포 금지&gt;</t>
-  </si>
-  <si>
-    <t>양질의 실무형 전문 교육 제공...청년 취업 지원 첨병 역할2년여만에 370여개 주요 기업에 수료생 1000명 넘게 취업JY의 인재 육성 지원 결실...국가 소프트파워 향상에 기여지난해 12월 23일 서울 멀티캠퍼스 교육센터에서 온라인 생중계 방식으로 '삼성청년SW아카데미' 3기 수료식이 열리고 있다.ⓒ삼성전자실전형 소프트웨어(SW) 인재 양성을 위한 ‘삼성청년SW아카데미(SSAFY·Samsung Software Academy For Youth)’가 오는 14일까지 6기 교육생을 모집한다.SSAFY는 이재용 삼성전자 부회장의 SW 인재 양성 의지가 담긴 요람으로 양질의 실무형 전문적 교육을 제공해 청년 취업 지원 첨병 역할을 해왔다.12일 삼성전자에 따르면 지난 3일부터 모집을 시작한 삼성청년SW아카데미 6기는 14일까지 접수를 받는다. 6기는 900명이 선발돼 오는 7월부터 1년간의 교육에 들어간다.이 교육 과정은 청년들의 SW 역량과 취업 경쟁력 강화를 목표로 양질의 소프트웨어 교육과 취업 지원 서비스를 제공하는 기업의 사회적책임(CSR) 프로그램이다. 삼성전자가 주관하고 고용노동부가 후원한다.SSAFY는 만 29세 이하 4년제 대학 졸업자 및 졸업예정자를 대상으로 SW 교육 기회를 제공하는 SW 개발자 육성 프로그램으로 미취업자라면 전공과 상관없이 지원할 수 있다. 모든 교육 과정은 무상으로 교육생 전원은 매달 100만원의 교육 지원비도 지급받는다.SSAFY 교육 과정은 총 1년 동안 진행된다. 1년간 매일 8시간씩 총 1600시간의 집중적인 교육과 교육생간 협업 프로젝트 등을 통해 빠른 시간 내 기업에 즉각 투입될 수 있는 역량을 갖춘 SW 개발자를 양성하는 과정을 운영하고 있다.교육은 1·2학기 과정으로 구성된다. 1학기에는 알고리즘 기반의 몰입형 코딩 교육으로 SW 기본기를 다지고 2학기에는 프로젝트 기반의 자기 주도형 학습을 통해 실전형 SW 개발자로서 역량을 쌓는다.특히 2학기에 진행되는 기업연계형 프로젝트는 기업의 실무 환경과 동일한 개발 방식을 활용해 실전형 개발자를 양성하는 심화교육으로 진행되는데 이를 통해 실무에 대한 이해도를 한층 더 높일 수 있게 돕는다.아울러 기업들과 연계한 산학 프로그램을 통해 풍부한 현장 경험을 쌓을 수 있는 기회도 제공한다.현재 4기와 5기 교육생들이 1년간의 교육 과정을 밟고 있다. 7월부터는 기존 서울·대전·광주·구미 외에 부산·울산·경남 교육생들을 위해 부산에도 SSAFY 캠퍼스를 열 예정이다.삼성 청년SW아카데미 광주캠퍼스 교육생들이 함께 협업 프로젝트를 진행하고 있다.(자료사진)ⓒ삼성전자◆ 총수가 관심 기울인 청년 SW 인재 양성...국가 소프트파워 향상에 기여삼성청년SW아카데미는 청년들에게 양질의 SW 교육을 제공함으로써 4차 산업혁명을 맞아 높아지고 있는 기업의 SW 인재에 대한 요구와 청년의 취업 기회를 매칭시켜 청년실업 해소에 기여하고 있다.이를 입증하듯 이 프로그램을 수료한 청년 인재들은 대기업과 금융권 등 다양한 분야로 진출하고 있다.지난 2018년 12월부터 시작한 '삼성청년SW아카데미'는 3기까지 1623명이 수료했고 이 중 1009명이 취업해 62%의 취업률을 보였다. 올 7월에 입과해 내년 6월 수료 예정인 4기 500명 가운데서도 이미 91명이 교육 6개월여 만에 조기 취업에 성공했다.이들은 삼성전자를 비롯해 LG CNS, 카카오, 신세계아이앤씨, SK주식회사 C&amp;C, 롯데정보통신, 네이버 등 IT 기업에 취업했다. 또 현대자동차·NH농협은행·신한은행·현대카드 등 다양한 대기업과 금융권에도 입사하는 등 이들이 취업한 기업의 수는 370여개에 달한다.특히 취업에 성공한 교육생 중 31%는 SW 비전공자로 '삼성청년SW아카데미'를 통해 새로운 꿈을 찾게 됐다.또 신한은행·신세계아이앤씨·다날·인바디 등을 비롯한 60여개 기업에서는 ▲서류심사 면제 ▲코딩테스트 면제 ▲'삼성청년SW아카데미' 전용 채용 등 다양한 방식으로 채용시 교육생들을 우대하고 있다.수료생들을 채용한 기업 담당자들도 실무형 프로젝트를 경험했기 때문에 현장에 바로 투입 가능하고 협업하기 좋은 동료로 평가받고 있다고 만족감을 나타내고 있다.이 때문에 ‘삼성 청년 소프트웨어 아카데미(SSAFY)’는 단순히 기업을 넘어 국가적인 SW 경쟁력 향상에도 기여하고 있다는 평가를 받고 있는데 이같은 성과는 총수인 이재용 부회장의 높은 관심도 작용하고 있다.이 부회장은 평소 SW 경쟁력 강화, 그 중에서도 청년 SW 인재 육성에 강한 의지를 보여왔고 삼성 청년 소프트웨어 아카데미는 이러한 의지를 바탕으로 탄생했다. 그는 지난 2019년 8월에는 '삼성청년SW아카데미' 광주캠퍼스를 방문해 SW 운영 현황을 점검하고 교육생들을 격려하는 등 각별한 관심을 보여왔다.비단 삼성뿐만 아니라 국가적으로도 반도체·디스플레이·스마트폰·가전 등 강력한 제조업 기반의 하드웨어(HW)에 비해 상대적으로 경쟁력이 떨어진다는 평가를 받고 있는 SW 경쟁력 향상 없이는 기업뿐만 아니라 국가도 치열한 글로벌 경쟁에서 뒤처질 수 밖에 없다는 그의 평소 지론이 삼성청년SW아카데미를 통한 국가 소프트파워 향상 기여로 이어지고 있다.이재용 삼성전자 부회장이 지난 2019년 8월 20일 광주 사업장 내 삼성 청년 소프트웨어 아카데미(SSAFY) 교육센터를 방문해 교육생들을 격려하고 있다.(자료사진)ⓒ삼성전자데일리안 이홍석 기자 (redstone@dailian.co.kr)▶ 데일리안 네이버 구독하기★ 구독만 해도 스타벅스쿠폰이 쏟아진다!▶ 제보하기ⓒ (주)데일리안 - 무단전재, 변형, 무단배포 금지</t>
-  </si>
-  <si>
-    <t>지난 봄학기 개인교육 프로그램 및 성인교육 프로그램에 참여한 수강생/사진=국립부산과학관 국립부산과학관(관장 김영환)이 오는 22일부터 6월27일까지 유아 및 청소년 대상 ‘봄학기 교육프로그램’과 성인 대상 ‘과학 아뜰리에’를 개강한다. ‘봄학기 교육프로그램’은 유아과학교실, 창의탐구교실, SW코딩교실, 창작메이커교실, 주제탐구교실 등 5개 분야 77개 프로그램으로 대면 및 원격으로 운영된다. 교육은 재밌는 실험 위주로 수학과 과학의 원리를 체험하며 이해할 수 있는 커리큘럼으로 구성되어 있다. 수업은 학년별로 나눠 진행되며 교육기간은 주제별로 1일부터 6주 과정까지 상이하다. 지난 학기에 전국 단위로 신청자가 몰리며 인기를 끌었던 원격 교육도 대폭 확대한다. 전체 77개 중 60개 프로그램이 집에서도 수강할 수 있게 됐다. 또한, 이번 교육에는 ‘마이크로비트 글로벌 챌린지’가 신설됐다. 초소형 컴퓨터인 마이크로비트를 활용해 UN의 지속가능발전목표(SDGs)를 주제로 창의력을 펼칠 수 있다. 수강생들은 영국 BBC 마이크로비트 교육재단이 주관하는 ‘마이크로비트 글로벌 챌린지 2021’ 아시아 예선에 참가하게 된다. 수강 신청은 국립부산과학관 누리집(홈페이지)을 통해 가능하며 3주 이상 연속과정 수강생 중 80% 이상 출석한 수강생에게는 수료증을 수여한다. 국립부산과학관은 성인을 대상으로 하는 공방 체험 교육 ‘과학 아뜰리에’도 개최한다. 5월22일에는 가정의 달을 맞아 꽃을 활용한 플라워 아뜰리에를 개최하고 6월19일에는 반려견 행동교정전문가와 함께 반려견 전용 수제비누 등을 만드는 반려견 아뜰리에를 개최한다. 국립부산과학관 김영환 관장은 “대형 교구 사용, 유아 실험 등 대면이 꼭 필요한 수업 외에는 온라인으로 진행할 수 있도록 원격교육을 확대했다”며 “청소년뿐만 아니라 성인 교육까지 전 생애주기 과학콘텐츠를 지속적으로 선보이겠다”고 말했다.부산=김동기 기자 moneys3927@mt.co.kr▶뜨거운 증시, 오늘의 특징주는?  ▶여론확인 '머니S설문' ▶머니S, 네이버 메인에서 보세요 &lt;저작권자 ⓒ '성공을 꿈꾸는 사람들의 경제 뉴스' 머니S, 무단전재 및 재배포 금지&gt;</t>
-  </si>
-  <si>
-    <t>도내 15개 고교 등 730명 대상경상북도는 올해 농업인, 고교생, 인문대생 730여 명을 대상으로 인공지능(AI)을 활용한 경쟁력 강화 사업을 추진한다고 13일 발표했다.이를 위해 학업, 취업, 농업 분야의 온·오프라인 교육 플랫폼을 구축한다. 최근 초·중학교에는 소프트웨어(SW) 교육이 필수 과정으로 도입됐지만 고교는 AI 교육을 체계적으로 받을 기회가 적다. 경북 도내 15개 고교, 450명을 대상으로 총 30회 수업을 진행해 학생의 ‘AI 두뇌지수’를 끌어올릴 계획이다.상대적으로 취업이 어려운 인문계열 전공 도내 대학생과 취업준비생 180명을 위한 교육도 마련했다. AI, 빅데이터 실무기술을 활용한 취·창업 연계 프로그램으로 6개 클래스에서 총 24회 교육한다.농업 분야에서는 농·특산물 유통채널 관리운영자 100명에게 3개 권역별(포항, 안동, 경산)로 총 6회에 걸쳐 이론과 실습을 병행한 교육을 추진한다.이철우 경북지사는 “그동안 AI를 개발·구현할 수 있는 석·박사 인력 등 고급 역량을 중점적으로 키워 왔지만 이제는 데이터 기반의 AI 기술을 실생활 전반에 활용할 수 있는 기초 역량을 높일 시점”이라며 “AI 교육이 취약한 계층을 위해 교육 사업을 마련했다”고 말했다.대구=오경묵 기자 okmook@hankyung.com▶ 경제지 네이버 구독 첫 400만, 한국경제 받아보세요▶ 한경 고품격 뉴스레터, 원클릭으로 구독하세요▶ 한국경제신문과 WSJ, 모바일한경으로 보세요 ⓒ 한국경제 &amp; hankyung.com, 무단전재 및 재배포 금지</t>
-  </si>
-  <si>
-    <t>가족이 함께하는 SW 교육체험 프로그램[세종교육청 제공. 재판매 및 DB 금지](세종=연합뉴스) 조성민 기자 = 세종시교육청교육원은 오는 9월 말까지 '가족이 함께하는 소프트웨어(SW) 교육 체험' 프로그램을 운영한다고 10일 밝혔다.     초등 4∼6학년 학생과 보호자가 팀을 이뤄 인공지능의 개념과 활용사례를 알아보고, 햄스터봇으로 미션 등을 수행하며, 드론 비행법 등을 배운다.    이 프로그램은 4차 산업혁명 시대를 대비해 학생들이 자신의 흥미를 발견하고 진로를 탐색하는 다양한 체험 기회를 제공하려고 마련됐다.    교육에 참여한 한 학부모는 "아이가 SW 교구를 활용하며 재미있어하는 모습을 볼 수 있어 좋았고, 함께 교육을 받아보니 SW 교육에 대해 더욱 관심을 두게 됐다"고 말했다.    강양희 세종교육청교육원장은 "학생과 학부모들이 함께 체험하며 SW 교육에 친근하게 다가가는 계기가 되길 바란다"고 기대했다.    프로그램 참여를 원하는 학생·보호자는 교육원 SW 교육 체험센터 누리집(edu.sje.go.kr/sw)을 통해 신청하면 된다. min365@yna.co.kr▶네이버에서도 뉴스는 연합뉴스[구독 클릭]▶[팩트체크] 전기료 규제하면 해외투자자들이 소송?▶제보하기&lt;저작권자(c) 연합뉴스(https://www.yna.co.kr/), 무단 전재-재배포 금지&gt;</t>
-  </si>
-  <si>
-    <t>빅데이터·RPA·AI 도입으로 교사 업무 경감초중고에 이어 유치원 행정까지 지원고교학점제, 과정중심평가 등 교육정책 구현에도 대응2000억원 규모 하드웨어는 하반기 발주나이스 서비스 지원 체계. 출처=한국교육학술정보원이르면 이달 말 정부가 770억원 규모의 4세대 교육행정정보시스템(나이스) 응용 소프트웨어(SW) 개발 사업을 발주한다. 빅데이터·RPA·AI 기술 등을 이용해 교사 행정업무를 경감하고 고교학점제에 대응해 정보자원을 효율화할 수 있는 지능형클라우드를 도입한다. 4세대부터는 초중고는 물론 유치원까지 행정서비스 대상으로 포함하고 있어 교육 분야 역대 최대 규모 SW 개발이 될 전망이다.10일 교육부에 따르면 한국교육학술정보원(KERIS)은 응용SW 개발 본사업이라고 할 수 있는 2단계 사업을 조만간 발주한다. 조달청 프로세스에 따라 이르면 이달 중하순, 늦어도 다음 달 입찰공고를 낼 예정이다.나이스는 학생 출결·성적 등 교육관련 행정을 처리하는 시스템이다. 당초 2022년 개통을 목표로 지난해 발주를 마무리했어야 했으나 대기업참여제한 예외 추진과 원격수업에 의한 새로운 교육환경 반영을 이유로 한 해 미뤘다. 대기업 참여제한 예외 불인정 후 지난해 말 프로젝트관리(PMO)사업과 원격수업 지원을 위한 응용SW 개발사업 일부를 발주하며 본격적으로 시작됐다.이번에 나오는 발주는 나이스 사업의 본사업이라고 할 수 있는 응용SW 개발사업이다. SW개발만 770억원 규모다. 대기업참여제한으로 중소·중견 IT 기업에 열린 시장이다. 하드웨어는 약 2000억원 규모가 될 예정이다. 하반기 별도 발주한다.나이스는 한 번 구축하면 7~10년을 운영해야 하는 만큼 최첨단 기술은 물론 미래 교육 환경까지 반영해야 한다. 교사들의 일반행정, 교무행정, 학사행정까지 모두 다루는 시스템인데다 학생들의 성적 등 민감정보를 담고 있어 고도의 안정성과 보안을 요구한다.4세대 지능형 나이스는 교직원 업무 경감을 위해 빅데이터나 로봇프로세스자동화(RPA) 등 다양한 기술을 적용한다. 일정하게 반복되는 업무는 자동화 처리하고 각종 증명서 발급이나 원서 접수를 위한 서류는 온라인 제출하도록 해 이용자 편의도 향상한다. 학생이 수업활동과 성과를 관리할 수 있도록 PC와 다양한 모바일 기기를 활용하는 교수학습 기반도 마련한다. 학생·학부모가 교육과정에 참여할 수 있도록 학부모와 교사 간 소통 창구를 제공한다. 현재 초중고 업무를 지원 중이지만 4세대부터는 유치원 주요 교무학사·행정 업무도 전자화해 지원한다.미래교육 정책 방향에 맞게 고교학점제, 과정중심 평가도 반영한다. 고교학점제에 대응해 수강신청 등 특정시기 사용자 접속 폭증으로 시스템 오류가 일어나지 않도록 정보자원도 효율화한다. 인공지능(AI) 기반 자원 최적 관리, 자동 장애 복구 및 이상 징후 분석까지 가능한 지능형 무중단 서비스도 4세대 나이스에 반영할 예정이다.이소영 교육부 교육정보화과장은 “초중고에서 유치원까지 범위가 넓어지고 서비스도 중분류 기준 46개에서 64개로 늘어나는 등 기존 나이스와 비교해도 최대 복잡도의 SW 개발 사업”이라면서 “하드웨어 사업을 별도로 발주해 충분한 안정성 검증 시기를 거친 후 2023년 오픈할 것”이라고 설명했다.문보경기자 okmun@etnews.com▶ "2021 스마트 디지털 워크스페이스 이노베이션" 개최▶ "AI·DX SUMMIT KOREA 2021" 6월 24일 개최 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
-  </si>
-  <si>
-    <t>과기부·서울시 협력한 SW 인재양성 요람1기 교육생 "인문대 출신으로 크래프톤 입사"소프트웨어(SW) 인재 양성 기관인 이노베이션 아카데미가 4기 교육생 250명을 선발해 12일 입교식을 개최하고 본교육 과정을 시작한다고 이날 밝혔다. 이노베이션 아카데미 개소식(과기정통부 제공) © 뉴스1(서울=뉴스1) 김정현 기자 = 소프트웨어(SW) 인재 양성 기관인 이노베이션 아카데미가 4기 교육생 250명을 선발해 12일 입교식을 개최하고 본교육 과정을 시작한다고 이날 밝혔다.이노베이션 아카데미는 디지털 시대의 핵심이 되는 SW 인재 양성을 위해 과학기술정보통신부와 서울시가 협력해 지난 2019년 12월 설립한 기관이다. 이날 열린 입교식에서는 이노베이션 아카데미의 교육 방식에 대해 이해를 높이고, 새롭게 선발된 4기 교육생을 격려하기 위해 선배 교육생과의 '토크콘서트'도 마련됐다.토크콘서트에 참석한 한 1기 교육생은 "인문대 출신으로 이노베이션 아카데미에서 10개월간 교육을 받고 크래프톤에서 인턴으로 근무한 후 채용되어 근무 중"이라며 "이노베이션 아카데미에서 누구의 도움 없이 스스로 프로젝트를 수행하면서 현업에서도 통할 수 있다는 자신감을 갖게됐다"고 말했다.실제로 이노베이션 아카데미는 실제 현장과 유사한 문제해결 방식의 교육을 통해 곧바로 실무에 업무에 투입할 수 있는 수준의 인재 양성을 목표로 운영 중이다. 1기 교육생의 경우, 2년 교육 과정에 참여한지 1년 만에 26명이 국내 주요 SW기업 및 스타트업 등의 취업에 성공하기도 했다.현재 이노베이션 아카데미는 해외 22개국에서 도입한 글로벌 소프트웨어 교육 프로그램인 프랑스의 '에꼴42' 과정을 도입해 운영 중이다. 수업·강의 등 기존의 교육 방식을 벗어나 자기주도 적인 프로젝트 수행과 동료간 상호 학습 등을 통해 인재를 양성하는 2년 과정의 비학위 교육 프로그램이다.지난해 1·2·3기 850명을 선발한데 이어 올해는 Δ4기 250명(5월) Δ5기 250명(11월) 등 매년 500명의 교육생을 선발·배출해 SW 인재양성을 본격화한다는 방침이다.김정삼 과기정통부 소프트웨어정책관은 "디지털 전환, 비대면 경제 가속화 등으로 소프트웨어 인재 수요가 빠르게 증가하고 있다"며 "혁신적인 소프트웨어 교육을 실시하는 이노베이션 아카데미 등 한국판 뉴딜의 'AI·SW 10만 인재 양성'을 통해 기업이 필요로 하는 SW 인재 양성을 지속·강화하겠다"고 말했다.Kris@news1.kr▶ 네이버 메인에서 [뉴스1] 구독하기!▶  뉴스1&amp;BBC 한글 뉴스 ▶ 뉴스1 미래포럼 2021 © 뉴스1코리아(news1.kr), 무단 전재 및 재배포 금지</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		(지디넷코리아=김우용  기자)한국알테어는 데이터 분석 솔루션을 전국의 대학 교수 및 학생에게 무상으로 제공하는 프로모션을 시행한다고 12일 밝혔다.지원 제품은 데이터 분석 전과정에서 사용할 수 있는 ▲데이터 전처리 솔루션 '모나크' ▲데이터 예측 분석 및 머신러닝 최적화 솔루션 '날리지 스튜디오' ▲데이터 시각화 솔루션 '판옵티콘' 등 3개 제품이다. 전 제품이 로우코드 기반이므로 코딩에 익숙하지 않은 초보자도 쉽게 사용할 수 있다. 교육용 제품의 경우 3개 제품 모두 사용할 경우 1년 구독 기준 약 4백만 원이다.알테어 로고알테어는 데이터 분석 소프트웨어를 처음 사용하는 학생을 위해 초보자의 눈높이에 맞춘 사용자 매뉴얼과 기초 사용법 영상을 함께 제공한다. 이해하기 쉬운 데이터들을 추려 바로 적용해볼 수 있는 샘플 데이터를 만들어 학생들이 직접 실습하면서 기능을 익힐 수 있도록 했다.무상 라이선스 지원과 연계해 24일부터 28일까지 5일간 데이터 분석을 주제로 하는 알테어 스쿨 캠프를 온라인으로 개최한다. 상명대학교 지능·데이터융합학부 교수진을 초빙해 데이터 분석에 대한 이론 교육부터 제품을 직접 사용해보는 실습시간까지 갖는다. 해당 강의는 알테어 데이터 애널리틱스 유튜브 채널에서 실시간으로 진행한다.문성수 한국알테어 대표이사는 “다양한 산업 분야에서 경쟁력을 좌우할 핵심으로 데이터 활용 능력을 강조하고 있다”며 “학생들이 데이터 분석 툴을 직접 사용해보면서 데이터 기반으로 문제를 해결하는 역량을 키울 수 있도록 지원할 것”이라고 밝혔다.해당 라이선스는 올해 12월 31일까지 알테어 스토어에서 신청할 수 있다. 수업용 라이선스 신청은 한국알테어 마케팅팀으로 문의하면 된다.김우용 기자(yong2@zdnet.co.kr) ▶ 지디넷코리아 '홈페이지' ▶ 네이버 채널 구독하기© 메가뉴스 &amp; ZDNET, A RED VENTURES COMPANY, 무단전재-재배포 금지</t>
-  </si>
-  <si>
-    <t>AI 기술 교육 및 노동시장 진출 지원[서울경제] 한국생산성본부는 지난 12일 정부서울청사에서 한국폴리텍대학, 한국소프트웨어(SW)산업협회와 ‘인공지능(AI)기술인재 양성을 위한 업무협약’을 맺었다고 13일 밝혔다.3개 협약기관은 △디지털 뉴딜 실행을 위한 청년 일자리 발굴 △AI기술 분야 인재 양성 체계 구축 △생애주기별 AI기술 맞춤교육 콘텐츠 개발 및 교육 체계 구축 △AI기업과 산·학·연 네트워크 및 취업 연계 시스템 구축을 위해 상호 협력한다.생산성본부와 폴리텍대학은 맞춤형 교육 콘텐츠를 개발하고, 온·오프라인 교육 컨설팅에 역량을 집중할 계획이다. SW산업협회는 고용 확대가 예상되는 산업현장에 필요 인력을 적시 공급하고, 청년층이 조기에 노동시장에 진입할 수 있도록 지원한다.안완기 생산성본부 회장은 “한국 경제와 산업 성장을 위해서는 속도감 있는 디지털 전환(DX)과 혁신을 이끌 디지털 인재 양성이 필요하다”며 “생산성본부는 디지털 전환, 스마트화 지원 등을 위한 기관으로 고부가가치 일자리 창출하고 디지털 경제 대전환을 이끌어 나가겠다”고 강조했다./김정욱 기자 mykj@sedaily.com▶ [지구용] 투명해진 맥주병, 그런데 말입니다...▶ 서울경제 더 폴리틱스 뉴스를 만나보세요!▶ 미슐랭 가이드처럼 알찬 부동산 뉴스 '집슐랭'저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
-  </si>
-  <si>
-    <t>/ News1(서울=뉴스1) 김승준 기자 = 과학기술정보통신부와 한국과학창의재단은 초·중등학교 현장 소프트웨어(SW)·인공지능(AI)교육 활성화를 위해 25일까지 '제3회 SW·AI수업 우수사례 공모전'접수를 진행한다고 11일 밝혔다.공모전은 우수사례를 발굴·확산하여 SW·AI교육 수업 내실화와 학교 현장의 교수·학습활동에의 실질적인 변화를 유도하기 위한 취지로 마련됐다. 공모는 'SW·AI교과 수업 개선'과 'SW·AI융합 수업 설계'의 2개 부문으로 나뉘어 진행된다. 각 부문은 SW·AI교과 기반 교육과정 재구성 또는 다양한 교과를 융합한 SW교육 또는 AI교육 수업 설계 사례를 내용으로 하며, 전국 초·중·고등학교 교사를 대상으로 진행된다.심사를 거쳐 선정된 우수사례에는 과학기술정보통신부 장관상 6점, 한국과학창의재단 이사장상 8점 총 14점을 시상된다. 수상작은 소프트웨어 중심사회 포털을 통해 온라인 배포될 예정이며, 해당 포털을 통해 지난 수상작도 확인 가능하다.자세한 내용은 한국과학창의재단 홈페이지 내 공지사항에서 확인 가능하며, 참가 접수는 한국과학창의재단 온라인접수시스템을 통해 진행된다.seungjun241@news1.kr▶ 네이버 메인에서 [뉴스1] 구독하기!▶  뉴스1&amp;BBC 한글 뉴스 ▶ 뉴스1 미래포럼 2021 © 뉴스1코리아(news1.kr), 무단 전재 및 재배포 금지</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		[머니투데이 한고은 기자] 한국과학창의재단이 학교 현장의 소프트웨어(SW)·인공지능(AI) 수업 우수사례를 공모한다. 과학창의재단은 이번 공모전을 통해 학교 현장의 우수한 SW·AI 교육 사례를 발굴하고, 확산한다는 계획이다. 공모는 'SW·AI교과 수업 개선' , 'SW·AI융합 수업 설계' 부문으로 나눠 진행된다.  각 부문은 SW·AI교과 기반 교육과정 재구성 또는 다양한 교과를 융합한 SW교육 또는 AI교육 수업 설계 사례를 내용으로 하며, 전국 초·중·고등학교 교사를 대상으로 진행된다.과학창의재단은 심사를 거쳐 우수사례를 선정하고 과학기술정보통신부 장관상 6점, 한국과학창의재단 이사장상 8점 총 14점을 시상할 계획이다. 수상작은 소프트웨어 중심사회 포털을 통해 온라인 배포한다. 과학창의재단 관계자는 "이번 공모를 통해 학교현장에서 실제 적용이 가능한 SW·AI수업 사례를 발굴·확산하고, 교육 현장의 SW·AI 교육을 활성화 할 수 있을 것으로 기대한다"고 말했다. 자세한 내용은 한국과학창의재단 홈페이지 내 공지사항에서 확인 가능하며, 참가 접수는 한국과학창의재단 온라인접수시스템을 통해 진행된다.한고은 기자 doremi0@mt.co.kr▶부동산 투자는 [부릿지]▶주식 투자는 [부꾸미TALK]▶부자되는 뉴스, 머니투데이 구독하기 &lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&gt;</t>
-  </si>
-  <si>
-    <t>SW 통합전문 미국 'TIBCO Software'와 산학협약 체결【대전=뉴시스】우송대 엔디컷국제대학 전경.(사진=우송대 제공)[대전=뉴시스] 유순상 기자 = 우송대 SW중심대학사업단은 11일 글로벌 빅데이터 분석 소프트웨어업체 'TIBCO Software(팁코 소프트웨어)'와 효율적인 빅데이터 분석 교육과정 운영 산학협약을 체결했다.협약에 따라 우송대는 글로벌 상용 빅데이터 분석 소프트웨어 'Spotfire(스팟파이어)'를 무상 제공받아 재학생들에게 보다 효과적으로 빅데이터 분석 교육을 실시한다.'Spotfire'는 대표적인 글로벌 상용 빅데이터분석 프로그램으로 기업 업무분석 및 데이터 시각화 강점을 지니고 있어 전 세계 기업과 대학 등에서 사용되고 있다. 컴퓨터정보·보안전공 빅데이터 처리, 스마트IT·보안전공 빅데이터 통계, 게임멀티미디어전공 빅데이터 분석 및 인포그래픽, AI·빅데이터학과와 철도소프트웨어전공 데이터분석 등의 교과목에 Spotfire를 활용한 빅데이터 분석 및 데이터 시각화 실습교육을 한다. 또 'TIBCO Software' 파트너업체들에 재학생 인턴십 기회를 제공하고 빅데이터 분석 관련 특강, 워크숍, 세미나를 공동 개최, 빅데이터 분야 역량강화를 위해 지속적인 상호협력관계를 유지할 계획이다. TIBCO Software는 미국 캘리포니아 팔로알토에 본사가 있다. 북미와 유럽, 아시아, 중동, 아프리카 및 남미에 지사를 둔 소프트웨어 통합전문 글로벌 IT업체이다.우송대 관계자는 "지난 2018년 과학기술정보통신부 SW중심대학에 선정돼 사업단을 중심으로 SW인재 양성 및 SW융합교육에 주력하고 있다"며 " 특히 SW융합대학, 엔디컷국제대학, 철도물류대학, 보건복지대학, 호텔외식조리대학 등 단과대학별 특성을 기반으로 SW활용기술과 프로젝트형 실무교육을 실시하고 있다"고 말했다.☞공감언론 뉴시스 ssyoo@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		소프트웨어(SW)·인공지능(AI) 등 미래교육 콘텐츠 개발과 소재·부품·장비(소부장) 통합물류 서비스 역량 강화를 위해 이티에듀와 메카솔루션이 협력한다. 미래교육을 위한 교구재 유통은 물론, 제조산업 강화를 위한 소부장 물류관리를 혁신한다.이한규 이티에듀 전략사업본부장(왼쪽부터), 신혜권 이티에듀 대표, 정동화 메카솔루션 대표, 임홍준 메카솔루션 영업팀장이 교육콘텐츠 및 물류서비스 산업 경쟁력 확보를 위한 업무 협약식을 갖고 기념촬영을 하고 있다.이티에듀와 메카솔루션은 최근 메카솔루션 대구 본사에서 '교육콘텐츠 및 물류서비스 산업 경쟁력 확보를 위한 업무협약'을 체결했다. 이티에듀 미래교육 서비스 역량과 네트워크 기반에 메카솔루션 교구재 유통 및 통합물류 관리서비스 역량을 더해 시너지를 높일 계획이다.이티에듀는 전자신문 교육법인으로 4차산업혁명 시대 인재양성을 위한 다양한 교육 서비스를 제공한다. SW 등 미래교육 소외계층 학생을 위한 무료 교육도 매년 시행한다. 미래 교육에 필요한 다양한 교구재 공급을 위해 정보 교·강사를 위한 전문 교구몰 '마이클래스몰'도 운영한다.메카솔루션은 교구재 및 사물인터넷 장비, 전기전자 및 기계부품 개발·유통 기업으로 성장해 최근 통합물류 관리 업체로 영역을 확대한다. 로봇시스템을 도입, 물류관리 자동화 시스템도 제공한다. 소부장 유통 플랫폼을 활용해 기계부품 3차원 도면 제공 등 고객 요구에 대응한다.양사는 우선 교육용 교구재 온·오프라인 유통에 협력한다. 메카솔루션이 공급하는 다양한 교육용 교구재를 이티에듀 마이클래스몰에 입점시켜 공동 판매한다. 마이클래스몰에서 메카솔루션 우수 교구재 구매가 가능하다. 단순 교구재뿐 아니라 정보 교·강사가 즉시 수업을 할 수 있도록 수업안(교안)도 함께 제공한다. 학교 구매를 위한 맞춤형 판매 방식이 적용된다.교육 서비스 품질 강화에도 협력한다. 교육 프로그램에 맞는 교구재 공급, 교구재를 활용한 교육 프로그램 개발 등을 추진한다. 초·중·고 수업용 신규 콘텐츠 및 교구재도 공동 개발한다.통합물류관리 서비스 강화에도 힘을 모은다. 메카솔루션은 대규모 물류 창고를 확보, 통합물류 관리 시뮬레이터와 시스템을 구축했다. AI 기반 인플루언서 마케팅 플랫폼도 활용한다. 이티에듀는 메카솔루션 통합물류 관리 서비스를 제조기업 등에 소개하는 역할을 담당한다. 제조기업은 설계·개발 비용 절감과 생산속도 향상, 효과적 마케팅 등이 가능할 전망이다.신혜권 이티에듀 대표는 “메카솔루션 협력으로 정보 교·강사에게 다양하고 질 좋은 교구재와 수업안을 제공하겠다”면서 “수업에 맞는 적절한 교구재 공급으로 미래교육을 이끌겠다”고 말했다. 정동화 메카솔루션 대표는 “이티에듀 협력으로 교구재 판매 채널을 확대하고 신성장 사업인 통합물류관리 서비스 사업을 강화하겠다”고 전했다. 임홍준 메카솔루션 영업팀장은 “이티에듀 교육 서비스에 최적화된 교구재 공급을 위해 적극 지원하겠다”고 덧붙였다.김지선기자 river@etnews.com▶ "2021 스마트 디지털 워크스페이스 이노베이션" 개최▶ "AI·DX SUMMIT KOREA 2021" 6월 24일 개최 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
-  </si>
-  <si>
-    <t>SW학과 3~4학년생, 1대1 학생도우미로 맹활약동명대 SW중심대학사업단과 남구노인복지관이 공동으로 연 무료 컴퓨터 교육 프로그램에서 중장년층 수강생들이 학습하고 있다. [이미지출처=동명대][아시아경제 영남취재본부 김용우 기자] 동명대학교(총장 전호환) SW중심대학사업단은 5월 11일부터 6월 11일까지 남구노인복지관과 공동으로 50+(중장년층) 대상으로 컴퓨터기초활용 역량 강화 교육을 무료로 실시한다.이번 시니어 대상 컴퓨터기초활용 역량 강화 교육은 코로나19 상황을 고려해 반을 2개로 나눠 진행한다.각 분반에는 강사 1명, 개별 학생도우미 5명, 시니어 5명으로 구성된다. 1주일에 2번(각 90분 강의), 3시간씩 5주간 시행한다.1대1 학생도우미는 동명대 SW중심대학 참여 SW학과(AI학부,컴퓨터공학과,게임공학과,소프트웨어융합보안학과) 3~4학년 위주로 SW봉사를 원하는 전공학생 37명이 강사로 참여해 교육 효율성을 높인다.동명대 SW중심대학사업단 조미경 단장은 “시니어의 인터넷 활용, 정보 활용 등 정보사회 참여 욕구를 충족시키고, 나아가 컴퓨터 활용 인터넷 교육으로 여가, 재정, 건강관리 등 서비스 활용 능력을 높여줄 계획”이라고 말했다.조 단장은 또 “유사한 관심사를 가진 사람들을 서로 만나게 해줘 노년기 소외문제를 완화할 수 있는 대안이 될 것”이라고 말했다.고령화 시대 노년층의 정보 불평등 해결이 새로운 과제로 떠오르고 있는 가운데 동명대 SW중심대학사업단이 노인정보화교육을 활성화하기 위해 이 프로그램을 마련했다.영남취재본부 김용우 기자 kimpro7777@asiae.co.kr▶ 속 시원한 풀이! 2021년 정통사주·운세·토정비결▶ 내가 몰랐던 당신들의 이야기 [나돌] 네이버TV ▶ 투자 성공의 핵심은 기업분석! 'CORE' 바로가기&lt;ⓒ경제를 보는 눈, 세계를 보는 창 아시아경제 무단전재 배포금지&gt;</t>
-  </si>
-  <si>
-    <t>인공지능 등 활용한 다양한 수업 기대경북의 한 초등학교 학생들이 교실에서 스마트기기를 사용하고 있다. KT 대구·경북광역본부 제공KT 대구·경북광역본부가 경북도내 23개 시·군의 초·중·고·특수학교 교실에 무선망을 구축했다.12일 KT에 따르면 경북교육청과 함께 지난해 10월부터 추진한 '학교 무선망 및 학교 무선망 통합관리시스템' 설치를 완료했다. 무선망 통합관리시스템은 신종 코로나바이러스 감염증 확산으로 온라인 수업이 크게 늘고 스마트기기 사용이 급증함에 따라 도입됐다. KT와 교육청은 지난 7개월간 협업을 통해 경북도내 초·중·고·특수학교 942개교 내 일반교실과 일부 특별교실 1만6,063실에 무선망을 구축했다.KT와 교육청은 무선망 구축으로 각 학교마다 인공지능(AI)과 소프트웨어(SW)교육, 디지털교과서, 온라인 공동교육과정 등 다양한 형태의 수업을 진행할 수 있을 것으로 기대했다.KT는 앞으로 3개월간 장비 사용법 교육과 학교 환경 맞춤형 속도 개선, 각종 장애 진단 등을 지원한다. 또 향후 5년간 유지보수 서비스를 제공한다.안창용 KT대구·경북광역본부장은 “KT가 경북도내 모든 학생들에게 보다 나은 교육환경을 제공하게 돼 기쁘게 생각한다"며 "교내 인터넷 환경이 안정적으로 구현될 수 있도록 지속적으로 관심을 기울이겠다"고 말했다.대구= 김정혜 기자 kjh@hankookilbo.com▶[화해] 남편의 반복된 외도와 폭행, 이혼만은...▶[농지에 빠진 공복들] 51억·89필지 '농지왕'까지▶한국일보닷컴 바로가기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		        서울시와 중소기업 전문 지원기관인 서울산업진흥원(SBA, 대표이사 장영승)은 SW혁신인재 양성기관인 싹(SSAC, Seoul Software Academy Cluster)에서 배출한 주니어 SW개발자 채용에 관심있는 기업을 싹 홈페이지를 통해 모집한다.사진제공: 서울산업진흥원        싹(SSAC)은 기업 현장에서 즉시 활동이 가능한 주니어개발자 수준의 SW개발자 양성을 목표로 실제 기업현장 수요에 기반하여 웹, 앱, AI, 빅데이터, IoT/로봇 등 5개 분야 혁신 인재 양성을 주도해오고 있다. 지난해 10월말부터 1기를 시작으로 과정별 3~6개월 간의 집중과정을 통해 2기 11개 과정 약 200여명의 수료생을 배출한다.금번 싹(SSAC)에서 배출되는 수료생들은 1, 2기 평균 11:1, 최고 36:1의 경쟁률 속에서 레벨테스트와 심층 면접을 통해 선발됐다. 이후 현업개발자 중심의 강사진들로부터 기본적인 기술 스택 습득과 동료 학습, 실전 프로젝트, 온·오프라인 멘토링/코칭 등 효과 높은 다양한 교육기법이 접목되어 실전역량을 쌓아 왔다.과정 직후 학습효과로 볼 수 있는 수료생의 과정 시작 전과 수료 후 개발 역량에 대한 레벨 측정을 통해 주니어 개발자로서 역량을 갖추었는지도 꼼꼼하게 살피는 등 체계적으로 과정을 운영해왔다.싹(SSAC) 주니어 SW개발자 채용에 관심 있는 기업은 싹(SSAC) 홈페이지를 통해 공개되어 있는 과정별 특징과 관련 수행가능 개발직무, 기술스택과 특화역량에 대한 정보를 확인 후 채용 관심 기업으로 등록하면 된다.등록된 정보는 싹 운영기관인 SBA에서 해당 분야 취업활동을 준비 중인 싹(SSAC) 주니어 SW개발자에게 제공하고, 주니어 SW개발자가 개별적으로 채용 과정에 응하는 방식이다. 채용 관심 기업 등록은 2021년 중 상시로 진행된다.SBA 이광열 교육지원본부장은 “SW개발자 인력난이 심화되고 있는 현 상황에서 싹(SSAC)을 통해 배출된 우수한 SW인재와 좋은 인재 채용을 원하는 기업 간의 연결을 통해 이러한 어려움 해소에 도움이 되었으면 한다”고 말했다.[콘텐츠부] ▶네이버에서 '명품 경제뉴스' 조선비즈를 구독하세요▶알뜰주유소 10년… 기름값 내렸는데 줄폐업, 왜?▶MSP가 뭐길래… 클라우드로 눈돌리는 보안업계	저작권자 ⓒ 조선비즈, 무단 전재 및 재배포 금지</t>
-  </si>
-  <si>
-    <t>KT가 자사 AI 실습 플랫폼 'AIDU'를 한양대에 제공한다. /더팩트 DB최신 AI 교육환경 제공 및 AI 실습교육 강화[더팩트│최수진 기자] KT가 국내 AI 인재 양성을 위해 KT AI 실습 플랫폼 'AIDU'(에이아이두)를 한양대에 제공한다고 3일 밝혔다.에이아이두는 KT가 자체적으로 개발한 AI 교육플랫폼이다. KT는 인공지능 인재 육성은 물론, AI 모델링을 실제 업무에서 해볼 수 있는 환경을 위해 AIDU를 개발했다. 에이아이두 플랫폼을 활용하면 별도의 소프트웨어를 설치할 필요 없이 데이터 분석· 처리와 AI 모델링이 가능하다.한양대학교는 지난 2016년 소프트웨어중심대학(SW중심대학)으로 선정돼 소프트웨어 인재 양성에 집중하고 있다. KT와 한양대는 SW심화교육 과정에 AIDU를 적용, 산업현장에서 사용되고 있는 AI 실습플랫폼을 경험할 수 있는 기회를 제공하고자 한다.진영심 KT그룹인재개발실장(상무)은 "AI 교육은 무엇보다 축적된 데이터를 기반으로 실제 분석해보고 모델링해보는 실습이 중요하다"며 "KT의 AIDU로 AI에 대한 이해와 관심이 커지기를 기대한다"고 말했다.정형수 한양대 SW융합원장은 "에이아이두가 KT 내부에서 사내 직원의 AI 교육에서 잘 활용되고 있는 만큼 대학에서 비전공자 학생들이 AI 및 데이터 사이언스를 배우는 데 도움이 되기를 기대한다"고 밝혔다.한편, KT와 한양대는 지난해 2월 AI원팀을 결성했다. AI 원팀은 국내 대표 산학연이 뜻을 모아 결성한 협력체로 국내 인공지능 인재양성과 산업현장의 AI 적용 사례를 발굴 및 확산시키는 등 인공지능 1등 국가 실현에 앞장서고 있다.jinny0618@tf.co.kr - BTS 공연 비하인드 사진 얻는 방법? [팬버십 가입하기▶]   - 내 아이돌 순위는 내가 정한다! [팬앤스타 투표하기] 저작권자 ⓒ 특종에 강한 더팩트 &amp; tf.co.kr 무단 전재 및 재배포 금지</t>
-  </si>
-  <si>
-    <t>국내 소프트웨어산업 진흥 및 동반 성장 생태계 조성을 위한 한국소프트웨어산업협회(KOSA)와 네이버클라우드 간 상호업무협약식이 6일 서울 강남구 네이버 클라우드에서 열렸다. 조영훈 KOSA 실장(왼쪽)과 김홍진 네이버클라우드 기술총괄 전무가 협약서에 서명 후 기념촬영했다. 이동근기자 foto@etnews.com6일 한국소프트웨어(SW)산업협회와 네이버클라우드 협약은 단순 협업을 넘어 SW 산업 경쟁력을 강화하자는 취지에서 기획됐다.코로나19 팬데믹 이후 세계 기업이 패키지 SW 대신 서비스형소프트웨어(SaaS)를 도입하면서 글로벌 정보기술(IT) 시장에서 SaaS가 핵심으로 부상했다. 분야별 고도화된 기술력과 솔루션을 보유한 국내 기업이 SaaS로 전환해 사업영역을 해외로 확장할 수 있는 길이 열렸다.SW산업협회는 네이버클라우드를 비롯해 클라우드 전문 업계와 함께 국내 SW 솔루션이 해외로 뻗어나가도록 지원한다.◇SaaS 활성화를 통한 해외진출 로드맵 수립시장조사업체 시너지리서치그룹에 따르면 세계 SaaS 시장은 지난 10년간 연평균 39%씩 2019년 처음 1000억달러(약 112조원)를 돌파했다. 세계 클라우드 시장 가운데 SaaS 시장 비중은 40%가 넘어설 만큼 클라우드 업계에서 SaaS 영향력은 빠른 시간 내 커졌다. 미국 실리콘밸리에서는 유니콘(기업가치 1000억원 이상) 기업 중 80%가 줌, 슬랙 등 기업용(B2B) SaaS 기업일 정도로 SaaS는 시장의 한 축으로 자리잡았다.국내도 SaaS 산업 경쟁력 확보가 시급하다는 지적이 이어졌다. 그러나 SaaS가 활성화려면 기존 SW기업이 보유한 패키지SW를 SaaS로 전환하거나 글로벌 요구에 맞춰 업그레이드하는 활동이 전제돼야한다.SW산업협회와 네이버클라우드는 국내 SaaS 기업 육성, 해외진출을 위한 로드맵을 마련했다.우선 협회는 보유한 서비스 혹은 신규서비스를 클라우드 기반 SaaS로 구축하려는 기업을 대상으로 △SaaS 비즈니스모델(BM)개발 교육·컨설팅 △SW아키텍처 설계 실무 과정 △클라우드 환경으로의 솔루션 전환 과정 등의 교육을 제공한다. 클라우드 기반 SaaS 구축을 위한 △인프라 교육 △SaaS 서비스별 인프라 컨설팅 △SaaS 서비스를 위한 인프라 구축 상태 검토 등 서비스 개발과 구축에 필요한 교육을 지원한다.SaaS로 전환한 뒤에도 비즈니스 지원을 이어간다. SaaS 기반으로 글로벌 진출을 목표로 하는 기업 대상으로 △타깃 시장대상 고객 반응·시장 수요 검증 △글로벌 SaaS BM 컨설팅 △수익모델 최적화 설정 방안 도출 등 실질적 정보를 제공한다. 수출지원 기관을 통해 글로벌 SaaS 시장 개척과 SaaS 솔루션 영업, 판로개척을 위한 전문 컨설팅을 지원한다.협회는 SaaS 서비스 기업 대상으로 전문인증기관을 통한 SaaS 인증도 추진한다. SaaS 서비스의 보안, 성능, 품질 등 다방면을 검증해 인증받았음을 입증할 계획이다.SaaS 기업 해외 진출 로드맵. 한국SW산업협회 제공◇지원사업부터 협의회 구성까지…SaaS 시장 정조준SW산업협회는 로드맵을 바탕으로 올해 두 가지 지원사업을 진행한다.'2021년도 클라우드 플랫폼 기반 SaaS 솔루션 글로벌 시장 진출' 사업은 SaaS 솔루션 기반 중소벤처 기업과 해외시장 진출 전략을 공유하고, 대기업 브랜드 인지도를 기반으로 중소벤처 기업과의 글로벌 동반 진출을 추진한다.대·중소기업 협업 체계 기반의 글로벌 진출 우수 사례를 발굴하고 중소기업 솔루션 수출계약과 사용자 확보를 통한 글로벌 사례 확보에 주력할 계획이다.이를 위해 네이버클라우드플랫폼(NCP) 글로벌 리전(여러개의 데이터센터)에 참여기업의 SaaS 솔루션을 구축한다. 솔루션 상품화와 SaaS 전환을 위한 기술 컨설팅을 제공한다. 타깃 시장 진출을 위한 진단과 전략을 수립해 지원한다. 타깃 시장 대상 온라인 웨비나 등을 개최해 SaaS 홍보를 진행할 방침이다.'클라우드 플랫폼 기반 애플리케이션프로그래밍환경(API) 마켓플레이스 구축' 사업은 글로벌(동남아 우선) 현지기업과 소비자 특성에 부합하는 전략과 상품을 마련해 진출하는 사업이다. API 마켓플레이스를 개발 구축해 API 서비스화 전환 지원과 상품화 컨설팅을 제공한다. 주요 동남아 5개국 대상 시장조사를 거쳐 세부 진출 전략을 마련한다. 마켓플레이스를 통해 손쉽게 한국 SaaS 제품을 선택하도록 유도할 계획이다.SW산업협회는 안정적 SaaS 전환 지원 등을 위해 이달 중 'SaaS 추진협의회'를 발족한다.이한주 베스핀글로벌 대표가 협의회장을 맡아 SaaS 기업 간 협력 체계를 마련하고 SaaS 개발, 기술컨설팅 등을 지원할 예정이다. 회원사 범위는 △SaaS 관련 기술보유·개발 기업 △자사의 기술·응용솔루션의 SaaS화를 희망하는 기업 △SaaS 기술 기업과 협력 가능한 SW 기업 등이다.SW산업협회 관계자는 “정부도 SaaS 전환을 위해 사업 계획부터 상용화까지 원스톱 지원을 고려한다”면서 “협회도 상생 생태계 조성, 수출 지원, 교육 지원 등 다양한 역할을 수행하겠다”고 말했다.김지선기자 river@etnews.com▶ "2021 스마트 디지털 워크스페이스 이노베이션" 개최▶ "AI·DX SUMMIT KOREA 2021" 6월 24일 개최 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
-  </si>
-  <si>
-    <t>경남교육청, 전국 최초 교육과정 활용 시스템 개발 착수2025년까지 5년간 인공지능 프로그램 개발 등 완료[창원=뉴시스] 홍정명 기자= 박종훈 경남도교육감이 11일 오전 본청 대강당에서 열린 경남형 미래교육지원플랫폼 ‘아이톡톡'에 접목할 빅데이터·인공지능 시스템 개발 착수보고회에 참석해 인사말을 하고 있다.(사진=경남도교육청 제공) 2021.05.11. photo@newsis.com[창원=뉴시스] 홍정명 기자 = 경남도교육청은 11일 오전 본청 대강당에서 경남형 미래교육지원플랫폼 '아이톡톡'에 빅데이터·인공지능(AI)을 적용하는 시스템 개발 착수보고회를 개최했다.행사에는 박종훈 교육감과 경남도의회 교육위원회 윤성미 부위원장, 본청 국·과장 등이 참석했다.지난해 9월부터 보급에 들어간 '아이톡톡'은 교수학습지원 도구를 만든 것이며, 이번 착수보고회는 소프트웨어(SW) 개발로 교수학습지원 도구에 쌓인 학습데이터를 활용하여, 인공지능 알고리즘을 통한 학생 개별 맞춤형 학습 제공을 목표로 추진한다.전국 최초로 브라우저를 기반으로 개발되는 빅데이터와 인공지능 활용 플랫폼으로, 교수학습지원 등 교육과정 전 영역을 지원하게 된다.플랫폼은 교수학습 요구가 만나는 곳이고, 이번 시스템은 그 안에서 세부적으로 돌아가는 인공지능 프로그램을 개발하는 것이다.이번 개발 과업은 2021년부터 2025년까지 5년 동안 진행되는 프로젝트다.1년 차인 올해는 빅데이터·인공지능 기반 조성(과업의 80%)과 교사·학생·학부모들이 활용 가능한 응용프로그램(과업의 20%)인 교육과정 편제 관리, 콘텐츠 제작, 자기주도적 과제 관리, 수학·국어 문제은행 맞춤형 학습지원, 지능형 원격화상 수업도구 등이 개발된다.빅데이터·인공지능 플랫폼 구축의 핵심은 양질의 데이터를 확보하는 것으로, 경남교육청은 초등학교 1학년부터 고등학교 3학년까지 교육과정과 출판사별 모든 교과 데이터를 구축한다.또한 학습의 인지적 영역뿐만 아니라 정서와 감성 등 정의적 영역을 함께 분석하기 위해 학생들의 성장과 배움의 광범위한 학습데이터도 함께 구축한다.이는 전 세계에서 전례 없는 프로젝트다. 경남교육청은 이와 같은 데이터 축적 기술을 특허 출원할 예정이다.특히, 올해 구축되는 데이터 양은 2015개정 교육과정을 기준으로, 초·중·고 37개 교과(군)의 성취기준 6000여 건, 평가기준별 2만여 건 및 학습요소 단위 10만여 건의 학습데이터, 수학·국어 인공지능 문항 4만여 건, 학습 개념 설명 콘텐츠 4천여 건, 국정 및 검인정 교과서 1000여 권의 데이터 집적이 이뤄진다.[창원=뉴시스] 홍정명 기자= 11일 오전 경남도교육청 본청 대강당에서 경남형 미래교육지원플랫폼 ‘아이톡톡'에 접목할 빅데이터·인공지능 시스템 개발 착수보고회가 열리고 있다.(사진=경남도교육청 제공) 2021.05.11. photo@newsis.com이렇게 집적한 데이터는 학습 내용을 논리적으로 구조화해 입체적인 맵으로 설계된다. 설계에 따라 수십만 개의 데이터를 일일이 연결하는 고도의 맵핑 과정을 거쳐 학생과 교사들에게 다양한 응용 프로그램으로 서비스된다.빅데이터·인공지능 교육과정 활용 응용프로그램 서비스는 인공지능 알고리즘을 통해  학생들에게 맞춤형 콘텐츠 및 평가 문항, 보충·심화 학습 경로 등을 추천해 준다.특히 학생 개인이 자신의 학습 상황을 표나 그래프를 통해 확인할 수 있도록 하여, 자기주도적 학습을 가능하게 지원한다.또한 교사의 업무도 경감시켜 준다.학습자료와 평가문항을 찾지 않아도 되며, 각종 교육콘텐츠와 자료를 수업 과정에 맞춰 추천하고 제공해 수업 준비의 수고와 시간을 줄여 수업활동 자체에 집중할 수 있도록 한다.학부모에게는 기존 학교 홈페이지를 통해 일방향으로 지원받았던 안내, 홍보 등 소극적인 서비스의 한계를 넘어, 학기 말 평가 통지자료, 자녀의 학습정보, 학교 설문지, 학교 안내장 등을 실시간으로 공유받아 학교의 의사결정에 적극적으로 참여할 수 있다.박종훈 교육감은 "전국 처음으로 시도하는 도전이기 때문에 많은 어려움과 시행착오가 따르겠지만, 경남의 학생들이 유능한 미래인재로 성장할 수 있도록 빅데이터와 인공지능을 활용한 플랫폼 구축에 최선을 다해 달라"고 주문했다.이어 "교육 데이터 주권은 앞으로 중요한 교육 자산이 될 것"이라며 "양질의 데이터를 잘 관리하여 성공적인 개발이 될 수 있도록 노력해 달라"고 거듭 당부했다.경남형 미래교육지원플랫폼 '아이톡톡'은 이번 착수보고회를 시작으로, 7월에 중간 보고회, 9월 학교 시범서비스를 거쳐 12월 말에 1차년도 개발을 완료할 예정이다.☞공감언론 뉴시스 hjm@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
-  </si>
-  <si>
-    <t>[애널리스트 칼럼]-강경근 NH투자증권 연구원인공지능(Artificial Intelligence, AI)이 우리 생활 곳곳에 스며들고 있다. 인공지능의 사전적 의미는 ‘인간의 학습능력, 추론능력, 지각능력, 논증능력, 자연언어의 이해능력 등을 인공적으로 구현한 컴퓨터 프로그램 또는 이를 포함한 컴퓨터 시스템’이다. 다시 말해 인간의 능력 정도 내지는 그 이상으로 기능할 수 있는 가상 세계의 인간으로 정의할 수 있다. 사실 인공지능이라는 개념이 등장한 지는 이미 십수년이 되었지만 최근 들어 인공지능 콘텐츠가 부쩍 늘어났음이 체감된다. 이제 인공지능은 제조, 헬스케어, 교육, 생활 등에서 필수적인 존재로 자리잡았다.인공지능 산업의 주도권을 잡기 위한 국가, 기업들의 경쟁도 심화되면서 글로벌 인공지능 시장은 가파르게 성장하고 있다. 시장조사기관 IDC에 따르면 글로벌 인공지능 시장 규모는 2016년 80억달러에 불과했으나 2022년 1130억달러로 늘어나 연평균 성장률 55.5%를 기록할 전망이다. 국내 시장 규모는 2019년 말 과학기술정보통신부(전 미래창조과학부) 발표에 의하면 약 9조원대로 추정된다. 증시에서도 인공지능 관련 기업들에 대한 관심이 높다. 국내의 경우 바이브컴퍼니, 뷰노, 알체라 등이 상장 하였으며 다수의 인공지능 관련 기업들의 상장도 예정돼 있다.자연스레 전 세계에서 인공지능이 가장 발달한 국가인 미국에 상장된 기업에 투자자들의 눈길이 가게 된다. 이번에 소개하려는 기업은 C3.ai 이다. 사명에서 바로 알 수 있듯이 미국의 대표적인 엔터프라이즈 AI 소프트웨어 기업이다. 인공지능 개발을 진행하고 있는 구글, 마이크로소프트, 아마존 등과는 달리 순전히 인공지능 비즈니스만을 영위한다는 점이 특징적이다. C3.ai는 기업 고객이 자신들의 고유한 데이터를 바탕으로 머신러닝 모델을 구축하고, AI 애플리케이션을 만들 수 있는 플랫폼을 제공한다.동사의 AI 솔루션은 고객사의 생산성과 효율성 개선에 크게 기여한다. 포츈 글로벌 500대 헬스케어 기업 중 한 곳은 C3.ai 재고 최적화 솔루션과 공급망 네트워크 리스크 솔루션을 사용한 후 기존에는 몇 달이 소요되었던 글로벌 공급망 관리 업무를 한달 만에 해결할 수 있게 됐고, 공급망 병목 현상을 해결해 단위 생산성을 300%까지 향상시켰다. 이외에도 제품 리드 타임 예측과, 원재료 투입 최적화를 통해 생산량을 증대시켰다.동사가 목표하고 있는 시장은 향후 높은 성장성을 보일 것으로 예상된다. IDC에 따르면, 동사가 제공하는 데이터 통합, PaaS(Platform as a service), 데이터 처리, 애플리케이션 구축 플랫폼 관련 시장 규모는 2019년 420억달러에서 2024년 720억달러로 연평균 11% 성장할 것으로 전망된다. 전체 AI 애플리케이션 시장 규모는 2019년 1070억달러에서 2024년 2270억달러로 연평균 16% 성장할 것으로 전망된다.동사는 지난 12월 뉴욕증권거래소에 공모가 42달러로 상장하였다. 이후 주가는 시장의 높은 관심에 힘입어 공모가 대비 약 4배가량인 183달러까지 상승하기도 하였으나, 성장주 조정과 신규 상장 종목 특성상 수급 이슈로 인해 조정받으며 공모가 부근인 50달러 중반선으로 수렴하고 있다. 밸류에이션 부담은 완화된 상황이며 차별화된 솔루션에 기반 한 구조적 성장이 기대된다.▶ 경제지 네이버 구독 첫 400만, 한국경제 받아보세요▶ 한경 고품격 뉴스레터, 원클릭으로 구독하세요▶ 한국경제신문과 WSJ, 모바일한경으로 보세요 ⓒ 한국경제 &amp; hankyung.com, 무단전재 및 재배포 금지</t>
-  </si>
-  <si>
-    <t>김갑수 원장·이대열 교사·김부경 대표IoT·클라우드 컴퓨팅 교육 주제 등 강연이티에듀 홈페이지서 100명 선착순 접수'인공지능(AI) 시대 소프트웨어(SW) 교육은 어떻게 해야하나''교육현장에서 바라보는 미래교육은 어떠한가''SW강사는 어떻게 미래교육을 준비해야 하는가'초·중·고등학생 SW·AI교육 등 미래교육에 대한 혜안이 제시된다. SW교육 정책을 자문하는 학계 전문가부터 현장을 책임지는 현직 교사와 강사 대표, SW전문기자 출신 교육기업 대표가 참여해 각계각층에서 바라본 현장 문제점을 제기하고 해법을 논의한다. 초·중·고등학생 미래교육을 고민하는 교사와 강사, 학부모에게 나침반이 될 전망이다.'교육이 미래다' 주제로 열리는 SW토크콘서트는 대한민국교육박람회 부대행사로 19일 오후 1시 30분부터 4시까지 서울 코엑스 A홀(THEATRE B)에서 개최된다. 이티에듀와 대한민국교육박람회사무국이 주최하고, 전자신문이 후원한다. 토크콘서트는 초·중·고등학생 SW교육 정상화와 2025년 도입을 앞둔 AI교육 대응방안 논의를 위해 마련했다. 김갑수 서울교대 SW영재교육원장, 신혜권 이티에듀 대표, 이대열 예덕초 교사, 김부경 코딩스터디협동조합 대표가 강연한다.토크콘서트는 김 원장 강연으로 시작한다. 김 원장은 서울교대 컴퓨터교육과 교수로 SW영재교육원과 과학영재교육원을 총괄한다. 한국과학영재교육학회장도 맡고 있다. 한국정보과학연합회 공동회장, 한국정보교육학회장 등을 역임했다.김갑수 서울교대 SW영재교육원장김 원장은 'AI 교육시대 어떻게 가르쳐야 하는가 I-인공지능 시대 컴퓨팅 교육' 주제로 강연한다. 사물인터넷(IoT), 클라우드 컴퓨팅, 빅데이터 등 사물과 사람이 연결되는 새로운 패러다임 시대 컴퓨팅 사고력 교육이 무엇보다도 중요하다. 학생들 교육 방법과 내용도 컴퓨팅 사고력 통한 새로운 지식 창출에 초점이 맞춰야 한다고 강조할 예정이다.신혜권 이티에듀 대표는 '강사와 학생을 연결하는 껌이지(껌Easy)'를 소개한다. 신 대표는 전자신문 SW전문기자, SW융합산업부장을 역임하면서 SW교육 현장을 오랜 기간 취재했다. 껌이지는 SW교육이 가능한 강사 누구나 온라인 교육 프로그램 개설을 지원한다. SW교육을 원하는 학생과 연결하는 원격교육 플랫폼이다. 초·중·고등학생 SW교육은 물론, 대학생·성인 정보통신기술(ICT) 관련 다양한 원격교육 프로그램을 제공한다.이대열 예덕초 교사AI 교육시대 어떻게 가르쳐야 하는가 두 번째 강연으로 이 교사가 '현장에서 바라보는 모두의 미래 교육'에 대해 설명한다. 이 교사는 예덕초 SW 정보영재 교사로 SW선도학교와 AI선도학교를 운영했다. 공주교대 AI교육대학원에 재학 중이다. 2019년 한국코드페어 지도교사 부문 대상, SW·AI교육 관련 100여회 교원 강의 경험을 갖고 있다.이 교사는 15년간 현장에서 학생들과 함께한 SW·AI교육 경험 이야기를 들려준다. 코로나19 이후 변해가는 교육 현장과 교사 입장에서 바라보는 SW·AI 교육과 학생 중심적이고 창의적 사고를 갖도록 교육이 나아갈 방향도 소개한다.김부경 코딩스터디협동조합 대표마지막으로 'SW강사만 이렇게 공부하나요' 주제로 김 대표가 강연한다. 김 대표는 SW미래채움 초·중·고 SW교육을 운영한다. 오산교육청 AI교육 교사직무연수 강사로도 활동한다. 김 대표는 변화하는 미래교육에 맞춰 SW강사 방향을 제시한다. 블록코딩부터 피지컬 컴퓨팅, 텍스트 코딩, AI교육까지 강사가 어떻게 교육을 해야할지를 충고한다.지난해 개최된 대한민국 교육박람회 부대행사로 개최된 SW 토크콘서트 모습.토크콘서트를 준비한 이한규 이티에듀 전략사업본부장은 “AI 시대를 맞아 변화하는 미래교육 환경에서 교·강사와 학부모에게 인사이트를 제공하고자 토크콘서트를 마련했다”면서 “초·중·고 학생 교육에 많은 도움이 될 것”이라고 말했다. 대한민국교육박람회 SW교육 토크콘서트는 100명만 선착순 접수 받는다. 접수는 이티에듀 홈페이지에서 가능하다.이티에듀는 17~19일 대한민국교육박람회 기간동안 미래교육 부스도 운영한다. 부스에서는 AI교육뿐 아니라 AI를 활용한 바둑교육 등 다양한 교육 프로그램 체험이 가능하다. 원격교육 플랫폼 '껌이지' 정보 교·강사를 위한 교구몰 '마이클래스몰' 다양한 SW교육 프로그램, 국내 최초 SW사고력 경시대회 'SW사고력올림피아드(SWTO)' 등 다양한 서비스도 소개한다.오다인기자 ohdain@etnews.com▶ "2021 스마트 디지털 워크스페이스 이노베이션" 개최▶ "AI·DX SUMMIT KOREA 2021" 6월 24일 개최 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
-  </si>
-  <si>
-    <t>비전공자도 기초 코딩부터핵심 실무까지 배울 수 있어'Pre-Bootcamp' 코스의 경우수강료에 교재·중식까지 지원IT 실무진들 취업 멘토링에모의면접 등 지원 프로그램도 그린컴퓨터아카데미·그린컴퓨터아트학원이 인문·사회계열 및 예체능계열 졸업(예정)자를 대상으로 SW(소프트웨어)개발자 핵심 실무 과정을 개설한다.본 과정은 이른바 정보기술(IT) 업계 취업준비생들이 입사하고 싶어하는 '네카라쿠배당토'(네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스)의 취업을 목적으로 IT 기본 소양부터 실무 역량까지 겸비한 인재 양성을 위한 프로그램이다.김상곤 그린컴퓨터아카데미 대표이사는 "IT 업계에서 개발자를 채용하는 수요가 폭발적으로 늘어나면서 이들 기업은 신입 초봉 6000만원, 평균 연봉 1억원, 1.5배의 연봉 인상 등 파격적인 대우를 제공하고 있다"고 전했다. 이어 "개발자가 되기 위해 교육을 받으려는 사람도 많고 취업을 하려는 사람도 많지만, 정작 IT 기업들은 기초가 튼튼한 인재를 구하기 어렵다고 한다"면서 "이는 전공보다 중요한 것이 자기만의 프로젝트를 수행한 경험이기 때문"이라고 설명했다.이 같은 사회적인 수요에 발맞춰 그린컴퓨터아카데미·그린컴퓨터아트학원은 사회공헌 프로그램의 일환으로 IT 비(非)전공자들이 SW 개발자 핵심 실무 교육을 통해 개발자로서의 꿈을 이루도록 본 과정을 만들었다고 했다.김 대표이사는 "본 프로그램은 기존 국비지원제도의 취약점인 IT 기본 소양과 기본 코딩 능력을 완벽하게 수행하기 위해 본 교육기관만의 Pre-Bootcamp 코스를 선행학습하고, 취업을 위한 프로젝트 중심으로 구성된 Intensive Course에 참여함으로써 IT 기업이 요구하는 인재 양성을 목표로 하고 있다"고 소개했다.특히 본 프로그램의 참여자가 무료로 학습할 수 있도록 Pre-Bootcamp 코스의 수강료와 교재, 중식 등 교육에 필요한 모든 비용을 그린컴퓨터아카데미·그린컴퓨터아트학원에서 전액 지원한다. Intensive Course 역시 기존 국비지원제도와 연계해 진행하기 때문에 과정 참여자는 수강료 무료 혜택과 훈련참여수당을 받을 수 있다.Intensive Course에는 오라클 기반 스프링(SPRING)프레임워크 자바(JAVA) 개발자 양성과정, 자바 웹개발자 양성과정, 자바&amp;스프링(Spring)프레임워크 개발자 양성과정, UI/UX디자인 웹퍼블리셔&amp;프런트엔드 개발자 양성과정, 자바&amp;파이선 활용 빅데이터 개발 디지털실무 양성과정, 플랫폼 구축을 위한 빅데이터 개발자 과정(자바&amp;파이선), 파이선 활용 빅데이터 분석 실무과정, AWS 클라우드 운영 및 파이선 개발자 양성과정, 인재양성 사물인터넷(IoT) 개발자 실무과정 등 다양한 과정(지점에 따라 상이)이 있다.아카데미 측은 "향후 본 프로그램 참여자는 IT 실무자들의 멘토링과 특강을 통해 실력을 높일 수 있고, 그린컴퓨터아카데미·그린컴퓨터아트학원과 산학협력된 대형 IT 개발사에 취업 지원 및 잡 매칭, 취업 오디션, 동행면접 등의 지원도 받을 수 있다"고 말했다. 이어 자체 스터디 그룹을 지원하는 것은 물론, 실습실 등도 지원해 최상의 교육환경을 제공한다는 게 아카데미 측 설명이다.특히 SW 개발자는 개발 역량을 갖췄다면 전공과 상관없이 누구나 도전할 수 있는 분야인 만큼 문과 역시 흥미가 있다면 관심을 가져볼 만하다. 아카데미 관계자는 "중식 1시간을 포함해 매일 6시간 이상씩 진행되는 교육이 쉽지 않겠지만, 무료로 진행되는 약 11개월의 교육과정을 통해 소프트웨어 전문가가 될 수 있다면 도전해 볼 가치가 충분할 것"이라고 말했다.현재 그린컴퓨터아카데미·그린컴퓨터아트학원은 서울, 부산, 인천, 대전, 대구 등 전국에 25개 지점을 보유하고 있으며, 본 프로그램은 서울 강남지점과 부산지점에서 우선 개설된다. 모집 기간은 5월 31일까지이며, 보다 자세한 내용과 궁금한 사항은 그린컴퓨터아카데미 홈페이지나 전화상담을 통해 확인하면 된다.[고민서 기자]▶ '경제 1위' 매일경제, 네이버에서 구독하세요▶ 이 제품은 '이렇게 만들죠' 영상으로 만나요▶ 부동산의 모든것 '매부리TV'가 펼칩니다[ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지]</t>
-  </si>
-  <si>
-    <t>폴리텍, 융합기술교육원 재학 중인 유학파 3명 사례 소개프로그래밍 실습 중인 정소영씨와 정현정씨(자리에 앉은 사람이 정현정씨)[폴리텍 제공]    (서울=연합뉴스) 이영재 기자 = 디지털 신기술 산업이 주목받으면서 정보기술(IT) 개발자를 양성하는 국내 직업교육 과정에 해외 유학파를 포함한 고학력자들이 몰리고 있다.    고용노동부 산하 직업교육기관인 한국폴리텍대학(폴리텍)은 3일 폴리텍 융합기술교육원에서 디지털 신기술 교육을 받는 해외 유학파 3명의 사례를 소개했다.    영국 뉴캐슬대에서 국제경영학을 전공한 정소영(28)씨는 지난 3월부터 폴리텍 분당 융합기술교육원 데이터융합SW과에 다니고 있다.    정씨는 스타트업기업의 온라인 플랫폼 기획 경험을 통해 프로그래밍 기술을 배우기로 하고 융합기술교육원에 입학했다.    정씨와 함께 데이터융합SW과에 입학한 정현정(25)씨는 중국 상하이재경대에서 국제경제학을 전공했다.    소프트웨어 개발자 지망생인 그는 "유학하면서 핀테크 앱과 인공지능(AI) 기술을 결합한 산업이 생활 전반에 자리 잡는 것을 봤다"며 "4차산업 시대에 IT가 핵심이라고 생각해 입학을 결심했다"고 말했다.    폴리텍 광명 융합기술교육원 데이터분석과에는 미국 로스앤젤레스 캘리포니아대(UCLA)에서 심리학과 통계학을 전공한 정해명(27)씨가 재학 중이다.    프로그래밍뿐 아니라 웹 코딩과 개발 등에도 능숙한 '풀 스택(full-stack) 데이터 엔지니어'가 되는 게 정씨의 목표다.    이들과 같은 인재들이 몰리면서 폴리텍 융합기술교육원 데이터융합SW과의 경우 입학 경쟁률이 4 대 1을 웃도는 등 인기를 끌고 있다. 데이터융합SW과 출신자의 최근 3년간 취업률은 90%를 넘는다.    재학생 중에는 '네카라쿠배'(네이버·카카오·라인·쿠팡·배달의민족)로 통하는 선두권 IT 업계 취업을 꿈꾸는 청년이 많다.    한편 폴리텍 분당 융합기술교육원은 지난달 27일 클라우드 서비스 기업인 메가존클라우드, 제니스앤컴퍼니와 클라우드 전문가 육성을 위한 산학 업무협약을 체결하고 관련 IT 개발자를 양성하는 교육 과정을 개설했다.    융합기술교육원은 오는 10일까지 이 과정에 참여할 교육생 22명을 모집한다. ljglory@yna.co.kr▶네이버에서도 뉴스는 연합뉴스[구독 클릭]▶[팩트체크] 공무원은 5인 이상 사적모임 허용?▶제보하기&lt;저작권자(c) 연합뉴스(https://www.yna.co.kr/), 무단 전재-재배포 금지&gt;</t>
-  </si>
-  <si>
-    <t>(왼쪽부터) 김상윤 GS글로벌 상무, 김종갑 본투글로벌센터장, 박환수 한국SW산업협회 상무, 이기엽 요즈마코리아 부사장, 김태창 네이버클라우드 전무가 MOU를 맺고 기념촬영을 하는 모습. /사진제공=네이버클라우드국내 중소 소프트웨어(SW) 기업들이 SaaS(서비스형SW)로 글로벌 시장에 진출할 수 있도록 각 분야 전문기관들이 힘을 모은다.7일 네이버클라우드가 중소 SaaS기업 발굴과 글로벌 진출 지원을 위한 ‘SaaS N(Successful And Absolute SaaS in Ncloud)’ 프로그램을 발표했다. 프로그램의 지속적·체계적 운영을 위해 한국소프트웨어산업협회, 본투글로벌센터, 요즈마그룹코리아, GS글로벌 등 각 분야 전문기관과 업무협약(MOU)를 맺고 컨소시엄을 구성했다. ‘SaaS N’은 중소SW기업이 네이버클라우드 기반으로 성공적인 SaaS 기업으로 발돋움할 수 있도록 각 전문기관과 다각적 협업 모델을 구축한 파트너십 프로그램이다. 프로그램은 ▲기술 지원 ▲비즈니스 지원 ▲글로벌 판로개척 등 총 3단계에 걸쳐 지속적·체계적 지원을 엔드 투 엔드(End-to-End)로 제공하는 것을 목표로 한다. 프로그램 첫 단계인 기술 지원은 네이버클라우드와 한국SW산업협회가 맡는다. 네이버클라우드는 프로그램 전반 운영과 참여기업 발굴, SaaS를 서비스하기 위한 클라우드 기반 인프라 구축 교육·컨설팅을 담당한다. SW협회는 SaaS 애플리케이션 개발과 솔루션 전환에 필요한 교육과정을 맡는다. 완성된 SaaS 솔루션은 글로벌 진출을 고려한 비즈니스 지원으로 연결된다. 본투글로벌은 SaaS 현지화를 위해 제품 시장 적합성을 검증한다. 요즈마그룹코리아는 비즈니스모델 수익 최적화를 위한 전략 수립과 투자 연계 등 글로벌 역량 강화를 지원한다. GS글로벌은 글로벌 네트워크를 활용해 판로를 확장하고 해당 솔루션을 필요로 하는 고객을 매칭해 효율적인 서비스를 돕는다.  네이버클라우드는 ‘SaaS N’ 운영을 통해 다양한 산업군의 글로벌 SaaS 솔루션을 육성함으로써 신성장동력 창출과 함께 민관협력 기반 글로벌 상생 모델을 발굴할 것으로 기대한다.  김태창 네이버클라우드 사업총괄 전무는 “SaaS 글로벌 전문가, 해외 네트워크 전문가 등 각 영역의 내로라하는 기관과 유기적 협업으로 SaaS N의 체계적인 운영 프로세스를 마련했다”며 “이번 프로그램을 통해 국내 클라우드 기업의 동반성장을 도모하고 국내 SaaS 경쟁력을 강화할 수 있도록 노력하겠다”고 말했다.박환수 SW산업협회 상무는 “협회의 체계적인 클라우드 교육을 기반으로 국내 SaaS 기업의 역량향상을 지원하겠다”면서 “‘SaaS N’ 프로그램의 성공적인 추진을 위해 협회가 중추적인 역할을 수행할 것”이라고 밝혔다.김종갑 본투글로벌센터장은 “센터는 초기 시절부터 글로벌 진출을 지원해온 멤버사 센드버드를 통해 국내 SaaS 기업의 세계적 성공이 가능하다는 것을 입증했다”며 “‘SaaS N’ 컨소시엄 프로그램 론칭을 계기로 국내 SaaS 기업의 성장 모델을 마련해 차세대 SaaS 유니콘 기업을 배출해낼 수 있도록 최선을 다할 것”이라고 말했다.팽동현 기자 dhp@mt.co.kr▶뜨거운 증시, 오늘의 특징주는?  ▶여론확인 '머니S설문' ▶머니S, 네이버 메인에서 보세요 &lt;저작권자 ⓒ '성공을 꿈꾸는 사람들의 경제 뉴스' 머니S, 무단전재 및 재배포 금지&gt;</t>
-  </si>
-  <si>
-    <t>퓨전소프트, DGB데이터시스템 등 주요SW 선도기업 참여한 SW인력양성 협약대구디지털산업진흥원(DIP·원장 김유현)이 최근 현장중심 소프트웨어(SW) 인력양성을 위해 지역 SW기업인 퓨전소프트, DGB데이터시스템 등 4개사와 SW핵심인재 양성 및 채용을 위한 다자간 업무협약을 체결했다.DIP가 최근 지역주요 SW기업 4곳과 SW핵심인재 양성 및 채용을 위한 다자간 업무협약을 맺었다. 사진은 협약체결후 기념촬영한 모습. 왼쪽에서 4번째가 김유현 DIP 원장.이번 협약을 통해 지역 SW우수인재양성을 위한 협력체계를 강화하고, SW핵심인재 채용연계과정 운영으로 전문인력양성 및 안정적 신규인력을 제공해 지역기업의 인력부족문제 해소와 지역일자리 창출에 기여한다는 취지다.주요협력 분야는 교육관련 사업 진행 시 상호 자문 역할 및 교육콘텐츠 관련 양성교육 지원, 교육 프로그램 운영을 위한 상호 전용 교육공간 제공, 교육생 취업 협력 등 기업-기관 간 상호 성장과 발전을 위한 협력 확대 등이다.이와 관련해 DIP는 기술·능력에 초점을 맞추어 채용함으로 생기는 여러 문제점을 해소하기 위해 현장에 잘 적응할 수 있는 인재를 직접 육성하는 'SW 핵심인재 채용연계 과정' 교육생을 오는 16일까지 모집하고 있다.교육을 수료하면 협약 체결 기업 4개사에 채용이 약정돼 있다. 기업들은 교육생의 인·적성, 과제수행정도, 실력향상정도, 협력과제 등 다면적 평가지표를 통해 기업문화에 잘 적응하고 현재보다는 지속 성장가능성과 교육생이 지닌 미래가치 등을 중점으로 최종 선발할 예정이다.협약에 참여한 4개사는 이번 교육사업의 성공적 사업수행을 위해 상호 지원·협력해나가기로 했다. 또 기업 현업 담당자를 통한 멘토링(관심기업 매칭을 통한 기업 멘토 배정), 현장견학, 간담회, 실무형 프로젝트 실습 등 교육생에게 다양한 환경과 경험을 제공할 예정이다.김유현 DIP 원장은 “협약과 지원사업을 통해 지원체계를 강화하고, 기업에 우수한 인재를 공급해 기업의 지속 성장과 경쟁력을 지원, 지역발전에 기여하도록 하는 것이 목표”라고 밝혔다.한편, 협약에 참여한 퓨전소프트는 시스템 구축과 운영(공공정보화, 기업정보화), 교육정보화, 보안분야 선도기업이며 DGB데이터시스템은 시스템통합(금융전산 시스템개발), 전산시스템 통합운영 및 유지보수분야 기업이다.대구=정재훈기자 jhoon@etnews.com▶ "2021 스마트 디지털 워크스페이스 이노베이션" 개최▶ "AI·DX SUMMIT KOREA 2021" 6월 24일 개최 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		(지디넷코리아=남혁우  기자)한국소프트웨어산업협회(이하 협회, 대표 조준희)는 한국전력공사(이하 한전) ICT인력을 대상으로 소프트웨어(SW)‧신기술 특화 전문 교육(이하 특화 교육)을 실시한다고 3일 밝혔다.이번 교육은 지난 3월 협회와 한전이 실시했던 SW역량강화 및 전문인력 양성 MOU’의 후속 조치로 추진된다. 교육은 한전 ICT 재직근로자의 역량강화를 목적으로 하며, 회차당 20~30시간으로 구성되어 금년 10회 이상 실시될 예정이다.1회차 과정은 지난 28일 종로구 외부교육장에서 ‘IT프로젝트 발주 및 사업관리 과정’이라는 부제로 실시됐다. 한전 재직근로자의 사업수행에 필요한 역량강화를 위해 24시간 실시됐다. 구성은 ▲SDLC(소프트웨어 개발 생명 주기) 및 RFP작성 ▲공공SW사업 발주 ▲SW사업대가 산정 등이다.SW산업협회에서 한전 ICT인력을 대상으로 ‘SW‧신기술 특화 전문 교육’을 실시하고 있다(이미지=한국소프트웨어산업협회)교육에서 협회는 교육대상자에 대한 사전 수준진단 및 전문강사와 사전 협의를 통한 커리큘럼 구성으로 맞춤형 커리큘럼을 구성해 교육을 제공했다. 이론 뿐만 아니라, 실습 병행으로 교육생들의 동기부여 및 교육효과 향상에 많은 노력을 기울였다.아울러 교육생 사전진단, 입과 시 체온측정, 강의장 내 가림막 설치 등 코로나19 예방에도 만전을 기울였다.협회 서홍석 부회장은 “협회는 그 간 축적한 SW분야 교육 전문성을 기반으로 앞으로도 한전 및 계열사 ICT 인력의 SW 역량강화 및 전문인력 양성을 위해 적극 지원하고 확대해 나갈 것” 이라고 밝혔다.협회는 금년도 SW재직자 직무능력 향상 지원을 위해 SW직무 관련 31개 과정 및 4차 산업 신기술 관련 47개 과정을 운영 중으로, 과정 당 20명 이상 교육 수요가 있는 기업을 대상으로 기업방문 교육을 실시하고 있다.방문 교육은 중소기업의 경우 전액 무료이며 맞춤형 커리큘럼 구성 및 전문강사가 교육한다.남혁우 기자(firstblood@zdnet.co.kr) ▶ 지디넷코리아 '홈페이지' ▶ 네이버 채널 구독하기© 메가뉴스 &amp; ZDNET, A RED VENTURES COMPANY, 무단전재-재배포 금지</t>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=417&amp;aid=0000711536</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=009&amp;aid=0004819452</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=031&amp;aid=0000608724</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=029&amp;aid=0002685160</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=030&amp;aid=0002955481</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=629&amp;aid=0000092486</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=015&amp;aid=0004570130</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=008&amp;aid=0004610748</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=030&amp;aid=0002954121</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=001&amp;aid=0012494867</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=009&amp;aid=0004816525</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=001&amp;aid=0012493647</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=014&amp;aid=0004666281</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=015&amp;aid=0004570801</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=030&amp;aid=0002955222</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=005&amp;aid=0001452539</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=030&amp;aid=0002954113</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=421&amp;aid=0005443652</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010579760</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=025&amp;aid=0003113991</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=008&amp;aid=0004608233</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=015&amp;aid=0004570797</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=008&amp;aid=0004609975</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=008&amp;aid=0004608558</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=243&amp;aid=0000014113</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=005&amp;aid=0001452032</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=030&amp;aid=0002954000</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=030&amp;aid=0002954498</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=001&amp;aid=0012473387</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=366&amp;aid=0000736950</t>
+  </si>
+  <si>
+    <t>한전KDN, 신안 비금·도초서 AI·SW코딩캠프</t>
+  </si>
+  <si>
+    <t>AI·SW인재 키우고 디지털 뉴딜 성과낼 것</t>
+  </si>
+  <si>
+    <t>[일문일답] 임혜숙 장관 "'SW·AI·과학 우수인재' 적극 육성"</t>
+  </si>
+  <si>
+    <t>임혜숙 "디지털뉴딜 성과 가속화… AI·SW인재 집중양성"</t>
+  </si>
+  <si>
+    <t>테크빌교육, 글로브포인트와 VR교육의 공교육 시장 진출을 위한 MOU 체결</t>
+  </si>
+  <si>
+    <t>광주시교육청, 전체학교 일반교실 무선망 구축 완료</t>
+  </si>
+  <si>
+    <t>취업률 70%…이재용이 직접 챙긴 삼성 SW교육 정원 확 늘린다</t>
+  </si>
+  <si>
+    <t>전남교육청, 섬으로 찾아가는 AI·SW교육 실시</t>
+  </si>
+  <si>
+    <t>맞춤형 SW인재 양성, 산학 협력 교육프로그램 나온다</t>
+  </si>
+  <si>
+    <t>동명대 미국 캘리포니아주립대 6주간 비대면 SW융합교육</t>
+  </si>
+  <si>
+    <t>"취준생 희소식"…이재용 공들인 SW사관학교 年 2000명 뽑는다</t>
+  </si>
+  <si>
+    <t>삼성전자 '2021 삼성 주니어 SW 창작대회' 개최</t>
+  </si>
+  <si>
+    <t>"청소년 SW 꿈나무 육성" 삼성전자, 7번째 '주니어 SW 창작대회' 개최</t>
+  </si>
+  <si>
+    <t>서울대 총장도 KAIST 총장도…"AI·SW 과목, 대입에 반영하라"</t>
+  </si>
+  <si>
+    <t>조선대 SW중심대학사업단, '장애인 맞춤형 창업특화교육' 업무협약</t>
+  </si>
+  <si>
+    <t>김석준 부산교육감 “부산교육을 미래교육으로 대전환”</t>
+  </si>
+  <si>
+    <t>경북대SW교육센터, 경북지역 교육지원청 3곳과 AI 디지털 역량 강화 교육</t>
+  </si>
+  <si>
+    <t>'취업률 68%' 삼성 청년SW아카데미, 교육생 2배 늘린다</t>
+  </si>
+  <si>
+    <t>[교육소식]부산학생교육문화회관, 시설 재구조화·새단장 등</t>
+  </si>
+  <si>
+    <t>“정부+상의+삼성 힘 합쳤다” 연 2300명 뽑아 월 100만원 주고 SW 교육</t>
+  </si>
+  <si>
+    <t>삼육대, SW중심대학 사업 워크숍 열어</t>
+  </si>
+  <si>
+    <t>주요국 SW교육, 韓보다 5년 앞섰다</t>
+  </si>
+  <si>
+    <t>아이퀘스트, SW개발보안 전문기업 ㈜트리니티소프트 인수</t>
+  </si>
+  <si>
+    <t>'이재용의 동행 비전' SW아카데미, 2300명…두 배로 늘었다</t>
+  </si>
+  <si>
+    <t>“10% 아닌 90%를 위한 교육시스템 만들어야 할 때”</t>
+  </si>
+  <si>
+    <t>삼성 청년SW아카데미, 내년 교육생 대폭 늘린다</t>
+  </si>
+  <si>
+    <t>배재대, 미래인재 양성 집중...AI·SW중심 교육체계 구축</t>
+  </si>
+  <si>
+    <t>[SW개발보안, 디지털뉴딜 시작]〈하〉중기 SW보안약점 진단, 정부 지원 내용은?</t>
+  </si>
+  <si>
+    <t>서울산업진흥원, 내달 12일까지 SW 교육 '싹' 3기 모집</t>
+  </si>
+  <si>
+    <t>KT, 국내 SW기업 클라우드 전환 지원…“디지털전환 앞장”</t>
+  </si>
+  <si>
+    <t>2021.07.05. 오전 10:38</t>
+  </si>
+  <si>
+    <t>2021.07.05. 오후 5:24</t>
+  </si>
+  <si>
+    <t>2021.07.05. 오후 3:15</t>
+  </si>
+  <si>
+    <t>2021.07.05. 오후 7:44</t>
+  </si>
+  <si>
+    <t>2021.07.05. 오전 10:51</t>
+  </si>
+  <si>
+    <t>2021.07.02. 오전 9:09</t>
+  </si>
+  <si>
+    <t>2021.06.29. 오후 5:32</t>
+  </si>
+  <si>
+    <t>2021.07.02. 오후 2:52</t>
+  </si>
+  <si>
+    <t>2021.06.29. 오후 2:08</t>
+  </si>
+  <si>
+    <t>2021.06.30. 오후 3:55</t>
+  </si>
+  <si>
+    <t>2021.06.29. 오후 5:50</t>
+  </si>
+  <si>
+    <t>2021.06.30. 오전 11:00</t>
+  </si>
+  <si>
+    <t>2021.06.30. 오전 11:01</t>
+  </si>
+  <si>
+    <t>2021.06.30. 오후 5:14</t>
+  </si>
+  <si>
+    <t>2021.07.04. 오전 9:53</t>
+  </si>
+  <si>
+    <t>2021.07.01. 오후 2:56</t>
+  </si>
+  <si>
+    <t>2021.06.29. 오후 2:02</t>
+  </si>
+  <si>
+    <t>2021.06.29. 오전 10:00</t>
+  </si>
+  <si>
+    <t>2021.06.30. 오전 9:42</t>
+  </si>
+  <si>
+    <t>2021.06.29. 오후 5:14</t>
+  </si>
+  <si>
+    <t>2021.06.28. 오후 6:05</t>
+  </si>
+  <si>
+    <t>2021.06.30. 오후 5:11</t>
+  </si>
+  <si>
+    <t>2021.07.01. 오전 11:10</t>
+  </si>
+  <si>
+    <t>2021.06.29. 오전 11:19</t>
+  </si>
+  <si>
+    <t>2021.06.30. 오후 12:08</t>
+  </si>
+  <si>
+    <t>2021.06.30. 오전 4:09</t>
+  </si>
+  <si>
+    <t>2021.06.29. 오전 10:28</t>
+  </si>
+  <si>
+    <t>2021.06.30. 오후 4:02</t>
+  </si>
+  <si>
+    <t>2021.06.21. 오후 12:00</t>
+  </si>
+  <si>
+    <t>2021.06.23. 오전 9:04</t>
+  </si>
+  <si>
+    <t>머니S</t>
+  </si>
+  <si>
+    <t>매일경제</t>
+  </si>
+  <si>
+    <t>아이뉴스24</t>
+  </si>
+  <si>
+    <t>디지털타임스</t>
+  </si>
+  <si>
+    <t>전자신문</t>
+  </si>
+  <si>
+    <t>더팩트</t>
+  </si>
+  <si>
+    <t>한국경제</t>
+  </si>
+  <si>
+    <t>머니투데이</t>
+  </si>
+  <si>
+    <t>연합뉴스</t>
+  </si>
+  <si>
+    <t>파이낸셜뉴스</t>
+  </si>
+  <si>
+    <t>국민일보</t>
+  </si>
+  <si>
+    <t>뉴스1</t>
+  </si>
+  <si>
+    <t>뉴시스</t>
+  </si>
+  <si>
+    <t>중앙일보</t>
+  </si>
+  <si>
+    <t>이코노미스트</t>
+  </si>
+  <si>
+    <t>조선비즈</t>
+  </si>
+  <si>
+    <t>한전KDN(사장 김장현)이 최근 전남 신안군에 위치한 비금초와 도초초에서 '2021 섬으로 찾아가는 AI·SW코딩캠프(이하, 코딩캠프)'를 개최했다./한전KDN한전KDN(사장 김장현)이 최근 전남 신안군에 위치한 비금초와 도초초에서 '2021 섬으로 찾아가는 AI·SW코딩캠프(이하, 코딩캠프)'를 개최했다고 5일 밝혔다.이번 코딩캠프는 2018년에 한전KDN, 전남도교육청, 조선대학교가 전국 최초 산·학·관 협력사업의 일환이다.SW교육 선순환 학점과정 프로그램은 SW교육강사 양성과정을 수료한 대학생들의 SW로봇코딩과 한전KDN 사내벤처팀의 AI 자율주행 특강으로 구성됐다.한전KDN 코딩캠프에는 백성필 한전KDN 인사노무처장, 위경종 전남도교육청 교육국장과 조선대 SW중심대학사업단 교수진이 함께했다.코딩교육을 통해 초등학생들이 AI·SW 분야에 흥미를 갖고 미래를 위한 역량발달과 진로탐색에 도움이 되고자 실시했다.한전KDN은 'AI·SW코딩교육의 사회적 가치 확산'을 기치로 산·학·관 협력 SW교육강사 양성과정을 수년째 진행하고 있다.올해는 그 대상을 확대해 올해 36명의 대학생 강사를 배출했다. 교육 수료 후 다양한 형태의 교육기부활동을 펼치고 있다.이를 위해 2021년에는 전남·전북 초·중등학생들의 컴퓨팅 사고력 배양을 위해 도교육청에서 추천한 전남·전북 도내 15개 초·중등학생 200여명을 대상으로 스크래치, 파이썬, AI, 로봇활용 코딩교육 등의 과정을 진행하고 있다.교육에 참여한  문창희(도초초 5학년)학생은 "4차산업혁명이라는 말을 인터넷을 통해 접해 보았는데 실제로 그와 관련된 내용들을 알아보며, 로봇을 통해 재미있게 체험할 수 있어서 좋았다"고 소감을 말했다.백성필 한전KDN 처장은 "ICT전문 공기업으로서 업의 특성을 살린 AI·SW교육 기부를 통해 도서 지역의 어린이들에게도 교육의 기회를 확대하고, 사회적 가치 확산에 지속적으로 기여하겠다"고 밝혔다.</t>
+  </si>
+  <si>
+    <t>과기정통부 장관 기자간담회주52시간 힘들어도 시행해야우주·백신 분야 연구도 지속 임혜숙 과학기술정보통신부 장관이 '디지털 대전환'과 '인공지능(AI), 정보통신기술(ICT) 인재 양성'을 집중 지원하겠다고 밝혔다. 주52시간 근무제도에 대해서는 "쉽지 않다는 것을 알고 있지만 가야 할 방향"이라고 강조했고, 탈원전 정책은 향후 60년간 단계적으로 추진하되 소형모듈원자로(SMR) 등 장비 수출은 지속적으로 추진해 나가겠다고도 했다.임 장관은 5일 정부세종청사에서 취임 이후 첫 기자간담회를 열고 임기 중 꼭 성과를 내고 싶은 정책을 꼽아달라는 질문에 "정보통신기술을 전공한 사람으로서 디지털 뉴딜에 굉장히 애착을 갖고 있다"며 "특히 산업적 측면이나 일자리 창출 측면에서 여러 성과가 있을 텐데 디지털 포용 측면에서도 디지털 격차를 줄이고 혜택을 같이 누리는 방향으로 추진해 나갈 것"이라고 말했다.또 "현장을 다니면서 AI, 소프트웨어(SW) 인재가 매우 부족하다는 얘기를 많이 듣는다"며 "인재 양성은 학계에서 오래 있어 감을 잡고 있기 때문에 AI와 ICT 분야에서 좋은 인재를 양성해 산업체 수요에 부응하는 정책을 추진해 나갈 것"이라고 말했다.인재 양성 방법으로는 3대 축을 적극 지원할 계획이다. AI 대학원, SW 중심 대학 등 학계를 통한 인력 육성과 이노베이션 아카데미나 NHN 같은 민간 SW 교육기관을 통한 양성 방법, 그리고 재직자를 대상으로 하는 교육이다. 임 장관은 "자기 분야에 지식을 갖고 있는 분들이 SW 관련 수업을 듣고 교육을 받아 자기 분야에 활용하면 효과가 크다"며 "1년 정도 핵심교육을 받고 자기 분야에 접목하는 '마이크로 학위' 등 방법도 효율적일 것"이라고 말했다.그는 또 우주 분야 연구개발(R&amp;D)과 관련해 "한미정상회담에서 미사일지침이 종료됨에 따라 민간이 발사체 개발에 참여할 수 있는 기반이 마련됐고, 아르테미스(미국의 달 탐사 계획) 약정을 체결해 우주 탐사 프로그램을 추진할 수 있게 됐다"며 "이번 기회를 잘 살려 우주산업이 한 단계 도약하기 위한 전략을 착실히 추진해 나갈 것"이라고 말했다. 임 장관은 백신 분야 R&amp;D 지원과 인프라스트럭처  등을 조속히 갖추겠다는 계획도 내놨다.[이승윤 기자]</t>
+  </si>
+  <si>
+    <t>취임 후 첫 간담회…"학교·민간·재직자 대상 교육 등 추진"임혜숙 과학기술정보통신부 장관이 5일 오전 세종특별자치시 세종파이낸스센터 과기정통부 기자실에서 열린'출입기자 간담회' 에 참석해 인사말을 하고 있다.왼쪽부터 용홍택 제1차관, 임혜숙 장관, 조경식 제2차관, 이경수 과학기술혁신본부장.과학기술정보통신부 대변인실 이영규 [사진=과기정통부]임혜숙 과학기술정보통신부(과기정통부) 장관이 국가 연구개발(R&amp;D) 100조원 시대를 맞아 국가 차원의 우수인재 확보를 적극적으로 육성하겠다는 의지를 내비쳤다.임 장관은 5일 정부세종청사에서 열린 취임후 첫 기자간담회에서 "소프트웨어(SW)기업뿐 아니라 기존 제조업, 에너지업 등 업종에 관계 없이 디지털 전환이 가속화 되면서 SW 인재 수요가 커지고 있다"며 "현장을 돌다보니 SW, AI를 활용해 연구 데이터를 분석하고 새로운 의미를 도출해내는 인력에 대한 필요성이 강조되지만, 턱없이 부족하다는 이야기가 나왔다"고 말했다.임 장관은 인재육성 방안으로 3가지를 제시했다. 우선 SW중심대학과 AI대학원 등 기존 방식인 학교에서 인재를 양성한다는 계획이다. SW중심대학의 경우 3년동안 42개에서 64개로 확장해 나간다는 방침이다.이와 함께 이노베이션 아카데미나 NHN아카데미처럼 민간에서 SW교육을 담당하도록 하는 것을 추진하는 한편, 재직자 대상 교육을 함께 진행할 예정이다. 일례로 연구자들이 SW 훈련을 받아 본인의 연구에 활용할 수 있도록 한다는 것이다.임 장관은 "SW나 AI외에도 기본적 과학기술 기초연구를 위한 인재 양성도 굉장히 중요하다"며 "생애주기에 맞는 연구지원 사업을 통해서 연구자들이 연구비가 없어 연구를 단절하거나 낙오하지 않도록 하겠다. 청년과 여성을 위한 인력 양성에도 노력 기울이겠다"고 다짐했다.다음은 임 장관과 기자들간 일문일답이다.- 남은 임기가 7~8개월 정도라 성과 내기엔 길지 않다. 선택과 집중 필요한데 가장 성과 내고 싶은 부분은 어떤 것인지."ICT를 전공했다보니 디지털 뉴딜에 애착이 있다. 지난 1년동안 디지털 뉴딜에서 낸 좋은 성과를 이어가겠다. 산업이나 일자리 측면에서 여러가지 효과가 있다.이와 관련, 특히 디지털 포용에 관심이 크다. 디지털 시대에 어려움 느끼는 분들을 포용하면서 디지털 혜택을 누릴 수 있도록 하는 방향으로 정책을 추진하려 한다계속해서 성장하려면 어떤 연구개발에 투자할지에 대한 고민이 필요하다. 시스템반도체, 양자기술, 6G, 우주, 탄소저감 등에 과감한 연구개발(R&amp;D) 투자로 미래성장동력을 발굴하겠다.코로나19가 아직 극복 안되고 있는데 변이바이러스가 계속 출현하고 있다. 백신, 치료제 개발을 소홀히 할 수 없다. 이를 위한 연구, 후보물질 개발, 백신 플랫폼 개발 지원을 강화하겠다."- 아르테미스 약정 프로젝트 예산은 나사(NASA)와의 협의가 필요하다. 구체화된 부분이 있는지. 약정에 늦게 가입한 이유는 무엇인지."안전한 달탐사 원칙과 관련한 정책에 방향이 달려있다. 현재 달탐사와 관련해 나사가 쉐도우캠을 탑재해 달 극지지방 촬영하는게 있고, 한국천문연구원 주도로 미국 민간달착륙사업(CLPS)이 있다. 구체적인 이행방안은 미국측과 계속 협의 중이다. 이에 대한 올해 예산은 340억 정도다.아르테미스 사업은 우주탐사와 관련돼 있다. 한국은 위성과 발사체 중심으로 우주 사업을 추진하고 있다. 탐사는 약한 게 사실이다. 달탐사와 관련해서 우주탐사를 추진했는데, 직접적 연구와는 거리가 멀다. 그러다보니 늦었다.전체적으로 우주 관련한 실력이 향상되면서 인정을 받고 있다. 발사체, 위성, 활용하는 부분 등에 대해 계획을 짜고 있다."- 주 52시간제가 본격화 된다. 업무 특수성이 있는 과학분야는 충격이 있을 텐데 어떻게 대응할 계획인지."ICT 업계가 주 52시간에 맞춰 일하는 게 어렵다는 걸 알고 있다. 그러나 방향은 정확하다. 업무 때문에 가정이나 자기계발에 소홀히 하는 일 없도록 업무를 수행하고 일과 가정 밸런스를 만들어가는 방향성이 맞다. 현장에 나가서 어떻게 주 52시간 지키면서도 경쟁력 잃지 않을 수 있는지 의견을 듣고 방향성을 잡는 노력을 하겠다."- 누리호 개량 사업 예산이 삭감됐다. 어떤 방식으로 2030년 달탐사 등을 목표로 한 우주개발 정책을 추진할 것인가."누리호 관련 예비타당성(예타)은 반복발사와 개량형 두종류다. 반복발사는 예타를 통과했다. 앞으로 누리호를 4번 반복해 발사할 준비 되고 있다. 반면 개량형은 통과하지 못했다. 도전성이 부족하고 미사일지침 결과가 반영되지 않았다는 평가를 받았다. 이를 보완해서 다시 한 번 추진하겠다."- 나로호 우주센터에 민간 발사장을 구축한다고 했는데, 업계에선 완성된 로켓을 발사하는 곳으로 안다. 이전에 실험 발사해야 하는데 관련 공간이 없어 해외로 나갈 수 밖에 없다. 어떻게 보는지."발사장 개발에 대한 계획이 있다. 발사체 완성단계 여부는 구체적으로 정의되지 않았다. 우주산업체를 위해서 민간발사장을 개방하는 것으로 완성된 발사 서비스만 제공하는 것은 아니다 시범 발사도 포함될 수 있다. 구체적인 계획은 수립 중이다."- 우리나라도 우주 인터넷 서비스 시장에 진입해야 한다는 이야기가 나온다. 어떤 계획이 있는지."6G 기초 연구 개발과 이를 위한 소형 위성 연구개발 및 발사 등과 관련 부분이 과기정통부 추진해야 할 부분이다. 6G 기술은 인공위성을 쏘면 소형 위성에 의해 인터넷 데이터가 중계되는 기술이다."- 퍼스트무버 연구환경을 마련하겠다고 했다. 성과주의예산제도(PBS)나 예타 제도 개선 등에 대한 목소리가 나온다. 어떻게 보는지"PBS 제도에 대한 어려움이 있지만 연구원에 따라 긍정적으로 보는 곳도 있다. 일괄적 개선은 어렵다. 과제가 파편화돼 있고 단기 성과 과제들이 PBS로 나온다는 말을 들었다. 과제를 장기화하고 대형화하는 방식으로 개편하겠다. 장기적 안목 갖고 진행해야 한다. 출연연 출연금에 대해서도 작은 분류까지 이슈에 대응할 여지가 별로 없다는 이야기가 있다. 대과제를 반영하도록 심의하겠다."- 탈원전 기조가 맞다고 언급한 바 있는데, 업무파악 후 견해에 변화가 있는지."(정부가) 당장 탈원전을 하는 게 아니다. 60년에 걸쳐 서서히 원자력 의존도를 낮춰간다는 기조다. (탈원전에는) 여러 이유가 있다. 한국은 작은 국토 면적에 3-4군데 집중적으로 대형 원전이 건설돼 있다. 위험도가 있을 수 있어 탈원전 기조가 결정된 것이다.이에 대한 입장 변화는 없다. 서서히 원전 의존도를 낮춰가야 한다. 한국의 원자력 기술은 세계적이다. 이를 잘 활용해서 다른 나라에 원전을 수출하거나 해외 원전 건설에 있어 여전히 추진해가야 한다. 적극 연구개발도 진행하고 추진해야 한다.우리나라가 원전을 짓지 않으면서 수출하는 것에 대한 논란이 있을 수 있지만, 한국 상황에 맞춰 충분한 설득이 필요하다. 한국 기술을 필요로 하는 곳이 있다면 세계적 수준이니 수출할 수 있다."- 국산 코로나19 백신과 치료제 개발 시점은 언제로 보는지."이는 국민 모두의 염원이다. 백신 개발 상황을 보면 2상, 3상 임상을 진행하는 곳이 몇 군데 있는데 특히 3상 진입에 여러 어려움이 있다. 우리나라는 코로나 환자가 별로 없어서 해외에서 임상을 해야 한다. 그러려면 막대한 예산이 들다보니 어려움이 있다.반면 국산 치료제는 조건부 승인을 받아 치료에 사용되고 있기도 하다. 백신 치료제는 지속적으로 진행해가야 한다. 감염병이 금방 끝나지 않을 것 같은 데다 변이 바이러스까지 나오고 있다. 우리나라가 백신 개발 경험을 확보하고 플랫폼을 갖는 게 중요하다. 그런점에서 과기정통부는 후보 물질 개발, 동물 실험 등 연구개발에 있어 적극 지원할 계획이다."- 국가과학기술연구회(NST) 이사장직을 맡았었다. 최근 차기 이사장 선임이 마무리 되고 있다. 이사장을 선임하는 데 있어 중요한 요소가 무엇이라고 생각하는지. "현재 3배수 후보가 추려진 걸로 안다. 이 중 늦지 않은 시간 내 선임 이뤄질 것이다. 중요하게 생각하는 이사장 역량은 출연연 현황을 잘 파악하고 비전과 나아갈 방향성을 잘 제시할 수 있는 것이다."- 통신3사가 28㎓ 5G 실증사업을 진행 중이다. 연내 기지국 의무구축이 가능하다고 보는지, 공동 구축도 가능한지. "28㎓ 공동 구축은 좋은 아이디어가 아니다. 아직 살펴보고 있지 않다. 의무구축 기간은 연말까지로 정해져 있다. 내년에 의무구축 실태를 점검하고, 그 때 정책 방향을 말하겠다.앞서 통신 3사 대표와 만나 실증사업에 대해 논의했다. 많은 실증사업을 통해 국민이 28㎓ 새 서비스를 체감할 수 있도록 해달라고 부탁했다. 이와 달리 3.5㎓ 농어촌 지역 공동구축은 좋은 아이디어다. 모바일월드콩그레스(MWC)에서 상도 받았다."- 디지털세가 추진되는 과정에서 한국에선 구글 등이 포함됐고, 해외에선 삼성전자나 SK하이닉스가 과세대상으로 포함됐다. 어떻게 생각하는지."디지털세는 국제적 논의가 필요한데 G20(주요 20개국) 재무장관 회의에서 논의하겠다고 하니 반갑다. 기본적으로 구글이나 넷플릭스 같은 플랫폼 사업자들이 우리나라에서 과세 받는건 좋지만 삼성전자나 SK하이닉스와 같은 수출 주도 기업이 해외에서 과세를 받게 되는 것은 생각해 봐야 할 부분이다. 구체적 내용이 확정되면 우리가 할 수 있는 전략들을 마련할 것이다."- 1년 전 수립한 디지털 미디어 생태계 발전방안에 성과가 없다. 부처가 나뉘어 있어 적극적으로 추진 못 하는 것 같다. "디지털 미디어 생태계 조성에는 방송통신위원회, 문화체육관광부, 과기정통부 등 여러 부처가 함께하고 있다. ICT관련 산업 발전을 위해서는 주무부처가 꼭 필요하다. 디지털 미디어 관련 산업은 과기정통부가 주체가 되고 관련 부처와 업계의 협력을 이끌어 산업을 진흥시켜 나가야 한다."- 얼마전 SK브로드밴드와 넷플릭스 망이용대가 관련 판결이 나왔다. 후속으로 정책 방향 고민하고 있는 것이 있는지."1심 소송 결과가 나왔는데 업계에서 후속 조치가 진행될지 두고 봐야 한다. 과기정통부는 온라인동영상서비스(OTT)나 콘텐츠 등과 같은 신사업이 규제에 발목잡히지 않도록 정책방향을 설정하고 지원하겠다."- 디지털 뉴딜과 관련해 국민이 체감할 수 있는 성과는 어떤 게 있는지. 디지털 포용 정책 말했는데 해봤으면 하는 정책은 무엇인지."디지털 뉴딜을 추진한 지 1년밖에 안 됐는데 각 산업에서 빠르게 디지털 전환을 이루고 있다. SW, AI 관련 업계에서는 데이터를 활용한 새로운 서비스를 출시하고 있다. 비ICT 기업도 업무에서 데이터를 활용하고 있다.일자리 창출에서도 성과가 나타나고 있다. 인공지능 학습용 데이터 구축에서 4만2천명의 일자리를 창출했다. 코로나19로 어려운 고용시장에 도움이 됐다고 생각한다. AI학습용 데이터 구축을 위해 674개 기업이 참여한 것도 적지 않은 않은 성과다.디지털 포용과 인력 양성에서도 결과가 나오고 있다. 디지털 포용 관련해서는 1천개 이상 디지털 배움터를 운영했고 43만명의 어르신들이 교육을 받았다. 디지털 지식이 부족해도 기기를 잘 활용할 수 있도록 하겠다."</t>
+  </si>
+  <si>
+    <t>취임 후 첫 기자간담회 개최연구현장 생애주기 맞춤 지원여성연구자 경력단절 해소 강조"디지털격차 없도록 포용정책도"임혜숙(왼쪽에서 두번째) 과기정통부장관, 용홍택(첫번째) 과기정통부 1차관, 조경식(세번째) 과기정통부 2차관, 이경수(네번째) 과학기술혁신본부장이 5일 세종특별시 청사에서 출입기자단 간담회를 갖고 향후 정책 방향에 대해 설명하고 있다. 과기정통부 제공    임혜숙 과학기술정보통신부 장관은 5일 "디지털 뉴딜 분야에서 성과를 지속적으로 창출하고, 디지털 포용 실현과 AI(인공지능)·소프트웨어 인재양성에 정책 역량을 집중하겠다"고 밝혔다.임 장관은 이날 세종에서 취임 이후 처음 열린 출입기자 간담회에서 앞으로 과기정통부의 역점 정책 방향에 대해 이 같이 말했다.  임 장관은 "이 달(7월)은 한국판 뉴딜의 핵심 축인 디지털 뉴딜을 추진한 지 1년이 되는 시점으로, 그간 거둔 산업적, 일자리 측면에서의 좋은 성과를 이어 나가겠다"면서 "국민들이 디지털 격차 없이 디지털 혜택을 골고루 같이 누릴 수 있는 '디지털 포용' 정책도 펴 나가겠다"고 피력했다.특히, 디지털 전환 가속화를 맞아 부족한 AI(인공지능), 소프트웨어 인력양성에 정부 투자를 늘려 산업체 수요에 대응하겠다는 의지를 강조했다. 임 장관은 "얼마 전 민간에서 소프트웨어 인력을 양성하는 '이노베이션 아카데미'를 방문했는데, 소프트웨어에 대한 학생들의 열정과 비전에 깊은 인상을 받았다"며 "SW 중심대학과 AI 대학원을 활용한 우수 인재 양성에 대한 투자 강화와 민간 지원 확대, 출연연 연구자 대상 재직자 SW 교육 등을 추진하겠다"고 설명했다.그러면서 "과학기술 분야 기초 연구자들이 장기적으로 좋은 연구를 할 수 있도록 생애 주기에 맞게 지원하고,신진 연구자와 여성 연구자가 중간에 연구 단절 없이 연구를 이어가는 지원 방안을 마련하겠다"고 덧붙였다.OTT, 콘텐츠 등 디지털 신산업을 활성화하기 위한 정책 추진 의사를 분명히 했다.임 장관은 "최근 SK브로드밴드와 넷플릭스 간 1심 소송 결과 이후 양측의 후속 진행 여부를 봐 가면서 과기정통부의 입장을 마련할 계획"이라며 "궁극적으로 새로 등장하는 디지털 분야의 새로운 산업과 서비스가 규제에 발목 잡히지 않고 활성화되는 방향에서 정책을 추진하겠다는 게 과기정통부의 입장"이라고 강조했다.OTT 등 디지털 미디어 정책과 관련해서는 "과기정통부가 주체가 돼 방통위, 문체부 등 관련 부처와 업계의 협력을 이끌어 내 산업 활성화를 위한 생태계를 만드는 데 노력하겠다"고 말했다. 이어 28㎓ 5G 기지국 구축과 관련해서는 "이통3사에 실증사업을 많이 해서 국민들이 새로운 서비스를 체감할 수 있도록 해 달라고 부탁했다"면서 "의무 구축기간인 올해 말까지 진행한 후, 점검을 통해 내년 정책 방향을 정할 계획이고, 28㎓ 공동 활용은 좋은 아이디어가 아니다"고 설명했다. 코로나19 백신과 치료제 개발에 대한 과기정통부의 지원 계획도 밝혔다. 임 장관은 "현재 국내 일부 기업이 백신 임상3상을 준비하고 있는데, 임상 대상자가 국내에는 많지 않고, 돈도 많이 들어 어려움을 겪고 있다"며 "코로나 변이 바이러스 확산과 신변종 감염병 대응 등을 위해 국산 백신, 치료제 개발을 위한 독성평가, 후보물질, 동물실험 등을 계속 지원하겠다"고 말했다.PBS(연구과제중심제도) 등 출연연 현안 해결과 관련 "일부 연구자는 PBS에 긍정적으로 생각하고 있어 일괄적으로 개선하는 것은 어렵다"며 "연구과제가 단기, 소형화돼 있는 것을 장기, 대형화해 안정적인 연구를 지원하고, 국가·산업 이슈 발생 시 출연연이 이에 적절히 대응할 수 있는 연구과제 마련도 추진하겠다"고 설명했다. 임혜숙 과기정통부 장관이 5일 세종에서 열린 출입기자단 간담회에서 향후 과기정통부의 정책 방향에 대해 설명하고 있다. 과기정통부 제공</t>
+  </si>
+  <si>
+    <t>이형세 테크빌교육 대표(왼쪽에서 두번째)와 조상용 글로브포인트 대표(오른쪽에서 두번째)가 업무협약을 맺고 기념사진을 촬영하고 있다.테크빌교육(대표 이형세)은 글로브포인트(대표 조상용)와 가상현실(VR) 및 메타버스 교육의 공교육 시장 진출을 위해 업무협약(MOU)을 체결했다고 5일 밝혔다.메타버스는 가상, 초월이라는 의미의 메타(Meta)와 현실 세계를 의미하는 유니버스(Universe) 합성어다. 3차원을 포함하는 가상세계를 의미한다.양 기관은 협약에 따라 공교육에서 메타버스 교육 환경을 구축할 수 있도록 협력체계를 마련하고 글로브포인트의 VR 교육 프로그램인 'VRWARE(VR웨어)'를 공교육 시장에 선보인다. VR웨어는 학생이 직접 가상현실 맵을 디자인하고 캐릭터를 만드는 등 자신이 만든 VR 세계를 체험할 수 있도록 지원한다. 블록코딩과 로봇코딩을 활용할 수 있는 교육용 소프트웨어(SW)다.글로브포인트는 VR교육 노하우를 기반으로 기술적 지원을 담당하고 테크빌교육은 공교육에 적합한 메타버스 콘텐츠 개발과 교육청 및 학교, 교사 대상 영업을 책임지기로 했다. 또 글로브포인트와 함께 자문단을 구성해 공교육 수요에 적합한 형태로 VR웨어를 지속 개선하기로 협의했다.이창훈 테크빌교육 에듀커머스사업부문 대표는 “메타버스가 현실에서 체험하기 어려운 다양한 관계 경험을 제공하는 만큼 교육에서도 적용할 점이 많다”며 “글로브포인트와의 협약을 시작으로 공교육 시장에 최적화 된 메타버스 교육환경을 구축하는데 앞장설 것”이라며 포부를 전했다.조상용 글로브포인트 대표도 “공교육 시장에서 20년간 노하우를 축적한 테크빌교육과 상호협력 할 수 있게 돼 기쁘게 생각한다”며 “VR기술 기반의 우수한 SW를 지속적으로 연구·개발해 나갈 것”이라고 말했다.</t>
+  </si>
+  <si>
+    <t>광주시교육청이 초·중·고·특수학교 전체 일반교실에 최신 와이파이6 규격의 기가급 학교 무선망(Wi-Fi) 구축을 완료했다. 사진은 광주시교육청 청사./광주시교육청 제공디지털교과서 활용‧원격수업 등 미래교육환경 마련 광주시교육청이 ‘학교 무선망 구축 사업’의 일환으로 관내 초·중·고·특수학교 전체 일반교실에 최신 와이파이6 규격의 기가급 학교 무선망(Wi-Fi) 구축을 완료했다.2일 시교육청에 따르면 학교 무선망 구축 사업은 △AI·SW교육 △디지털교과서 활용 △온라인 공동교육과정 △원격수업 지원 등 교실 내 무선망(Wi-Fi)을 구축하는 사업이다. 이번 7,924개의 일반교실에 국고 52억여 원을 포함한 총 132억여 원을 들여 무선망을 구축했다.시교육청은 일반교실 외에 특별교실, 교과교실 등 학교의 추가적인 수요가 많아 올해 하반기에는 전체학교 특별교실 1,284실에 무선망을 추가 구축할 계획이다. 내년까지 필요한 모든 학습 공간에 무선망을 설치할 방침이다.일선 학교 교사들은 "학생 스스로 태블릿을 이용해 자료를 검색하고 문제해결 방법을 찾을 수 있어 수업집중도가 향상됐다"고 말하며 "기존 공유기로 수업할 때에 비해 끊김 없이 인터넷 활용 수업을 원활하게 진행할 수 있게 됐다"고학교 무선망 구축에 매우 만족스러운 반응을 보였다.시교육청 교육자치과 현경식 과장은 "관내 전체 학교의 모든 교수학습공간에서 언제나 무선망(WiFi)을 이용해 효율적 교수학습이 이뤄질 수 있도록 인프라를 지속적으로 확충·개선해 나가도록 노력하겠다"고 말했다.</t>
+  </si>
+  <si>
+    <t>삼성청년SW아카데미 年 2300명으로 늘리기로"디지털 분야 청년인재 키우자"정부·대한상의, 취업교육 협업SK하이닉스, 반도체 실무교육포스코, AI·빅데이터 교육 강화삼성전자와 SK하이닉스, 포스코 등이 자체적으로 운영 중인 인재양성 프로그램 정원을 대폭 늘리기로 했다. 정부가 비용의 일부를 대는 조건이다. 젊은 구직자들이 선호하는 디지털 분야 일자리가 더 증가할 것이란 전망이 나온다. “디지털 일자리를 늘려라”기획재정부와 고용노동부는 최근 서울 대한상공회의소에서 인재양성 프로그램 확대를 위한 실무협의회를 열었다고 29일 밝혔다. 대기업이 사회공헌 차원에서 시행 중인 디지털 분야 취업 교육 프로그램을 지원한다는 것이 협의회의 결론이다.교육생과 강사 선발, 교육 프로그램 마련 등은 지금까지처럼 기업의 몫이다. 정부는 교육 확대에 대한 비용 중 일부를 분담한다. 구체적인 지원 규모와 절차, 방식 등은 추가 논의를 거쳐 정할 계획이다. 대한상의는 신규 참여기업 발굴, 수료생의 취업 지원 역할을 맡게 된다.정부의 지원 대상으로 선정된 프로그램은 삼성전자의 ‘삼성청년SW 아카데미’(SSAFY), SK하이닉스의 ‘청년하이파이브’, 포스코의 ‘AI·빅데이터 아카데미’ 등이다. SSAFY는 기수당 500명, 연간 1000명을 교육하는 프로그램이었다. 정원이 늘어나는 것은 올해부터다. 상반기 750명, 하반기에 950명이 프로그램에 참여한다. 내년엔 연간 교육 인원이 2000명을 넘어설 전망이다. 삼성전자는 기수당 선발 인원을 1150명까지 확대할 예정이다.SK하이닉스는 300명 정원의 기존 프로그램과 별도로 연 400명 이상에게 교육훈련을 제공하는 프로그램을 신설하기로 했다. 포스코는 올해 교육 인프라를 확충해 연 200명인 교육 인원을 내년부터 300명으로 늘릴 계획이다.기재부 관계자는 “기업이 공익 차원에서 제공 중인 ‘높은 품질의 공공재’ 공급이 수요에 미치지 못한다는 점에 착안해 정부와 기업의 협업 모델을 내놓게 됐다”며 “교육 프로그램을 제공하는 것을 넘어 일자리가 필요한 청년층과 디지털 분야 채용을 희망하는 기업을 연결하는 ‘디지털 취업 플랫폼’을 구축하는 것이 궁극적인 목표”라고 말했다. SSAFY 수료생 취업률 70% 육박SSAFY는 이재용 삼성전자 부회장이 직접 챙기는 것으로 알려진 사회공헌 프로그램이다. 1년간 매일 8시간씩 1600시간의 교육을 받아야 할 만큼 학습량이 많은 것으로도 유명하다. 1학기엔 코딩 교육(800시간)을 받고 2학기에 실전 프로젝트를 수행한다. 신한은행, 신세계 I&amp;C 등과 연계한 산학 프로그램을 통해 현장 경험을 쌓을 수 있다.2018년 12월 문을 연 SSAFY는 4기까지 2087명이 수료했다. 이 가운데 1411명이 일자리를 찾아 68%의 취업률을 보였다. 취업에 성공한 수료생 중 455명은 소프트웨어 비전공자였다. SSAFY를 통해 새로운 진로를 찾은 셈이다.2018년 만들어진 SK하이닉스의 청년하이파이브는 반도체 인재 육성 프로그램이다. 교육 프로그램을 이수하면 SK하이닉스 협력업체에서 3개월간 인턴으로 근무할 기회를 얻는다. 인턴을 마친 수료자 중 70%가량이 정규직으로 취업한다는 것이 회사 측 설명이다.AI·빅데이터 아카데미도 구직자 사이에서 인기를 끄는 프로그램으로 꼽힌다. 파이썬, 인공지능, 빅데이터 이론을 배우고 실습과제를 수행하며 실무 역량을 쌓을 수 있다. 성적 우수자는 포스텍의 연구 인턴으로 일할 수 있다. 포스코 계열사에 지원하면 가점을 받을 수 있다.송형석 기자 click@hankyung.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		[한전KDN-조선대 연계]전남교육청의  '섬으로 찾아가는 AI SW교육' 장면.전남교육청이 지난 1~2일 신안군 비금초등학교와 도초초등학교에서 한전KDN-조선대학교와 연계해 '섬으로 찾아가는 AI·SW교육'을 실시했다고 밝혔다. 전남교육청에 따르면 여름 섬으로 찾아가는 AI·SW교육은 섬 지역이 많은 전남지역의 특수성을 반영한 사업으로, 한전KDN과 조선대가 전남교육청과 연계해 지난 2019년부터 진행하고 있다. AI·SW교육은 ICT전문기업인 한전KDN과 SW중심교육대학인 조선대가 협력해 희망하는 전남 지역 섬 학교에 직접 찾아가서 교육해 주는 봉사활동이다.지난 1일는 비금초 3~6학년 50명, 2일에는 도초초 1~6학년 67명을 대상으로 교육이 이뤄졌다. 학생들은 AI자율주행에 대한 한전KDN의 특강을 들은 뒤 Ozobot(오조봇)을 활용한 미래도시(자율주행 자동차) 토론을 벌였다. 또, 직접 미래도시 경로를 그리게 하는 활동, Jimm(지무)로봇 기본동작을 블록 코딩을 통해 동작시키고 센서를 활용해 코딩을 해보는 활동, Alpha(알파) 로봇을 활용해 로봇 군무를 코딩으로 동작시키는 활동 등 다양한  프로그램이 진행됐다.위경종 전남교육청 교육국장은 비금초를 방문해 학생들을 격려하며"비금도 출신인 이세돌 바둑기사가 세계최초로 인공지능 알파고를 이겼던 것처럼 전남 섬지역 학교에서도 인공지능 미래사회를 이끌어가는 세계적인 미래인재가 나올 수 있었으면 좋겠다"고 말했다.</t>
+  </si>
+  <si>
+    <t>SW산업協·SW중심대학협의회·전자신문·이티에듀 협약SW 전공자 교육 프로그램 개설·현직 전문가 멘토로 수업 지원산학 채용 연계 프로그램 마련…우수기업 발굴 통해 미스매치 해소소프트웨어(SW) 인재양성을 위한 산·학·언 업무협약식이 29일 서울 송파구 한국소프트웨어산업협회에서 열렸다. 왼쪽부터 양승욱 전자신문사 사장, 조준희 한국SW산업협회장, 나연묵 SW중심대학협의회장, 신혜권 이티에듀 대표. 이동근기자 foto@etnews.com+산업 맞춤형 소프트웨어(SW) 인재를 양성하는 산·학 협력 교육프로그램이 나온다. 민간 차원에서 SW 인재 수급 불일치 문제 해소와 국가 SW 경쟁력 제고에 기여할 것으로 전망된다.한국소프트웨어산업협회, 소프트웨어중심대학협의회, 전자신문사, 이티에듀는 29일 서울 송파구 SW산업협회에서 산업 맞춤형 SW 인재 양성을 위한 협약을 체결했다.SW 산업 대표 단체와 41개 SW중심대학 대표 협의회, 정보통신기술(ICT) 분야 전문 미디어, SW 교육 전문기업이 힘을 모아 SW 산업계의 고질적인 인력난 해소에 나선다.이들 4개 기관은 산업 맞춤형 SW 인재 양성을 위해 SW 전공자 교육 프로그램을 개설한다. SW산업협회 소속 기업은 물론 금융·유통·플랫폼 등 다양한 기업 SW 인재 요건을 파악, 대학 전공자 커리큘럼에 반영한다. 기업 SW 관계자가 SW 전공학생 멘토로 나서 현장 프로젝트 수업을 지원한다.SW 개발자 수요 급증에 따른 비전공자 대상 SW 인재 양성 프로그램을 확대한다. 대학과 연계, 비전공 재학생과 취업준비생 등 대상 기업 맞춤형 교육 프로그램을 운영한다. 또 개발자 채용에 어려움을 겪고 있는 중견·중소기업에 도움을 준다.참여 기관은 산·학 SW 인재 채용 연계 프로그램도 마련한다. 우수 중견·중소기업을 발굴해 대기업과 특정 기업에 편중되는 대학생 취업 선호 현상을 다변화한다. 구직자 이수 과목 등 세부 이력 사항과 구인 기업 세부 업무 내용을 포함한 채용 데이터베이스(DB) 시스템을 구축, 공유한다. 기업이 원하는 인재상을 실제 교육프로그램에 반영하는 것이 가장 큰 특징이다. 학생도 자신의 경쟁력 및 역량을 담은 정보를 기업과 공유할 수 있다. 이른바 '미스매치' 현상을 해소하는 효과가 기대된다.산업 맞춤형 SW 인재를 양성하고 효과적 채용과 취업이 이뤄지도록 인식 확산 사업을 펼친다. 다양한 홍보로 산업과 대학의 SW 인재 수급 불일치 문제를 해결한다는 계획이다.조준희 SW산업협회장은 “대학에서 SW 산업 현장에 필요한 인재를 배출하도록 회원사 요구를 잘 전달하겠다”면서 “인력 미스매치 현상을 해결하는 롤모델로 정착하기를 기대한다”고 밝혔다. 나연묵 SW중심대학협의회장은 “산업의 요구를 체계적으로 반영, 맞춤형 SW 인재를 양성해서 채용으로 연결하겠다”고 전했다.양승욱 전자신문사 사장은 “산업 맞춤형 SW 인재가 양성되고 효과적 채용으로 이뤄지도록 인식 개선과 관련 기관 간 조율을 적극 지원하겠다”고 강조했다. 신혜권 이티에듀 대표는 “SW 인재 양성을 위해 기업과 대학 가교 역할을 수행, 맞춤형 교육 프로그램 운영을 지원하겠다”고 약속했다.</t>
+  </si>
+  <si>
+    <t>동명대 캘리포니아주립대 SW 리더 양성 프로그램[동명대 제공]    (부산=연합뉴스) 조정호 기자 = 동명대 SW중심대학사업단은 7월 1일부터 8월 13일까지 6주간 미국 유망 정보기술(IT) 기업과 함께하는 캘리포니아주립대 연합 언택트 해외 SW리더 양성 프로그램을 운영한다고 30일 밝혔다.    7월 1일 열리는 기념식에는 전호환 동명대 총장, 캘리포니아주립대 스테니슬라우스 총장 등 두 학교 보직자와 참여 학생 20여 명이 참여한다.    이번 교육에서 두 대학 학생들은 팀을 구성해 프로젝트를 수행하고 글로벌 기업 SW 엔지니어(구글, 아마존, Linkedin, Nutanix, IBM) 5명으로부터 강의를 듣는다.     동명대와 캘리포니아주립대 비대면 연합 프로그램은 올 1월에 이어 두 번째다.    1차 교육에서 동명대 학생 10명이 과정을 수료했다.     동명대 SW중심대학사업단은 "참여 학생들은 캘리포니아 주립대 학생과 프로젝트를 하면서 협업 능력과 영어 실력을 높였고 대학 교수 멘토링과 글로벌 기업 전문가 특강을 통해 코딩 능력 향상과 최신 소프트웨어 개발 기술을 습득했다"고 말했다. ccho@yna.co.kr</t>
+  </si>
+  <si>
+    <t>삼성전자, 정부와 손잡고 디지털인재 육성 대폭 확대SK·포스코·상의도 동참정부, 비용 절반 지원하기로SK하이닉스는 직무교육 신설포스코, AI교육생 100명 늘려대한상의는 취업알선 팔걷어삼성전자에서 운영하는 `삼성 청년 소프트웨어(SW) 아카데미` 4기 교육생들이 대전 캠퍼스에서 프로젝트를 진행하고 있다. [사진 제공 = 삼성전자] 올해 만 26세인 김동걸 씨는 경상대 컴퓨터과학과를 졸업하고 농협중앙회에 입사했다. 그는 삼성전자가 운영하는 '삼성 청년 소프트웨어(SW) 아카데미(SSAFY)'를 수료하고 정보기술(IT) 개발직군 취업에 성공한 사례다. 김씨는 "SSAFY에서 배운 자바(JAVA) SW 플랫폼을 업무에 바로 적용할 수 있었다"며 "SSAFY는 누구보다 탄탄한 기초와 다양한 SW 프로젝트를 접할 수 있어 SW 개발자로서 빠르게 성장할 수 있는 교육 플랫폼"이라고 말했다.  삼성전자 SK하이닉스 포스코 대한상공회의소가 현재 운영 중인 디지털 청년인재 양성 프로그램을 대폭 확대해 국내 첨단인재 풀(pool)을 키우는 데 기여하기로 했다. 기획재정부 고용노동부와 삼성전자 SK하이닉스 포스코 대한상의는 지난 24일 서울 대한상의에서 '기업 우수 인재 양성 프로그램 확대' 사업 실시를 위한 실무협의회를 열고 이 같은 방안에 뜻을 모았다고 29일 밝혔다. 이번 파트너십을 통해 확대되는 교육 프로그램은 삼성전자 SSAFY 외에도 SK하이닉스 '청년 하이파이브', 포스코 '인공지능(AI)·빅데이터 아카데미' 3개 과정이다. 정부는 계획대로 프로그램이 확대되면 내년부터 이들 과정의 전체 교육훈련생 수가 지난해 1500명보다 두 배 이상으로 늘 것으로 전망한다. 정부도 교육 확대 비용의 절반을 예산에서 지원하기로 했다. 우선 삼성전자는 연간 1000명인 SSAFY 교육생을 내년부터 2000명 이상으로 증가시키기로 했다. SSAFY는 현재 매년 2기를 뽑으며 기수당 500명을 선발한다. 삼성전자는 올해 상반기 SSAFY 5기 교육생을 750명으로 증원한 데 이어 하반기 교육생은 950명으로 순차 확대하고 내년부터는 기수당 교육 규모를 약 1150명까지 키울 예정이다. 또 다음달 9일에는 부산시에 'SSAFY 부울경 캠퍼스'를 개소하고 이미 설립한 구미·광주 캠퍼스 교육생도 늘려 지방 SW 인재 육성에도 초점을 맞춘다.SSAFY는 이재용 삼성전자 부회장이 관심을 쏟아 출범한 삼성의 교육 사회공헌 프로그램이다. 이 부회장은 청년 인재 육성과 고용, 투자 등에 초점을 맞춘 '동행(同行)'을 삼성의 경영철학으로 강조해왔다. 취약계층과 청년들에게 교육 기회를 제공하는 프로그램도 앞장서서 키웠다. 취약계층 청소년들의 학업을 지원하는 '삼성 드림클래스' 역시 이 부회장이 직접 챙긴 교육공헌 사업이다.삼성은 SSAFY를 2018년 8월 8월 '경제 활성화와 일자리 창출 방안'의 일환으로 발표했다. 2018년부터 5년간 취업준비생 약 1만명에게 양질의 SW 교육을 실시한다는 목표를 뒀다. SSAFY를 운영하는 삼성전자는 2018년 12월 서울 대전 광주 구미 4개 지역에 교육 캠퍼스를 열었다. 부울경 캠퍼스가 개소하면 SSAFY 캠퍼스는 총 5곳이 된다.SSAFY는 29세 이하 4년제 대학 졸업자를 대상으로 한다. SW 전공자뿐 아니라 다른 이공계 전공자, 인문계 전공자까지 지원해 교육을 받을 수 있다. SSAFY에 지원해 합격한 교육생은 1년간 매일 8시간씩 총 1600시간의 교육과정을 이수한다. 1학기는 5개월간 800시간짜리 코딩 집중 교육도 받는다. 삼성은 이 같은 교육 분량이 SW를 전공하는 대학생의 2년치 22개 과목 학습량과 같다고 설명했다. 이어지는 2학기는 5개월간 자기주도 학습을 실시하며 실전 프로젝트에 도전하는 시간으로, 기업에서 실제 프로젝트를 진행하는 것 같은 경험을 교육생에게 제공한다.현재까지 SSAFY는 4개 기수에서 총 2087명이 수료했다. 이 가운데 약 68%인 1411명이 취업에 성공했다. 특히 취업한 수료생 중 32%인 455명은 SW 비전공자지만 SSAFY에서 새 진로를 개척했다. 수료생들은 삼성전자는 물론 신한은행, 카카오, LG CNS, SK(주) C&amp;C 부문, 네이버, 쿠팡, 신세계I&amp;C, NH농협은행, KB국민은행, 현대자동차를 비롯해 다양한 국내 주요 기업에 취업했다. 이들이 취업한 기업의 수는 480여 개다. 신세계I&amp;C는 SSAFY 수료생을 위한 수시전형도 실시했다. 삼성은 "SSAFY는 일자리를 구하지 못한 청년들에게는 새로운 진로를 열어주고 수요에 비해 공급이 부족한 기업에는 양질의 인력을 제공한다"며 "국가 SW 인재 경쟁력을 강화하고 청년 실업률을 감소시키는 효과도 있다"고 자평했다.한편 SK하이닉스가 운영하던 청년 하이파이브 프로그램 역시 대폭 확대된다. 청년 하이파이브는 인턴십과 직무교육으로 이뤄져 있는데 이번에 직무교육을 분리해 별도 교육과정을 올해 하반기 신설할 예정이다. 기존 하이파이브 프로그램은 연 300명 규모로 유지되며 신설 과정은 추가로 400명을 매년 모집해 교육 훈련을 실시한다. 포스코가 실시하는 AI·빅데이터 아카데미도 연간 교육생을 현 200명 규모에서 내년부터 300명으로 늘리기로 했다. 2017년 포스코와 포스텍(포항공대)이 함께 만든 AI·빅데이터 아카데미는 초창기 2년간 수료생 연 70여 명을 배출했으나 현재는 200명(차수당 최대 50명)까지 늘렸다. 포스코는 교육 확대에 대비해 인프라 또한 확충하기로 했다.대한상의는 교육 운영기관으로서 참여기업이 교육에만 전념할 수 있도록 필요한 행정사항을 지원한다. 신규 참여기업 발굴과 훈련 수료생이 관련 분야 기업에 취업할 수 있도록 지원하는 것도 대한상의 역할이다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		(서울=연합뉴스) 김영신 기자 = 삼성전자는 7월1일부터 청소년을 대상으로 '2021 삼성 주니어 소프트웨어(SW) 창작대회'를 개최한다고 30일 밝혔다.    삼성 주니어 SW 창작대회는 삼성전자가 미래 소프트웨어 인재를 발굴하고 양성하기 위해 2015년부터 실시해온 경진대회로, 지난해까지 1만1천354팀에서 3만967명이 참여했다.    대회는 삼성전자가 주최하고 교육부와 한국과학창의재단, 소프트웨어 중심대학 협의회가 후원한다.    올해 7회를 맞는 이번 대회는 '소프트웨어로 만드는 더 나은 미래'를 주제로 온라인으로 열린다. 초등학교 4학년부터 중·고등학생까지 소프트웨어에 관심있는 누구나 참가할 수 있다.2021 삼성 주니어 SW 창작대회 포스터[삼성전자 제공. 재판매 및 DB 금지]    참가자들은 일상생활에서 불편한 점이나 문제를 발견해 소프트웨어를 활용한 해결책을 제시하면 된다.     삼성전자는 청소년들이 반짝이는 아이디어만 있으면, 소프트웨어를 잘 몰라도 대회에 참가해 사용자의 입장에서 문제를 찾아 해결하는 '디자인 씽킹' 교육뿐만 아니라 코딩, 오픈소스, 저작권 등에 대해서도 배워가며 소프트웨어를 쉽게 익힐 수 있도록 대회 과정을 구성했다.    본선 진출 팀에게는 삼성전자 소프트웨어 개발자들의 멘토링과 임직원들의 피드백 등을 제공한다. 3일에는 온라인으로 누구나 인공지능(AI)을 배우고 소프트웨어 명사 강의를 듣는 오픈 클래스를 개최한다.    올해 삼성 주니어 SW 창작대회에서는 대상 1팀, 최우수상 3팀, 우수상 3팀, 장려상 3팀, 공감상 1팀 등 총 11개팀이 선정해 상금과 IT 제품을 수여한다. 삼성전자는 수상팀이 속한 학교에도 IT 제품을 기부한다.    이번 대회는 10월까지 결선을 진행하고 11월에 시상식이 개최될 예정이다.    참가를 희망하는 청소년들은 7월 1일부터 21일 오후 4시까지 홈페이지(www.juniorsoftwarecup.com)에서 접수할 수 있다. shiny@yna.co.kr</t>
+  </si>
+  <si>
+    <t>2015년부터 실시한 청소년 대상 미래 소프트웨어 인재 발굴 경진대회지난해까지 청소년 3만967명 참여  2021 삼성 주니어 SW 창작대회 포스터 [파이낸셜뉴스] 삼성전자가 7월 1일부터 청소년을 대상으로 '2021 삼성 주니어 SW 창작대회'를 개최한다.   6월 30일 삼성전자에 따르면 '삼성 주니어 SW 창작대회'는 이 회사가 미래 소프트웨어 인재를 발굴하고 양성하기 위해 2015년부터 실시해온 경진대회이다. 일상생활에서 불편한 점이나 문제를 발견해 소프트웨어를 활용한 해결책을 제시하면 된다.   지난해까지 1만1354팀에서 3만967명의 청소년이 대회에 참여했다.   '삼성 주니어 SW 창작대회'는 삼성전자가 주최하고, 교육부·한국과학창의재단·소프트웨어 중심대학 협의회가 후원한다.   올해 7회를 맞는 이번 대회는 '소프트웨어로 만드는 더 나은 미래'를 주제로 진행되고, 초등학교 4학년부터 중·고등학생까지 소프트웨어에 관심있는 누구나 참가할 수 있다.   코로나19 상황을 고려해 전 과정이 온라인으로 진행된다.   삼성전자는 청소년들이 반짝이는 아이디어만 있다면, 소프트웨어를 잘 몰라도 대회에 참가해 사용자의 입장에서 문제를 찾아 해결하는 '디자인 씽킹' 교육 뿐만 아니라 코딩, 오픈소스, 저작권 등에 대해서도 배워가며 소프트웨어를 쉽게 익힐 수 있도록 대회 과정을 구성했다.   본선에 진출한 팀에게는 삼성전자 소트프웨어 개발자들의 멘토링도 지원한다.   삼성전자 임직원들은 참가팀들과 함께 아이디어를 발전시키고, 소프트웨어 개발에 대한 심층적인 피드백을 제공한다.   또, 삼성전자는 3일 온라인으로 누구나 AI를 배우고, 소프트웨어 명사 강의를 들을 수 있도록 하는 오픈 클래스을 연다.   올해 '삼성 주니어 SW 창작대회' 최종 수상에는 대상 1팀, 최우수상 3팀, 우수상 3팀, 장려상 3팀, 공감상 1팀 등 총 11개팀이 선정돼 상금과 IT 제품을 부상으로 받게 된다.   삼성전자는 수상팀이 속한 학교에도 노트북, 태블릿 등과 같은 IT 제품을 기부한다.   이번 대회는 10월까지 결선을 진행하고 11월에 시상식이 개최될 예정이다.   참가를 희망하는 청소년들은 7월 1일부터 21일 오후 4시까지 홈페이지에서 접수할 수 있다.   한편 삼성전자는 '함께가요 미래로! Enabling People'이라는 CSR 비전 아래 청소년 교육 중심의 사회공헌 활동과 상생 활동을 펼치고 있다.</t>
+  </si>
+  <si>
+    <t>2022 교육과정 개편 특별포럼공학한림원·AI미래포럼 공동 주최대입 과목에 포함 안되면 AI·SW교육 형식에 그칠 것 영어로 서구문명 배웠듯 이젠 AI 사고방식 배워야 생존교육과정 개편, 시대변화 반영하는 '애자일식 혁신' 필요AI미래포럼과 한국공학한림원이 30일 '2022 교육과정 개편, 한국의 미래를 좌우한다'를 주제로 'SW/AI 교육 긴급 특별포럼' 웨비나를 열었다. 오세정 서울대 총장(화면 둘째줄 맨 오른쪽), 이광형 KAIST 총장(셋째줄 맨 오른쪽), 박형주 아주대 총장(넷째줄 왼쪽) 등 참석자들이 안현실 AI경제연구소장(사진 오른쪽)의 진행으로 토론하고 있다.   /신경훈 기자“인공지능(AI)을 교육과정에 집어넣는다고 문제가 해결되진 않습니다. 대학입시에 반영되지 않는다면 AI·소프트웨어(SW) 교육이 형식화할 가능성이 큽니다. 수능을 자격시험화하고, 대학의 학생 선발 자율성을 늘리는 방법까지도 고려해야 합니다.”(오세정 서울대 총장)“AI와 프로그래밍언어 교육을 ‘영어 교육’에 빗대고 싶습니다. 100년 전 서양인의 사고방식을 영어로 배웠듯, 이젠 AI의 사고방식도 이해할 수 있어야 합니다. 교육이 제대로 안 된다면 후손들은 외국 기업들이 개발한 AI의 지배를 받고 살 것입니다.”(이광형 KAIST 총장)‘컴퓨터 교육의 대학입시 반영’ ‘초·중·고교 AI교육 의무화’. 국내 두 주요 대학 수장들이 제시한 ‘미래를 위한 정보화 교육의 키워드’들이다. 한국공학한림원과 AI미래포럼은 30일 국내 주요 대학 총장과 관련 전문가들을 초청해 ‘SW/AI 교육 긴급 특별포럼’을 열었다. 서울대와 KAIST 총장이 AI·SW 교육 대담 현장에 함께한 것은 이번이 처음이다. ‘2022 교육과정 개편, 한국의 미래를 좌우한다’를 주제로 열린 이번 포럼은 두 대학 총장을 포함해 박형주 2022교육과정개정추진위원장(아주대 총장), 김한일 한국컴퓨터교육학회장(제주대 교수), 정웅열 한국정보교사연합회장(백신중 교사) 등 10여 명의 전문가가 참석했다. 유연한 개편 위해선 애자일 개념 필요오세정 총장은 교육과정 개편 체제를 근본적으로 바꿀 것을 주문했다. AI·SW 교육 강화가 이해당사자들의 저항에 부딪혀 좌초될 수 있음을 우려한 것이다. 그는 “우리나라는 교육과정 지침이 정해지면 전국 초·중·고교와 대학들이 한 번에 영향권에 놓인다”며 “이 때문에 2015년 교육과정 개편 당시에도 코딩교육 몇 시간 넣는 데 엄청난 저항이 발생했다”고 말했다.해법은 ‘애자일식 개편’이다. 부처·기관 간 경계를 허물고, 몸집을 줄여 과목별 구분 개편이 현실적이라는 것이다. 오 총장은 “10년 뒤, 15년 뒤 세상이 어떻게 바뀔지 모르는데, 우리나라 교육과정 개편은 너무나 많은 시간이 걸려 시시각각 변하는 시대의 요구를 반영하지 못한다”고 꼬집었다. 이어 “교육부가 나라 전체 체제를 이끄는 현재 논의 방식을 포기해야 하며, 지자체·교육청·학교 단위의 자율적인 AI·SW 교육 시도가 있어야 한다”고 제안했다. “대학들이 공동으로 입시과목 반영에 보조를 맞춘다면 효과가 클 것”이라고 강조했다.이광형 총장은 빈약한 AI교육이 궁극적으로 외국 기술에 대한 종속으로 이어질 가능성을 우려했다. 그는 “지금도 우리는 마이크로소프트(MS), 구글과 같은 글로벌 기업들이 개발해놓은 시스템에 종속돼 있어 컴퓨터에서 한글 표기법조차 주체적으로 바꾸지 못한다”고 했다. “과거 영어 과목이 그랬듯, 미래 사회에서 성과를 인정받는 사람은 AI를 잘 활용하는 사람이 될 것”이라며 “이번 교육과정 개정을 통해 자손들이 AI를 지배하고 사는 ‘AI자주독립국가’가 되도록 선진국 수준의 정보 교육량을 갖춰야 한다”고도 했다. “정보교육 100시간대로 늘려라”교육과정 개편의 최대 쟁점인 ‘시수(교육 시간 총량) 문제’에서는 양보 없는 토론이 이어졌다. 한국컴퓨터교육학회 회장을 맡고 있는 김한일 교수는 “정보교육의 연속성이 크게 떨어져 있다”며 “세계적 추세를 고려해 초등학교에서 136시간, 중학교 204시간, 고교는 128시간으로 늘려야 한다”고 말했다. 현행 정보교육 시수는 초등학교가 17시간, 중학교가 34시간으로 운영되고 있다. 고등학교는 선택과목이다.그는 고등학교의 정보과목 분류 체계도 문제라고 했다. 김 교수는 “정보과목은 현재 생활교양영역 기술가정교과군에 소속돼 있다”며 “교과군을 독립시키지 않으면 누가 어떻게 가르치는지 파악도 어렵고, 고교학점제 도입 과정에서 학생들의 시야에서 밀려날 가능성이 있다”고 지적했다.이런 우려가 개편과정에 모두 반영되기는 쉽지 않을 전망이다. 2022교육과정개정추진위원장인 박형주 아주대 총장은 “디지털 대변화 시기에 앞서 SW 교육이 강화돼야 함에 공감한다”면서도 “개정에 관한 외부적 요인이 간단치 않은 상황”이라고 진단했다.그는 “시민단체 등에서 초·중·고교 전체 시수를 줄여야 한다는 요구가 나오고 있으며, 일선 지방교육청이 재량권을 일부 이전해달라는 요청도 있었다”고 밝혔다. “공통과목의 시수를 유지하는 것조차 어려워진 상황이라 정보교과를 공통과목처럼 취급하는 논의는 난관이 예상된다”고 했다. 박 총장은 “물리 수학 사회 등에서 AI 융합교육을 신설하고 과학교사와 정보교사가 해당 과목을 반씩 담당하는 것도 단기적 해결책으로 고려해볼 수 있다”고 말했다.이시은 기자 see@hankyung.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		조선대 소프트웨어(SW)중심대학사업단은 지난달 29일 중소기업벤처기업부 산하 재단법인 장애인기업종합지원센터와 '2021년 장애인 맞춤형 창업특화교육' 업무협약을 체결했다.장애인 맞춤형 창업특화교육 지원사업은 장애인 경제적 자립과 성장여건을 마련하기 위해 창업에 필요한 특화교육을 제공, 장애인의 성공창업을 유도하는 프로그램이다. 드론국가조종자 자격증을 보유하고 있는 장애인의 집중 창업특화교육과정과 드론국가자격증 취득의 도움을 주기 위한 창업연계 교육과정이다.조선대 SW중심대학사업단은 지난달 29일 중소기업벤처기업부 산하 재단법인 장애인기업종합지원센터와 2021년 장애인 맞춤형 창업특화교육 업무협약을 체결했다.사업단은 특화이론교육과 창업특화교육, 멘토링, 드론 실기교육과정으로 창업전문가, 세무전문가, 드론전문교관 등 분야별 최고의 전문강사의 맞춤형 강의를 진행한다. 총 20명의 교육생이 참여한다.김영심 사업단 교수는 “4차 산업혁명 시대의 대표적 직종이라 할 수 있는 인공지능 첨단 드론 교육은 장애인들에게 새로운 성취감과 자존감 배양에 큰 역할을 할 것으로 기대한다”며 “앞으로도 다양한 분야의 특화교육이 진행될 수 있도록 노력하겠다”고 말했다.</t>
+  </si>
+  <si>
+    <t>김석준 교육감 재선 취임 3주년 기자회견김석준 부산교육감이 재선 취임 3주년 기자회견을 하고 있다. 부산교육청김석준(사진) 부산교육감은 28일 부산시교육청에서 재선 취임 3주년을 맞아 기자회견을 하고 “초·중·고 모든 교실에 구축 중인 온·오프라인 혼합 수업방식인 ‘블렌디드 러닝’ 사업을 차질 없이 완료하는 등 부산교육을 미래 교육으로 전환하기 위한 토대를 확실히 마련하겠다”고 밝혔다. 이어 “올해도 안전과 교육이라는 두 마리 토끼를 잡기 위해 모든 행정력을 총동원하겠다”면서 “포스트 코로나 시대를 대비한 교육환경도 확실히 갖추겠다”고 말했다.김 교육감은 “재임 1기 때에는 부산다행복학교 운영, 중학교 무상급식 실시, 청렴도 1위 달성이라는 3대 핵심 공약을 이행하는 등 변화의 새바람으로 부산교육의 혁신을 도모했고 2기 때에는 지속적인 혁신과 더불어 초·중·고의 무상급식과 무상교육을 완성하고 모든 초·중·고에 ‘블렌디드 러닝’ 학습환경  구축을 추진하는 등 창의·융합형 인재 양성을 위한 미래 교육 기반을 구축해 왔다”면서 “지난 7년간 부산교육 발전을 위해 최선을 다해왔다”고 했다.그는 또 “그동안 미래 교육의 기반 구축과 수업·평가 혁신, 학교 공간 혁신, 교육복지 확대, 학교문화 혁신 등 다양한 영역에 대한 혁신을 추진해 왔다”고 강조했다.부산시교육청은 올해 ‘미래를 준비하는 창의융합교육’ ‘삶을 디자인하는 진로진학교육’ ‘지속 가능한 생태·해양 교육’ ‘틈새 없는 학교 안전망 강화’ 등 4대 역점과제를 추진한다.올해 ‘블렌디드 러닝’ 시설 구축을 완료하고 해당 시설을 활용한 수업을 원활히 진행할 수 있도록 교원의 수업역량 강화 연수도 시행한다. 교수·학습지원 플랫폼인 ‘부산에듀원’ 시범 운영 지원과 ‘수포자(수학포기자)’ 예방을 위한 부산수학문화관 개관, 부산학생종합안전체험관과 울림마루, 부산교육역사체험관도 차질 없이 추진한다는 계획이다.김 교육감은 “학생들이 인공지능(AI)으로 대표되는 4차 산업혁명 시대의 최신 기술을 배워 활용할 수 있도록 부산시교육청의 온라인 공개수업인 B-MOOC 기반 AI 교육을 도입하는 등 교육과정과 연계한 SW와 AI 활용 교육에 힘을 쏟겠다”고 설명했다.부산지역 모든 학생에게 1인당 10만원씩 2차 교육재난지원급을 조만간 지급하는 등 학부모 부담 경감 노력도 지속하기로 했다. 아울러 코로나19 대응과 2학기 전면 등교를 위한 대책도 빈틈없이 진행키로 했다.김석준 교육감은 “아이들의 미래를 위한 교육은 어떠한 상황에서도 계속되어야 한다”고 강조하고 “부산 교육을 명실상부하게 가장 앞선 미래 교육으로 안착시키고자 3선에 도전하겠다”고 밝혔다.</t>
+  </si>
+  <si>
+    <t>경산·영덕·울릉교육지원청과 AI 디지털 역량강화 교육 협약 프로그램 운영유아·초·중·고생 및 일반인 대상 AI융합교육 프로그램...SW가치 확산 취지고석주 센터장 "지자체와 협력 주민 누구나 즐기는 디지털 배움터 교육 확산"경북대학교가 지역사회 디지털 가치 확산 활동 일환으로 경북지역 3개 교육지원청과 협력해 인공지능(AI)시대 디지털 역량 강화 교육에 나섰다.경북대 SW교육센터(센터장 고석주·이하 SW교육센터)는 29일 경북대 IT대학융복합공학관에서 경산교육지원청, 영덕교육지원청, 울릉교육지원청과 AI 디지털 역량 강화 교육 협약을 맺었다. 이번 협약은 경북도교육청 산하 지원청 가운데 AI융합교육에 적극적인 세 곳을 중심으로 프로그램을 기획하고 확산해 디지털 교육 질을 높이기 위한 취지에서 마련됐다.왼쪽부터 최영택 울릉교육지원청교육장, 고석주 경북대학교 SW교육센터장, 최필순 영덕교육지원청 교육장, 이용만 경산교육지원청 교육장SW교육센터는 세 개 교육지원청과 긴밀히 협력해 지역 유아·초·중·고 학생과 교사, 학부모를 대상으로 SW가치 확산 교육을 진행한다. 특히 경북대 AI 관련 교수와 교육전문 스타트업 CEO, SW개발사 임원이 사회공헌 활동을 통해 학생을 위한 AI융합교육 프로그램을 운영한다.SW교육센터는 SW 분야 인재 양성을 위한 SW중심대학 2단계 사업으로 지난 4월에 선정돼 산업체 수요를 반영한 SW 교육과정을 마련, 전공 정원을 확대해 융합인력을 양성한다. 올해는 AI 등 신기술 교육을 강화하고 기업과 협력해 차별화된 SW 교육과정을 마련하고 있다.고석주 센터장은 “경북대는 올해 경북도 디지털 역량 강화 교육사업을 병행하면서 지자체와 협력, 디지털 소외 및 취약계층을 포함해 주민 누구나 즐길 수 있는 '디지털 배움터' 교육을 적극 확산시켜 나가겠다”고 밝혔다.이날 협약에는 고석주 경북대 SW교육센터장과 정원일 교수(SW가치확산부장), 김은숙 연구원, 이용만 경산교육지원청 교육장, 최영택 울릉교육지원청 교육장, 최필순 영덕교육지원청 교육장 등이 참석했다.이번 협력 프로그램은 제11대 경상북도의회 교육위원회 위원장인 도현일 도의원과 경산정보통신기술(ICT)융합 세미나를 제사한 윤두현 경산시 국회의원이 SW교육센터에 추천하며 성사됐다.한편, 과학기술정보통신부는 SW중심대학 2단계사업을 진행하며 경북대를 포함, 전국 총 9개 대학을 선정했다. 지난 5년간 1단계사업에서 경북대 SW교육센터는 지역사회 SW가치확산 활동을 적극 수행해 유치원부터 노인문화대학에 이르기까지 누적 3만6000여명에게 SW문화 체험을 제공했다. 특히 올해는 경상북도가 주최하고 한국지능정보사회진흥원(NIA)가 주관하는 디지털 배움터 사업을 함께 진행, 지역 주민들에게 다양한 가치확산 활동을 제공하고 있다.</t>
+  </si>
+  <si>
+    <t>삼성전자, 정부와 'SSAFY 프로그램 확대' 사업 맞손연간 1000명 규모 내년부터 2배로…정부도 예산 지원지난 6월 9일 서울 강남구 멀티캠퍼스 교육센터에서 열린 '삼성청년SW아카데미' 4기 수료식에서 수료생들과 관계자들이 기념 촬영하고 있다. (삼성전자 제공) 2021.6.9/뉴스1(서울=뉴스1) 주성호 기자 = 삼성전자가 청년들의 소프트웨어(SW) 역량을 키우고 취업난을 해소하기 위해 도입한 사회공헌 프로그램인 '삼성 청년SW아카데미' 교육생 규모를 확대한다. 종전에 연간 1000여명 단위에서 내년부터는 2배 이상으로 키운다는 방침이다. 국내에서 가장 성공적으로 안착한 민간의 청년 인재양성 프로그램으로 평가받는 '삼성 청년SW아카데미'는 교육생으로 선발되기 위한 족집게 과외도 성행할 정도로 주목받고 있다. 앞으로도 삼성전자가 자율적으로 교육 프로그램을 운영하되 규모 확대에 따른 부담을 낮추기 위해 정부는 주요 비용을 예산으로 지원해줄 방침이다. 삼성전자는 대한상공회의소와 정부 등과 '2021년 하반기 경제정책방향'에 포함된 기업 우수인재 양성 프로그램 확대 사업의 일환으로 민간과 정부의 파트너십을 확대한다고 29일 밝혔다. 이를 위해 삼성전자는 대한상의를 비롯해 고용노동부, 기획재정부와 손잡고 청년층에 제공하고 있는 '삼성 청년 SW 아카데미'(Samsung Software Academy For Youth, SSAFY) 교육생 규모를 늘리기로 했다.삼성청년SW아카데미 4기 대전캠퍼스의 교육생들이 함께 프로젝트를 진행하는 모습. (삼성전자 제공)/뉴스1이미 삼성전자는 지난해 상반기와 하반기에 각각 500명씩 모집하던 기수별 교육생을 올해는 상반기(5기) 750명, 하반기(6기) 950명으로 키웠다. 아울러 내년부터는 교육생 규모를 더욱 확대해 기수당 약 1150명까지 늘릴 방침이다. 지난해와 비교하면 연간 기준 약 2300여명으로 2배 이상 늘어나는 셈이다. 교육생 규모가 늘어나는 만큼 삼성전자는 종전에 서울, 대전, 구미, 광주 등 4곳에 불과했던 캠퍼스에다가 경남 대표 지역인 부산의 '부울경 캠퍼스'를 7월에 신설할 계획이다. 삼성전자는 기존처럼 교육생과 강사 선발, 교육 커리큘럼 등은 자율적으로 진행한다. 여기에 발맞춰 정부는 규모 확대에 따른 기업 부담을 줄여주기 위해 예산 지원에 나선다. 2018년 삼성전자가 도입한 '삼성 청년 소프트웨어 아카데미(SSAFY)'는 5년간 미취업 청년 1만명에게 최대 1년간 무료로 코딩을 포함한 소프트웨어 교육을 제공하는 것을 골자로 한다.특히 삼성전자는 매년 선발된 수강생 수천명 전원에게 매달 100만원씩, 연간 1200만원에 달하는 파격적인 '교육 수당'까지 지급하고 있어 더욱 주목받고 있다. 이 때문에 온라인 상에서는 수백명에 불과한 SSAFY 교육생으로 선발되는 과정을 족집게 과외처럼 알려주는 인터넷 강의가 성행하기도 한다.이재용 삼성전자 부회장이 2019년 8월 20일 삼성 청년 소프트웨어아카데미 광주 교육센터를 방문해 교육을 참관하고 소프트웨어 교육생과 기념촬영을 하고 있다. (삼성전자 제공) 2019.8.20/뉴스1삼성 총수인 이재용 부회장도 직접 교육현장을 방문할 만큼 SSAFY 프로그램에 많은 관심을 갖고 있는 것으로 잘 알려져 있다. 2019년 8월 광주캠퍼스를 방문했을 당시 이 부회장은 "소프트웨어 인재 양성은 IT 생태계 저변 확대를 위해 필수적"이라며 "어렵더라도 미래를 위해 지금 씨앗을 심어야 한다"고 밝혔다. 정부가 예산 지원에도 적극 나설만큼 큰 관심을 갖는 것은 삼성전자의 SSAFY가 60% 이상의 취업률로 국내에서 괄목할 만한 성과를 내고 있다는 이유에서다. 삼성전자에 따르면 이달초 수료를 마친 4기까지 누적 교육생 2087명이 수료했고 이 중에서 1411명으로 취업에 성공한 것으로 집계됐다. SSAFY 수료생 누적 취업률만 68%에 이른다. 이들이 취업한 기업만 해도 삼성전자, 신한은행, 카카오, 네이버, 쿠팡, 신세계 I&amp;C 등 480여개사에 달한다.취업에 성공한 수료생 중 32%인 455명은 소프트웨어 비전공자로서 SSAFY를 통해 새로운 진로를 찾게 된 셈이다. 주요 기업들도 최근 SSAFY 수료생에 대한 채용시 우대 조건을 제시하거나 별도의 채용 전형을 내거는 경우도 있다. 신한은행, 우리은행, 현대오토에버, 씨젠, 엔카닷컴 등이 서류심사나 코딩테스트를 면제하는 방식으로 채용 과정에서 우대 조건을 제시하고 있으며 지난해 특별 수시전형을 실시한 신세계 I&amp;C처럼 일부는 SSAFY 전용 채용을 치르기도 했다.이재용 삼성전자 부회장이 2019년 8월 20일 삼성 청년 소프트웨어아카데미 광주 교육센터를 방문해 교육을 참관하고 소프트웨어 교육생들과 셀카를 찍고 있다. (삼성전자 제공) 2019.8.20/뉴스1</t>
+  </si>
+  <si>
+    <t>부산시학생교육문화회관 대강당 *재판매 및 DB 금지[부산=뉴시스] 하경민 기자 = 부산시학생교육문화회관은 지난해 11월부터 최근까지 전 시설 재구조화와 공간혁신을 통해 복합문화예술공간으로 새단장했다. 부산내셔널유스오케스트라(지휘 금난새)의 질 높은 연습과 공연을 위해 협소했던 대강당 무대를 확장하고, 주제기획전과 작가초청전 등 다양한 전시를 위해 교문갤러리도 재구조화했다.외부 벽면에 LED 간판을 설치하고 통행량이 많은 인근 어린이대공원 통행 계단에 회관 홍보 이미지를 꾸며 이용자들이 쉽게 회관을 찾아올 수 있도록 했다. 회관 입구에는 포토존을 설치해 학생들과 시민들이 함께 즐길 수 있도록 했으며, 수영장 환경개선과 주차장 도색 등 각종 노후시설물 보수를 통해 학생과 시민들이 깨끗하고 안전하게 이용할 수 있도록 했다. ◇부산SW마이스터고, MS 클라우드 자격증 'AZ-900' 13명 합격부산소프트웨어마이스터고 학생 13명이 마이크로소프트 애저 클라우드 자격증 'AZ-900' 시험에 합격했다.AZ-900은 기업 IT 분야에서 클라우드 엔지니어가 되기 위한 다양한 내용들을 다루는 시험이다.이 학교 학생들은 부산시교육청이 구축한 B-MOOC 플랫폼에 탑재된 인공지능 이해와 인공지능 융합분야 등 SW·AI교육 관련 콘텐츠를 활용해 시험을 준비했다. B-MOOC의 B는 부산시교육청, MOOC는 온라인 공개수업(Massive Open Online Course)을 뜻한다.AZ-900 시험은 1000점 만점에 700점 이상을 받으면 자격증을 수여하는데, 이번 시험에 응시한 이 학교 학생 45명의 평균 점수는 603점으로 고등학생이 아닌 일반 응시자들의 평균이 595점인 점을 고려할 때 고무적인 결과라고 학교 측은 설명했다.◇부산창의융합교육원, 해양 창작 메이커 교실부산시창의융합교육원은 7월10일부터 8월21일까지 매주 토요일 창의융합교육원 지하 1층 해양수족관과 해양과학전시실 등에서 해양과학실 재개관 특별 프로그램 '해양 창작 메이커 교실'을 운영한다.참가 학생들은 해양과학실의 선박 체험물을 활용한 수륙양용 풍력 제트스키 만들기, 아쿠아리움의 물고기를 활용한 '찰칵찰칵, 해양감성 폴라로이드 사진첩 만들기'와 '엔트리 코딩 아카데미' 등 다양한 체험활동을 하게 된다.참가 희망자는 7월1일 오전 10시부터 부산창의융합교육원 홈페이지 또는 부산시교육청 통합예약시스템을 통해 신청하면 된다. 초등학교 3학년 이상이면 신청할 수 있다.</t>
+  </si>
+  <si>
+    <t>수강생 1000→2300명…정부 비용 분담교육생 선발·커리큘럼 삼성전자가 맡아청년들의 정보기술(IT) 업계 취업을 돕는 삼성전자의 교육 프로그램인 ‘삼성 청년 소프트웨어 아카데미(SSAFY)’의 교육생 규모와 지원 범위가 확대된다.       정부가 ‘하반기 경제정책방향’의 한 방안으로 삼성전자 등 대기업이 사회공헌 차원에서 청년층에 제공하고 있는 ‘디지털 분야 우수 인재양성 프로그램’을 대폭 확대한다고 29일 밝혔다. 민간과 정부의 파트너십을 통해서다.    이재용 삼성전자 부회장이 2019년 8월 '삼성 청년 소프트웨어 아카데미' 광주 교육센터를 방문해 소프트웨어 교육을 참관하고 교육생들을 격려했다. [사진 삼성전자]       SSAFY는 삼성전자가 2018년 발표한 ‘경제 활성화와 일자리 창출 방안’ 중 하나다. 청년 세대에겐 기업이 원하는 실무형 SW 교육을 제공하고, 기업엔 맞춤형 SW 인재를 연결해 국내 IT 업계 생태계를 확대하겠다는 취지에서 문을 열었다.      ━   총 2087명 수료해 취업률 68%        최근 4기 교육생을 포함해 총 2087명의 수료생을 배출했으며, 이 가운데 1411명(68%)이 취업했다. 현재 서울과 대전·광주·구미에서 교육센터를 운영하고 있으며 부산·구미·광주에도 캠퍼스를 신설할 예정이다.        정부는 SSAFY 같은 프로그램에 재정 지원과 대한상공회의소 같은 경제단체의 힘을 보태 디지털 인재를 키워야 한다고 판단했다. 기업의 사회공헌 활동에서 일자리 창출원으로 확대하겠다는 뜻이다.       이에 따라 교육생 규모가 늘고 취업 지원도 확대한다. 삼성전자가 교육생·훈련강사 선발, 커리큘럼 구성을 맡고 자율적으로 기획, 운영하는 것은 이전과 같다. 여기에 더해 교육 규모 확대에 따른 비용의 일정 부분을 정부가 분담한다. 대한상의는 수료생의 취업 지원 등을 맡는다. 그간 SSAFY 교육생은 연간 1000명이었다. 내년에는 두 배가 넘는 2300명까지 늘어날 계획이다.      SSAFY 수강생은 1년간 매일 8시간씩 총 1600시간 교육을 받는다. 초기 5개월은 집중적인 코딩 교육을 하는데 소프트웨어 전공자의 2년치 학습량이다. 후기 5개월은 기업과 협업 프로젝트를 통해 즉각 현업에 투입될 수 있는 심화 과정도 운영한다.      '삼성 청년 소프트웨어 아카데미' 교육생들이 대전캠퍼스에서 교육받고 있는 모습. [사진 삼성전자]       참여자 모두에게 매달 100만원의 교육 지원금도 지급한다. 또 취업지원센터를 운영해 채용정보·진로상담·면접컨설팅 등을 상시 지원하고, 주기적으로 기업설명·채용박람회를 연다.       ━   이재용 부회장 “미래 위해 지금 씨앗 심어야”      삼성전자 관계자는 “SSAFY는 이재용 삼성전자 부회장의 기업의 사회적 역할 확대 의지가 담긴 프로그램인 만큼 교육생 전원이 생활비 등 걱정 없이 실력 향상에만 집중할 수 있도록 세심하게 운영할 것”이라고 말했다.        이재용 부회장은 2019년 광주의 SSAFY 교육 현장을 찾아 “소프트웨어 인재 양성은 IT 생태계 저변 확대를 위해 필수인 만큼 어렵더라도 미래를 위해 지금 씨앗을 심어야 한다”며 “더 큰 꿈을 실현할 수 있도록 다 같이 도전하자”고 강조했다.        최현주 기자 chj80@joongang.co.kr</t>
+  </si>
+  <si>
+    <t>삼육대학교가 28일 교내에서 SW중심대학 사업 워크숍을 진행했다.이번 워크숍은 SW중심대학 사업 선정후 그간의 추진 경과를 내부 구성원에게 공유하고, 수행 방향 모색하고자 마련됐다. 이날 사업 참여 학과 교수진과 사업 부서 팀장, 관계자 등 40여 명이 참석했다.  행사는 김일목 총장의 환영사를 시작으로 오덕신 삼육대 SW중심대학사업단장의 사업단 소개 및 추진 전략 발표, 김성완 SW중심대학사업단 센터장의 SW기초교육 및 SW연계전공(SW건강과학특화전공) 운영 계획 발표 등의 순으로 진행됐다.오 사업단장은 "이번 사업을 통해 SW중심으로 교육 체계를 구축하겠다"며 "대학 구성원이 공동 인식을 갖고 교육의 표준모델을 제시하고, 4차 산업혁명 시대가 요구하는 핵심인재를 양성하겠다"고 말했다.한편 삼육대는 지난 4월 과학기술정보통신부 주관의 SW중심대학 사업(특화트랙)에 신규 선정됐다. SW중심대학은 대학교육을 SW중심으로 혁신해 SW핵심인재를 양성하는 사업이다. 특화트랙 대학의 지원금 규모는 6년(4+2년) 간 최대 60억 원이다.삼육대는 이번 사업 추진을 위해 '건강한 지역사회를 위한 SW건강과학 융합인재 양성'을 비전으로 내세웠다. 보건의료에 AI, 빅데이터 등 신기술을 접목해 SW역량을 갖춘 융합인재를 양성할 계획이다.</t>
+  </si>
+  <si>
+    <t>2022 교육과정 개편 특별포럼초·중·고 교육에 일찍부터 도입미국 등 선진국은 정보교육 분야에서 앞서나가고 있다. 빠르게 변화하는 디지털 시대를 내다보며 개발한 ‘미래형 교육체계’를 초·중·고교 교육체계에 일찍부터 도입하면서다.백은옥 한양대 소프트웨어대학장은 30일 한국공학한림원·AI미래포럼이 공동으로 주최한 온라인 웨비나 ‘SW/AI 교육 긴급 특별포럼’에서 “현행 우리나라 초·중·고교 교육체계에서는 디지털 역량을 키우기 어렵다”고 꼬집었다.선진국은 초·중·고교 교육과정부터 정보교육의 중요성을 강조하고 있다. 정보통신기술(ICT) 최강국인 미국이 대표적이다. 미국은 2017년 인공지능(AI) 교과서를 개발해 유치원부터 고등학교까지 보급하고 있다. 김한일 제주대 교수는 “선진국은 2015년 전까지만 해도 기본 ICT 교육 정도에 머물렀지만 이후 앞다퉈 정보교육을 심화 교과목으로 지정했다”고 말했다.다른 나라도 마찬가지다. 일본은 2015년부터 정보교육을 기본 과목으로 개설했다. 영국은 2017년께 AI 관련 교육 사이트를 개설해 초·중·고교 교육체계에 도입했고, 인도는 2013년부터 초·중등과정 정보교육 과정을 개발했다. 한국은 2018년 SW 의무교육을 시작했다.전문가들은 인력 확보 측면에서 주요 국가와의 격차가 더 크게 벌어질 것으로 우려했다. 문수복 KAIST 교수는 “해외 대학 입시에 활용되는 특정 교과목에 대한 전문성을 평가하는 AP 시험의 정규 과목인 CSP(computer science principles) 응시자는 과목이 개설된 지 3년 만에 두 배 이상 증가했다”며 “인력 양성면에서 외국과 비교했을 때 한국과 차이가 나는 건 사실”이라고 말했다.배성수 기자 baebae@hankyung.com</t>
+  </si>
+  <si>
+    <t>1일 B2B SW업체 아이퀘스트는 SW 개발보안 전문기업인 트리니티소프트를 인수하고 정보보호 시장 진출에 나선다고 밝혔다.아이퀘스트는 이날 트리니티소프트 지분을 추가로 취득하는 주식매매 계약을 체결했다. 이를 통해 트리니티소트의 최대주주 및 연결 자회사로 편입했다.트리니티소프트는 2005년에 설립된 정보보호 전문기업으로 시큐어코딩 핵심 기술을 보유하고 있는 '코드레이 엑스지'의 개발사다. 아이퀘스트는 전방시장 환경에 대한 긍정적인 변화와 트리니티소프트의 향후 성장가능성을 보고 추가 지분취득을 결정하게 되었다고 밝혔다.김순모 아이퀘스트 대표는 "최근 국내외적으로 SW개발보안에 대한 컴플라이언스가 강화되면서 관련 시장의 성장이 예상돼 이번 인수를 결정했다"며 "이번 인수를 통해 4차 산업혁명의 필수 요소인 사이버 보안으로 사업영역을 넓혀가겠다"고 밝혔다.트리니티소프트는 지난해 국가정보원으로부터 CC 인증과 한국정보통신기술협회(TTA)로부터 GS 인증을 획득하고 전자정부표준프레임워크 호환성 테스트를 완료했다.새롭게 출시된 6.0버전은 트리니티소프트 핵심 기술이 집약된 솔루션으로 제품 출시 후 대신정보통신과 조달 총판계약을 체결하고 한국기계전기전자시험연구쇼(KTC), 한국지역난방공사, 현대홈쇼핑, 한국정책방송원등의 레퍼선스를 확보했다.사측은 "코드레이 엑스지는 고객사에 경제적 부담을 주었던 고가 외산 제품을 대체하여 정부기관과 국방, 금융, 교육, 의료기관, 다수의 기업에서 안전한 SW개발 환경을 구축하는데 중요한 역할을 하고 있다"고 설명했다.김진수 트리니티소프트 대표는 "공격적인 R&amp;D로 글로벌 시장을 공략하는 클라우드 보안 전문기업으로 거듭나겠다"고 밝혔다.</t>
+  </si>
+  <si>
+    <t>지난 9일 서울 강남구 멀티캠퍼스 교육센터에서 '삼성청년SW아카데미' 4기 수료식이 진행되고 있다./사진=뉴스1(삼성전자 제공)이재용 삼성전자 부회장의 동행 철학이 담긴 삼성청년SW아카데미가 교육 인원 규모를 두 배 이상 키운다.29일 삼성전자 등에 따르면 삼성전자는 한 해 1000명(기수당 500명·연 2회 모집)이었던 청년SW아카데미 훈련생 규모를 올해 1700명(상반기 750명·하반기 950명)으로 늘렸다. 내년에는 약 2300명(기수당 약 1150명) 규모로 확대할 계획이다.아울러 부산에 부울경캠퍼스를 신설하고, 구미·광주캠퍼스 교육인원을 확대하는 등 비수도권 교육도 강화하기로 했다. 삼성은 서울과 대전, 광주, 구미 4개 지역에 캠퍼스를 개소해 운영하고 있다. 부울경캠퍼스는 내달 9일 개소식이 예정돼 있다.청년SW아카데미는 삼성이 2018년 발표한 경제 활성화와 일자리 창출 방안의 일환으로, 국내 IT(정보통신) 생태계 저변 확대와 청년 취업 경쟁력 향상을 위한 교육 프로그램이다. 평소 기업의 사회적 역할 확대를 강조해온 이재용 삼성전자 부회장의 '동행 비전'이 담긴 프로그램이기도 하다. 소프트웨어 전공자 뿐아니라 비전공자와 인문계 출신까지 교육을 실시하고 있다. 29세 이하 4년제 대학 졸업자를 대상으로 한다. 그간 축적해온 소프트웨어 교육 경험과 노하우를 외부로 확대해 취업 준비생들에게 새로운 기회를 제공하고 있으며, 청년 실업률을 감소시켜 국가 경쟁력 강화에도 기여하고 있다.청년SW아카데미는 1년간의 집중 교육으로 역량을 갖춘 실전형 인재를 육성한다. 매일 8시간씩 총 1600시간의 집중 교육을 받는데, 1학기 5개월간의 집중 코딩 교육(800시간)은 대학교 소프트웨어 전공자의 2년치 학습량에 달한다는 평가를 받고 있다. 2학기 5개월의 심화과정에서는 실전 프로젝트를 직접 수행하기 위해 자기주도 학습으로 진행된다.각 학기를 마치면 한 달간 '잡 페어'를 운영해 우수기업 초정, 회사설명회, 기업탐방 등을 실시한다. 해외 IT 기업과 국내 유명 스타트업 개발자들에게 멘토링을 받을 수 있는 기회도 제공한다. 또 교육생 전원에게는 매달 교육지원금 100만원이 지급해 경제적 부담을 덜어줘 교육과 실력 향상에 집중할 수 있도록 돕는다.2018년 12월부터 시작한 SW아카데미는 4기까지 2087명이 수료했다. 이 가운데 1411명이 취업해 68%의 취업율을 보였다. 특히 취업에 성공한 수료생 중 32%를 차지하는 455명은 소프트웨어 비전공자로, 이 프로그램을 통해 새로운 진로를 찾았다.이들이 취업한 기업의 수는 480여개에 달한다. 삼성전자를 비롯해 신한은행, 카카오, LG CNS, 네이버, 신세계 I&amp;C, 쿠팡, KB 국민은행, 현대자동차 등 IT·금융권의 다양한 기업에 취업했다.채용시 SW아카데미 수료생들을 우대하는 기업들도 1기 당시 20여개에서 현재 80여개로 대폭 증가했다. 신세계 I&amp;C의 경우 1기부터 4기까지 수료생 50여명을 꾸준히 채용하고 있다. 지난해에는 SW아카데미 수시전형도 실시했다.</t>
+  </si>
+  <si>
+    <t>[인터뷰] 양대웅 한국폴리텍대학 운영이사매년 졸업생 1만8000여명 배출…취업률 80% 웃돌아맞춤형 취업 과정에 특화된 교육시스템이 장점    한국폴리대학 인천캠퍼스에 있는 융합실습지원센터에서 양대웅 운영이사가 실습 기기를 설명하고 있다. [김현동 기자]      ‘[코딩 앙초보] 나만의 웹 애플리케이션 제작 입문’     한 이러닝 서비스 홈페이지에 올라온 코딩 교육 커리큘럼 제목이다. 이와 비슷한 내용의 코딩 교육은 흔하다. 눈길을 끄는 것은 남지현 강사 프로필이다. 분당·판교 지역 젊은 창업가 네트워크, 소셜살롱 오거나이저, 여행 스타트업 언캐니 창업가다. 연세대 미래캠퍼스 경영학부를 졸업한, 흔히 말하는 문과생이다.      문과 출신 개발자이자 창업가라는 타이틀을 얻게 된 데는 10개월 과정으로 운영되는 한국폴리텍대학 분당융합기술교육원 데이터융합소프트웨어를 이수했기 때문에 가능했다. 아침 9시부터 저녁 11시까지 매일 코딩을 했고, 33시간 동안 잠을 자지 않고 과제를 해결했던 경험 덕분이다.        남지현 대표가 새로운 인생을 열어나간 데는 한국폴리텍대학의 특화된 교육이 있다. 한국폴리텍대학은 2006년 3월 국립중앙직업훈련원과 기능대학을 합쳐 설립한, 산업 현장 중심의 기술·기능 인력을 양성을 목표로 하는 공공 직업교육 훈련기관이다. 권역별로 8개 대학과 36개의 캠퍼스가 있는 규모로 발전했다. 2년제 학위 과정을 포함해 전문기술과정, 중장년 재취업 과정, 여성 재취업 과정 및 4차 산업혁명 대비 신산업 훈련 테스트 베드 역할을 하는 하이테크과정 등 다양한 커리큘럼이 마련되어 있다.      한해 1만8000여 명의 졸업생을 배출하는데, 매년 80% 이상의 취업률을 자랑한다. 입학생 중에 40% 이상이 직장을 다니다 이곳에 입학한다. 특히 분당융합기술교육원 졸업생은 판교의 IT 기업들이 믿고 쓴다는 평가를 받고 있다. 한때 입학 경쟁률이 9:1까지 치솟은 이유다. 쉽게 말해 한국폴리텍대학은 취업을 위한 과정에 특화된 교육 기관인 셈이다. 고용노동부 산하 대학이라는 점에서도 그 성격을 쉽게 이해할 수 있다.      6월 30일 3년 임기를 마치는 양대웅 한국폴리텍대학 운영이사를 만난 것은 한국폴리텍대학의 역할과 존재 의미를 듣기 위해서다.            ━          3년 현장경험 통해 대학 개혁 필요성 느껴       양 전 이사는 2018년 6월 이곳과 인연을 맺었다. 그전까지 정책컨설팅그룹 더플랜 대표이사, 서울시의회 정책연구위원, 한국바이오협회 자문위원, 더불어민주당 정책조정실장 등 정치권에서 ‘정책통’으로 통하던 인사였다. 교육 개혁에도 관심이 많아 관련 입법 활동에 참여하기도 했다. 교육 개혁에 있어서도 정치적인 해법을 중요하게 생각했던 그가 3년 만에 “정치권에서 했던 교육 개혁은 관념적이었다”라는 평가를 스스럼없이 하게 됐다. 정치가 아닌 한국폴리텍대학에서 행정을 경험했기 때문에 할 수 있는 발언이다. 또한 “그동안 교육은 10~20%에 집중했지만, 이제는 80~90% 학생을 위한 교육으로 바꿔야 한다”고 주장한다. 지난 6월 28일 인천 부평에 있는 사무실에서 만나 그가 꿈꾸는 대학의 역할에 관해 이야기를 들었다.     Q : 한국폴리텍대학에 4차 산업혁명 시대를 대비하는 과정도 있다는 게 놀라웠다.    A : 맞다. 과거에는 제조업의 근간이 되는 인력을 배출했지만, 시대의 변화에 맞는 교육 과정을 만들고 있다. AI나 바이오, IoT 등 요즘 시대에 맞는 인력을 배출할 수 있는 교육 과정을 계속 만들고 있다. 다만 한국의 근간이 되는 뿌리산업에서 일할 수 있는 인력을 배출하는 것을 멈추지 않고 있다. 뿌리 산업부터 AI까지 한국 산업 현장에 필요한 인력을 배출하는 게 한국폴리텍대학의 역할이다. 한국폴리텍대학은 사회가 원하는 인력을 배출하는 게 목표이다. 취업률이 매해 80% 이상을 기록하는 이유다.    Q : 어떤 이들이 이곳을 택하고 있나.  A : 매년 입학생 중 45% 이상이 직장을 다니다가 이곳에 와서 교육을 받고 있다. 현장에서 필요로 하는 기능 위주로 교육을 하니까 새로운 도전을 해보고 싶어 하는 이들이 많다. 올해 개교한 경북 영천의 로봇캠퍼스는 특히 대구경북지역 산업계와 연계가 강하고, 안성에 있는 반도체캠퍼스와 청주·아산캠퍼스는 반도체 산업과 연관된 과로 운영되고 있다. 산업의 흐름과 지역에서 요구하는 인력을 배출하기 위해 항상 변화하고 있다.    Q : 분당융합기술교육원의 인기가 높다고 하던데.    A : 데이터융합SW과, 생명의료시스템과, 임베디드시스템과가 마련되어 있다. 10개월 동안 첨단 테크 기술을 배울 수 있는 과정으로 강사진도 판교 IT 기업 출신이 많다. IT 기업에서 필요한 인력을 배출하는 게 목표이기 때문에 현장에서 필요한 교육이 이뤄진다. 융기원 출신이라면 믿고 쓸 수 있다는 평가를 받고 있어서 취업률도 좋다. 인기가 높아서 입학 경쟁률이 9:1이 될 때도 있었다. 융기원 학생 중에는 명문대 출신이거나 석사 이상 출신도 많다.     Q : 정치권에서 오랫동안 일을 했는데, 어떻게 이곳에 합류하게 됐나?  A : 캠퍼스를 방문하고 관련 기업과 연계된 일을 하다보니 이곳이 굉장히 놀라운 일을 하고 있다는 것을 알게됐다. 산업 현장에서 소외되거나 때로는 배제된 분들을 재교육 시키고 기술역량을 쌓아서 산업 현장으로 보내는 선순환 구조를 만들고 있다는 것을 알게 됐다. 산업의 변화에 빠르게 변화하고 지역 기업과 연계해서 필요한 인력을 배출하고 있더라. 하지만 일을 하다 보니 여러 가지 지원이 너무 부족하다는 것을 절감헸다. 한국폴리텍대학 이사회에 당연직 이사로 산자부, 교육부, 노동부, 기재부가 포함되어 있지만 많은 부분에서 지원이 효율적으로 이뤄지지 않고 있다. 해외에서처럼 폴리텍대학을 이제 대학교육의 주류로 이끌어내야 한다. 이러한 생각을 가지고 3년 동안 운영이사로 일하면서 지원을 끌어내는 데 집중했다. 2019년 정보통신분야에서 국무총리 포상을 받고, 노후화된 기숙사나 건물을 개선하는 데 200억원 예산지원을 이끌어내고, 국회를 찾아다니며 폴리텍 대학의 역할과 위상을 강화하려고 애쓴 것에 대해서 보람을 느끼기도 하지만 한계를 느낀 것도 사실이다    Q : 10%가 아닌 90%를 위한 교육 개혁을 주장하고 있다. 한국폴리텍대학이 90%를 위한 교육을 위한 시스템이라고 보는 것인가.  A : 정치할 때 다양한 교육 개혁 이론을 개발했다. 이곳에서 3년 동안 활동하다 보니 그동안 교육 개혁을 관념적으로만 생각하고 있음을 알게 됐다. 대학이 산업의 변화를 따라가고 있는지, 빠르게 변하는 기술변화와 혁신에 대응을 잘하고 있는지 등을 면밀하게 살펴봐야 할 때다. 그동안 우리 교육은 입시중심의 소수 10%만을 위한 교육정책을 중심으로 논의되고 있다. 이러다보니 대학 교육 역시 산업경쟁력과 혁신에 방점을 맞추기 보다는 대학서열 위주의10~20%만을 위한 대학성장 정책에 집중했다. 그리고 이제는 우리 사회의 원동력이기도 했던대학 교육이 기회의 사다리 역할도 못하고 있다. 대학들의 역량이 떨어지다보니 기업과 시장에서 요구하는 ‘공급의 실패‘를 가져온 것이다. 서울 중심의 대학서열은 더 강화되고 10~20%의 소수 인원에게만 사다리 역할을 하고 있다. 감히 말씀드리면 ’교육의 실패, 정책의 실패, 시장의 실패‘라고 해도 과언이 아니다. 기존 경쟁력 있는 대학은 연구 기능을 강화하면 된다. 나머지 80~90%의 학생도 함께 기회의 사다리를 만들기 위해서는 기술교육과 직업교육을 대폭적으로 강화해야 한다. 그 역할을 한국폴리텍대학 등이 하면 된다. 한국폴리텍대학을 산업과 지역의 거점 대학으로 만들어야 한다.    Q : 임금격차 문제는 어떻게 해결할 수 있나?  A : 개인적으로 ’교육판 경사노위‘가 필요하다고 생각한다. 대학개혁은 사회개혁과 같이 가야만 한다. 고용은 이제 겹눈(곤충 등에서 낱눈이 모여 생긴 눈)이 필요하다. 산업계, 지자체, 정부, 교육계, 대학 등이 함께 논의해야 한다. 산업이 요구하는 인재를 기업과 대학, 정부, 지자체가 함께 구체적으로 논의해야 한다. AI 개발인력이 부족하다면 대학에서 정원을 늘리거나 학과를 개설해야 하는데, 우리는 정원총량제나 대학 관계자들의 이해관계 때문에 기업과 산업의 수요에 맞는 인재를 배출할 수 없다. 정부가 조정의 역할을 하고 기업과 산업계가 경쟁력을 높여 성장하기 위해서는 현장에서부터 겹눈을 가지고 역할을 해야 한다. 기업은 필요하면 인재를 쓰게 된다. 임금격차 문제는 교육개혁, 대학개혁과 맞물려있다. 또한 국가균형발전과도 서로 연결되어 있다. 우리나라가 선도국가로 가기 위해서 지금 교육시스템으로 가능한가? 미래사회의 대응력을 키우기 위해 기술대학이나 직업학교에 집중투자 해야 한다. 북유럽은 직업교육이 국가발전의 성공적인 열쇠였다. 임금격차도 이러한 틀을 만들면 해결할 수 있다고 본다.</t>
+  </si>
+  <si>
+    <t>SK하이닉스·포스코도 확대키로삼성청년SW아카데미(SSAFY·사진) 등 대기업 우수 인재양성 프로그램이 대폭 확대된다.삼성전자, SK하이닉스, 포스코와 대한상공회의소, 기획재정부, 고용노동부 등은 지난 24일 ‘기업 우수 인재양성 프로그램 확대’ 사업을 위한 실무협의회를 개최했다고 29일 밝혔다.앞서 정부는 ‘하반기 경제정책 방향’을 발표하면서 대기업이 사회공헌 차원에서 청년층에 제공하고 있는 ‘디지털 분야 우수 인재양성 프로그램’을 ‘민간-정부 파트너십’을 통해 대폭 확대하기로 했다. 교육생·훈련강사 선발, 교육내용 구성 등은 기업이 지금과 같이 자율적으로 기획·운영하되, 기업이 교육 규모를 최대한 확대할 수 있도록 교육 확대에 따른 비용의 일정 부분을 정부가 분담하는 것이 골자다.파트너십을 통해 확대되는 교육 프로그램은 삼성전자 SSAFY, SK하이닉스 청년 하이파이브, 포스코 AI·빅데이터 3개 과정이다. 2020년 1500명이었던 전체 교육훈련생 규모는 내년까지 2배 이상 확대할 예정이다.삼성전자는 지난해 기수당 500명(연2회 모집)이었던 훈련생을 올해 상반기 750명(5기), 하반기 950명(6기)으로 순차적으로 확대한다. 내년부터는 교육규모를 기수당 약 1150명까지 늘릴 계획이다. 또 다음 달 부울경캠퍼스를 신설하고 구미·광주캠퍼스 교육인원을 확대하는 등 지방교육도 강화한다. SSAFY는 매달 100만원씩 제공하며 집중 소프트웨어 교육을 시키는 프로그램으로 취업률이 70%에 육박하는 프로그램이다. 이재용 삼성전자 부회장이 “소프트웨어 인재 양성은 IT생태계 저변 확대를 위해 필수적이다”며 직접 챙기는 사회공헌활동 중 하나다.</t>
+  </si>
+  <si>
+    <t>배재대가 운영하고 있는 소프트웨어 버스(PCU-SWBus).배재대학교(총장 김선재)가 인공지능(AI)·소프트웨어(SW)를 중요한 교육 가치로 내걸고 '미래인재 양성'에 집중하고 있다. 전교생이 AI 교육과 이를 활용한 기초를 갈고닦도록 권장하고 있다. 전공자가 아니더라도 미래사회 변화에 능동적으로 대처하는 AI·융합인재를 키우겠다는 대학 소신이 반영됐다. 배재대 모든 학생은 'AI와 미래' 과목을 수강, 미래를 이해하는 융·복합 인재로 양성된다. 또 대전지역 초·중·고교에 전국 최초 마련한 소프트웨어 버스(PCU-SWBus)로 가상현실이나 드론, 자율주행차량 체험교육도 진행한다. 매년 24개교 학생들이 체험하는 이 버스는 배재대 학생·교직원으로 구성된 재능나눔SW봉사단이 함께하면서 맞춤형 4차 산업혁명 교육을 진행한다.◇미래인재가 성장하는 배재대 캠퍼스배재대는 2019년 과학기술정보통신부 'SW중심대학'에 선정되면서 전 주기적 AI·SW교육 체계를 구축하고 있다. 입학에서 취업까지 초연결 AI 사회를 선도하는 4차 산업형 인재 양성이 목표다.특히 미래 지향과 교육 변화를 위해 AI·SW중심대학사업단(단장 정회경)을 설립했다. 배재대 AI·SW중심대학사업단은 창의성이 겸비된 미래인재 양성을 위해 최선을 다하고 있다. 사업이 시작된 2019년부터 '전교적 AI·SW중심 교육체계'를 만들고 있다. 'PCU 예비학기'를 통해 모든 예비 신입생이 SW교육을 받는다.입학 전 교육으로 신입생은 교양필수 1학점을 취득할 수 있고 재학생은 SW 전공 및 SW 비전공학과를 포함한 전교생 SW 기초교육을 목적으로 네 과목 교양필수(선택) 과목을 의무화해 6학점을 이수해야 한다.4차 산업혁명 시대 전문 인재를 양성하기 위한 전문교육도 진행해 단과대학인 AI·SW창의융합대학을 설립하고 AI·SW공학부를 만들어 전공자 1000명 양성에 나섰다. 집중학기제 운영으로 몰입형 교육과정이 가능하고 우수 학생 양성을 위한 SW사관학교도 운영해 전문성을 높여주고 있다. 미래인재는 창의성이 겸비돼야 하기 때문에 주어진 문제를 해결하는 방법을 고안하는 교과목 개발도 사업단 중점 사업이다.정답 1개를 구하기보다 여러 해결방안을 도출하기 위해 SW현장 미러형 실습실, 트랙전용 실습실, 메이커 스페이스 등 학습공간을 현장 밀착형으로 구성했다. 입학 전형에 SW특기자 전형을 신설해 대학 미래인재 양성 의지를 표명하기도 했다. 33명을 선발하는 2022학년도 대입에선 첫 학기 등록금이 전액 면제될 예정이다.빅데이터, IOT, 정보보안, 지능형게임, 모바일응용SW 등 5개 심화트랙은 학생 스스로 각 분야 전문가를 자처할 수 있도록 대학이 지원을 아끼지 않는다.정회경 배재대 AI·SW중심대학사업단장은 “배재대는 SW인재 양성이라는 정부 정책에 부응하는 학제 개편을 추진하면서 저학년부터 고학년까지 유연한 SW 지향 전공 교육체계를 갖추게 됐다”고 말했다.◇VR체험하고 4차 산업혁명 전하는 PCU-SWBus전국 SW중심대학 40여곳 중 유일하게 배재대만 보유한 PCU-SWBus는 첨단교육 장으로 불린다. 가상현실(VR)이나 드론, 자율주행차 공부를 하고 싶지만 여건이 마련되지 않은 초·중·고교와 소외계층 및 지역민을 찾아가 교육하는 환경을 조성했다. 배재대와 과학기술정보통신부, 정보통신기획평가원, 대전시, 대전시교육청이 함께 참여한 PCU-SWBus는 지난해 10월 시승식을 시작으로 지역 내 4차 산업혁명 교육 씨앗을 뿌리고 있다.올해도 학급이나 4차 산업혁명 관련 동아리 신청이 쇄도해 대전지역 24개교 대상 체험을 진행한다. 수준별 교육을 적용해 초·중·고교생은 기초과정인 'VR과 AI·SW맛보기'를, 중·고교생은 심화과정인 'AI·SW 흥미 느껴보기'를 제공한다.고령사회로 진입한 우리사회 정보격차 해소를 위해서도 노력하고 있다. 식당 등에서 인건비를 줄이기 위해 사용되는 키오스크(무인 정보단말기)에 AI 관련 프로그램을 선보여 지역주민에게 활용법을 알려주고 있다.취업을 앞둔 졸업 예정자나 미취업자는 SW 연계 맞춤형 직종을 추천해 주기도 한다. 배재대는 9년 연속 고용노동부 대학지원사업에 선정될 정도로 취·창업지원 분야서 탁월함을 인정받아 AI·SW 분야와 결합이 잘 되고 있다.김선재 배재대 총장은 “첨단 산업 연구는 미래형 인재 양성과 함께 대학의 시대적 사명”이라며 “'도전하는 청년 아펜젤러'라는 인재상 아래 4차 산업혁명에 기업에 필요한 인재, 미래시대를 이끌 유용한 인재를 키울 수 있도록 전력을 다하겠다”고 말했다.</t>
+  </si>
+  <si>
+    <t>게티이미지뱅크한국인터넷진흥원(KISA)이 1일 중소기업 대상 소프트웨어(SW) 보안약점 진단 서비스를 시작한다. 중소기업이 SW개발보안허브를 방문해 보안약점 진단을 받을 수 있는 내방형 서비스도 7월 30일부터 시행된다.과학기술정보통신부와 KISA는 지난해 말 시행된 SW진흥법을 근거로 민간 SW개발보안 사업을 추진한다. SW 개발 단계부터 보안약점을 막아 침해사고로 인한 사회적 비용을 절감하기 위해서다. 민간 SW개발보안 사업이 시행되는 것은 올해가 처음이다.SW개발보안허브는 이를 위한 거점으로 7월 중 판교 정보보호클러스터에 개소한다. 정부는 보안 투자 여력이 부족한 중소 SW 사업자를 대상으로 진단 인프라를 구축·운영한다. 보안약점 진단 전문가가 상주하면서 보안약점 진단 도구와 컨설팅 등 전문 서비스를 제공한다.중소기업 SW 보안약점 진단 서비스는 이번 사업의 핵심이다. 각 기업이 보유한 서비스 가운데 'C', 'C++', 'C#', '자바', 'JSP' 등 8개 언어와 '전자정부' '스프링 프레임워크' 등 4개 프레임워크에 해당하는 SW가 진단 대상이다. 이외 언어 또는 프레임워크에 대한 진단 가능 여부는 별도 문의를 통해 확인할 수 있다. 진단 기준은 행정안전부 보안약점 기준 49개 항목이다.SW 보안약점 진단 서비스는 출장형과 내방형 등 '투트랙'으로 진행된다. 출장형은 중소기업이 신청하면 전문가가 방문, 소스코드 보안약점을 진단해주는 서비스다. SW 보안약점 진단을 받고자 하는 중소기업은 보호나라 홈페이지를 통해 신청서와 중소기업확인서(또는 벤처등록증) 등 서류를 접수하면 된다.출장형 서비스에서 KISA는 신청 기업 진단 대상 환경을 확인한 뒤 방문 일정을 조율해 전문가를 지원한다. 1차 진단이 끝나면 소스코드 보완과 이행 점검 일정을 협의하고 전문가가 재방문하는 2차 진단이 이뤄진다. 전체 소요 기간은 소스코드 보완 기간을 제외하고 약 7일이다. 출장형 서비스는 기업당 연 1회에 한해 지원할 수 있으며 예산 소진시 서비스 신청이 마감될 수 있다.내방형은 중소기업이 진단 인프라가 갖춰진 SW개발보안허브에 내방, 소스코드 보안약점 진단을 받을 수 있는 서비스로 마련됐다. SW개발보안허브는 진단 전문가가 상주해 진단 도구를 제공하고 SW개발보안 체험, 교육 등 서비스를 제공하는 공간이다.판교 정보보호클러스터 4층에 위치한다. 직접 허브를 방문해 보안약점을 진단하고자 하는 기업은 보호나라 홈페이지를 통해 서류 접수, 환경 분석을 거쳐 허브를 방문하면 된다. 소요 기간은 약 6일이다.중소기업이 정부 지원을 통하지 않고 자체적으로 이 같은 서비스를 받을 경우 적지 않은 예산이 필요하다. 보안약점 진단 서비스는 제공업체별로 비용이 다르지만, KISA에서 제공하는 서비스는 중소기업에 약 1000만원 규모의 혜택을 주는 것으로 추산된다.민간 개발자 대상 온·오프라인 교육도 진행한다. KISA는 SW개발보안 전문인력 양성을 위한 교육과정을 마련했다. 교육은 개발자와 대학생 대상 과정으로 구분돼 진행되며 개발자 대상 교육은 1일(4시간)으로 오프라인 5회, 온라인 5회(총 10회)가 예정됐다. 대학생 대상 교육은 3일(18시간)로 오프라인에서 총 4회 운영된다.</t>
+  </si>
+  <si>
+    <t>▲ 서울시와 중소기업 지원기관인 서울산업진흥원(SBA)은 내달 12일까지 소프트웨어(SW) 혁신 인력 양성과 일자리 연계를 위해 싹(SSAC) 3기를 모집한다고 21일 밝혔다.    싹은 서울시에서 SW 혁신인재의 '싹'을 틔우고 성장시켜 SW 개발자로 데뷔할 수 있도록 돕는 교육브랜드다.    3기는 8월초 시작해 6개월 이내 기간에 전 과정을 무료로 진행한다.     1, 2기에 이어 웹, 앱, 인공지능(AI), 빅데이터, 사물인터넷(IoT)·로봇 5개 분야 9개 과정 170명 규모로 모집한다.서울시에 주소지를 둔 시민이라면 누구나 지원할수 있다.    싹 3기는 1, 2기 과정 운영 경험과 수료생 의견을 반영해 교육효과와 취업률 제고를 위해 교육과정 프로젝트 강화, 역량과 만족도 높은 강사진 배치 등을 해준다.    과정별 세부 커리큘럼 등 자세한 내용은 홈페이지에서 확인할 수 있다. 교육생 최종 선발은 과정별로 기초지식 테스트와 면접 등을 거쳐서 한다.    이광열 SBA 교육지원본부장은 "국내 산업적으로 개발자 인력난을 겪을 만큼 SW 인재를 많이 필요로 하는데 1·2기 경험을 바탕삼아 싹 3기에 더 수준 높은 교육환경을 제공해 더 좋은 결과를 낼 수 있도록 최선을 다하겠다"고 말했다. (연합뉴스)▶네이버에서도 뉴스는 연합뉴스[구독 클릭]▶[팩트체크]항생제 부작용 겪었어도 백신 접종?▶제보하기&lt;저작권자(c) 연합뉴스(https://www.yna.co.kr/), 무단 전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>KT 클라우드 CI. /KT KT는 23일 서울 영등포구 메리어트호텔에서 한국상용소프트웨어협회, 오픈플랫폼개발자커뮤니티, 인프라닉스와 국내 상용 소프트웨어의 클라우드 전환 지원을 위한 업무협약(MOU)을 체결했다고 밝혔다.이번 업무협약으로 4개 기관은 ▲상용소프트웨어의 클라우드 전환을 위한 인프라 자원 및 재원 지원 ▲개방형 클라우드 플랫폼 파스-타(PaaS-TA) 활용 기술 지원 ▲클라우드화를 통한 경쟁력 확보 및 글로벌 진출 토대 지원 등에 상호 협력한다.KT와 상용소프트웨어협회는 약 200개 상용소프트웨어기업을 대상으로 파스-타 기반의 클라우드화 1차 사업을 추진한다. 이후 2차 사업에서는 지원 대상 기업과 소프트웨어 분야를 늘릴 계획이다.KT는 이번 사업에서 서비스형 인프라(Infrastructure as a Service·IaaS)를 제공하고 기업들이 보다 저렴한 가격으로 인프라를 이용할 수 있게 지원한다. 인프라닉스와 오픈플랫폼개발자커뮤니티는 클라우드화를 위한 기술과 교육활동을 진행한다.이미희 KT 클라우드·디지털전환(DX)사업본부장 상무는 “이번 클라우드화 사업은 디지털 서비스 전문 계약제도에 등록할 수 있는 국산 소프트웨어를 늘려 공공기관 정보시스템 클라우드 전환에도 긍정적 영향을 줄 것”이라며 “압도적인 클라우드 인프라와 기술 역량을 기반으로 다양한 산업의 DX 이끄는 데 앞장서겠다”고 말했다.[김양혁 기자 present@chosunbiz.com] ▶네이버에서 '명품 경제뉴스' 조선비즈를 구독하세요▶잘나가던 미샤, 어쩌다 4년 새 주인 5번 바뀌었을까▶"14년 전쟁 이겼다"… 김앤장 무릎꿇린 로펌의 정체	저작권자 ⓒ 조선비즈, 무단 전재 및 재배포 금지</t>
   </si>
 </sst>
 </file>
@@ -756,13 +807,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,515 +826,608 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>95</v>
+      </c>
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>97</v>
+      </c>
+      <c r="F4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>99</v>
+      </c>
+      <c r="F6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>101</v>
+      </c>
+      <c r="F8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>102</v>
+      </c>
+      <c r="F9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>99</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>96</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>103</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>104</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>101</v>
+      </c>
+      <c r="F15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>99</v>
+      </c>
+      <c r="F16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>105</v>
+      </c>
+      <c r="F17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>99</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>106</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>108</v>
+      </c>
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>102</v>
+      </c>
+      <c r="F22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>101</v>
+      </c>
+      <c r="F23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>102</v>
+      </c>
+      <c r="F24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>102</v>
+      </c>
+      <c r="F25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>109</v>
+      </c>
+      <c r="F26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>105</v>
+      </c>
+      <c r="F27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>99</v>
+      </c>
+      <c r="F28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>99</v>
+      </c>
+      <c r="F29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>103</v>
+      </c>
+      <c r="F30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>110</v>
+      </c>
+      <c r="F31" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
